--- a/src/attributions/attributions_saliency_traj_450.xlsx
+++ b/src/attributions/attributions_saliency_traj_450.xlsx
@@ -1573,571 +1573,571 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02248849719762802</v>
+        <v>0.1874334812164307</v>
       </c>
       <c r="B3" t="n">
-        <v>0.009254105389118195</v>
+        <v>1.174167037010193</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006598480045795441</v>
+        <v>0.1366700232028961</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01050060428678989</v>
+        <v>0.3157332837581635</v>
       </c>
       <c r="E3" t="n">
-        <v>0.005756938830018044</v>
+        <v>0.2932968139648438</v>
       </c>
       <c r="F3" t="n">
-        <v>0.005729958415031433</v>
+        <v>0.1372039467096329</v>
       </c>
       <c r="G3" t="n">
-        <v>0.006870296318084002</v>
+        <v>0.0005135741084814072</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001126577379181981</v>
+        <v>0.00472415704280138</v>
       </c>
       <c r="I3" t="n">
-        <v>0.00114471185952425</v>
+        <v>0.06461440026760101</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0212213434278965</v>
+        <v>0.2934383451938629</v>
       </c>
       <c r="K3" t="n">
-        <v>0.004280811175704002</v>
+        <v>0.9972403049468994</v>
       </c>
       <c r="L3" t="n">
-        <v>0.01208578329533339</v>
+        <v>0.05488663166761398</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01171989925205708</v>
+        <v>0.49472975730896</v>
       </c>
       <c r="N3" t="n">
-        <v>0.003948792815208435</v>
+        <v>0.3808223605155945</v>
       </c>
       <c r="O3" t="n">
-        <v>0.008185341022908688</v>
+        <v>0.1730814725160599</v>
       </c>
       <c r="P3" t="n">
-        <v>0.009933252818882465</v>
+        <v>0.01006568223237991</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0009341171244159341</v>
+        <v>0.1696846038103104</v>
       </c>
       <c r="R3" t="n">
-        <v>0.001147327246144414</v>
+        <v>0.1518992632627487</v>
       </c>
       <c r="S3" t="n">
-        <v>0.0001260405697394162</v>
+        <v>0.05171718820929527</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0008767246035858989</v>
+        <v>0.2376505583524704</v>
       </c>
       <c r="U3" t="n">
-        <v>0.001091401907615364</v>
+        <v>0.01135065220296383</v>
       </c>
       <c r="V3" t="n">
-        <v>0.006084384396672249</v>
+        <v>0.07492361962795258</v>
       </c>
       <c r="W3" t="n">
-        <v>0.0004657373647205532</v>
+        <v>0.1777337789535522</v>
       </c>
       <c r="X3" t="n">
-        <v>0.00139064050745219</v>
+        <v>0.1000659689307213</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.002038483275100589</v>
+        <v>0.02873995900154114</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.000957977375946939</v>
+        <v>0.135853499174118</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0001782858453225344</v>
+        <v>0.08560037612915039</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.003476788057014346</v>
+        <v>0.1146728545427322</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.001710518263280392</v>
+        <v>0.172933503985405</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.002283820183947682</v>
+        <v>0.1044709607958794</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.003399601439014077</v>
+        <v>0.09225244075059891</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.004102970473468304</v>
+        <v>0.1495141535997391</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.004960303194820881</v>
+        <v>0.09808097779750824</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.001351246144622564</v>
+        <v>0.02289428375661373</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.005880491342395544</v>
+        <v>0.0003624577075242996</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.0002102609141729772</v>
+        <v>0.0144845824688673</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.006419812794774771</v>
+        <v>0.110375888645649</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.003987238276749849</v>
+        <v>0.1451651453971863</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.0001690678909653798</v>
+        <v>0.02576176077127457</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.002969532273709774</v>
+        <v>0.0625445693731308</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.0001704971655271947</v>
+        <v>0.08440963923931122</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.003736962797120214</v>
+        <v>0.1506190001964569</v>
       </c>
       <c r="AQ3" t="n">
-        <v>4.906838876195252e-05</v>
+        <v>0.01546703092753887</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.003879253286868334</v>
+        <v>0.003534838557243347</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.001609523547813296</v>
+        <v>0.07143621146678925</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.01004149485379457</v>
+        <v>0.008420359343290329</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.001267438870854676</v>
+        <v>0.6640658974647522</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.004702803213149309</v>
+        <v>0.08558817207813263</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.003643283853307366</v>
+        <v>0.145680844783783</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.005490276496857405</v>
+        <v>0.1668777912855148</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.007467931136488914</v>
+        <v>0.088369220495224</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.003274317132309079</v>
+        <v>0.2004780918359756</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.004119134973734617</v>
+        <v>0.001935243606567383</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.0007114879554137588</v>
+        <v>0.03903328254818916</v>
       </c>
       <c r="BC3" t="n">
-        <v>0.006589097902178764</v>
+        <v>0.02366500347852707</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.003255021758377552</v>
+        <v>0.203141376376152</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.004622476641088724</v>
+        <v>0.1827467232942581</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.002284293295815587</v>
+        <v>0.1404949277639389</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.000116546762001235</v>
+        <v>0.2828280031681061</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.0006510503590106964</v>
+        <v>0.06684321910142899</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.008213023655116558</v>
+        <v>0.1123082041740417</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.01299881748855114</v>
+        <v>0.09428386390209198</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.0005307791288942099</v>
+        <v>0.08800670504570007</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.002486584708094597</v>
+        <v>0.009112495929002762</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.001165814814157784</v>
+        <v>0.04636141285300255</v>
       </c>
       <c r="BN3" t="n">
-        <v>6.446478073485196e-05</v>
+        <v>0.05128166824579239</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.002451704116538167</v>
+        <v>0.04411576315760612</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.002920271828770638</v>
+        <v>0.1694181859493256</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.0004035283636767417</v>
+        <v>0.1189005225896835</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.001155565958470106</v>
+        <v>0.08192227780818939</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.002668149303644896</v>
+        <v>0.09695643186569214</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0002942468272522092</v>
+        <v>0.1332598775625229</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.009586382657289505</v>
+        <v>0.03803753107786179</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.00270405225455761</v>
+        <v>0.3647027611732483</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.002893403638154268</v>
+        <v>0.1442281603813171</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.003751377807930112</v>
+        <v>0.03307642415165901</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.00409961910918355</v>
+        <v>0.09381276369094849</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.0009453961392864585</v>
+        <v>0.003650225233286619</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.000777619075961411</v>
+        <v>0.0628262385725975</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.002084610518068075</v>
+        <v>0.03532319143414497</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.0009635436581447721</v>
+        <v>0.07401256263256073</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.004417127463966608</v>
+        <v>0.02001530863344669</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.00542031042277813</v>
+        <v>0.2151750922203064</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.0007236144738271832</v>
+        <v>0.04489206895232201</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.0009960774332284927</v>
+        <v>0.02617873623967171</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.001516900490969419</v>
+        <v>0.00646558590233326</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.001569094019941986</v>
+        <v>0.01783866062760353</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.0009679143549874425</v>
+        <v>0.04201002418994904</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.000946457264944911</v>
+        <v>0.01830406673252583</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.0003459428553469479</v>
+        <v>0.001053368672728539</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.00188748212531209</v>
+        <v>0.2104822844266891</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.0005098581314086914</v>
+        <v>0.06361887603998184</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.001420094864442945</v>
+        <v>0.05763035640120506</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.002274519531056285</v>
+        <v>0.2071806639432907</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.006205817218869925</v>
+        <v>0.2781183123588562</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.01081850565969944</v>
+        <v>0.1158445104956627</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.0001862225763034075</v>
+        <v>0.1442816704511642</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.007022884674370289</v>
+        <v>0.1335178464651108</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.0005159556167200208</v>
+        <v>0.02082039788365364</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.003471131436526775</v>
+        <v>0.005940065253525972</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.005893558263778687</v>
+        <v>0.2171172499656677</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.001129033858887851</v>
+        <v>0.0639120414853096</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.0009006594773381948</v>
+        <v>0.06823620200157166</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.003169606905430555</v>
+        <v>0.009816945530474186</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.001660124864429235</v>
+        <v>0.002062613610178232</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.001280912198126316</v>
+        <v>0.07504911720752716</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.0001589246385265142</v>
+        <v>0.02781382203102112</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0002799960784614086</v>
+        <v>0.0003633499145507812</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.0009527350775897503</v>
+        <v>0.06474673002958298</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.01231003645807505</v>
+        <v>0.3168402314186096</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.003929896280169487</v>
+        <v>0.06540004163980484</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.001994594000279903</v>
+        <v>0.03395636007189751</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.00159527244977653</v>
+        <v>0.02504998259246349</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.002476854017004371</v>
+        <v>0.007496174424886703</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.003514647949486971</v>
+        <v>0.04778341948986053</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.0004598608647938818</v>
+        <v>0.07995077967643738</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.0008150660432875156</v>
+        <v>0.003943442367017269</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.001791196642443538</v>
+        <v>0.06363321095705032</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.004217654000967741</v>
+        <v>0.1396892666816711</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.0001960962254088372</v>
+        <v>0.0528244860470295</v>
       </c>
       <c r="DQ3" t="n">
-        <v>4.846829688176513e-05</v>
+        <v>0.1214384809136391</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.001753750373609364</v>
+        <v>0.1042631864547729</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0003370044287294149</v>
+        <v>0.02151685580611229</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.0006847157492302358</v>
+        <v>0.07593436539173126</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.001328932703472674</v>
+        <v>0.02704517915844917</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.0004561091191135347</v>
+        <v>0.02798672020435333</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.0001783063635230064</v>
+        <v>0.003951992839574814</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.0002786298573482782</v>
+        <v>0.2119205296039581</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.003114747814834118</v>
+        <v>0.0194092895835638</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.001222413615323603</v>
+        <v>0.09820406883955002</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.0009739525848999619</v>
+        <v>0.05455410107970238</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.001986816991120577</v>
+        <v>0.09031199663877487</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.003346242709085345</v>
+        <v>0.01184107922017574</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.004132936242967844</v>
+        <v>0.1560710668563843</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.0002018826780840755</v>
+        <v>0.03834106773138046</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.00924017746001482</v>
+        <v>0.01039377227425575</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.004956471733748913</v>
+        <v>0.09913843125104904</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.0008374880417250097</v>
+        <v>0.04579013958573341</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.001561958575621247</v>
+        <v>0.02092143520712852</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.004026759415864944</v>
+        <v>0.05852336809039116</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.003657649038359523</v>
+        <v>0.0227978304028511</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.001115166349336505</v>
+        <v>0.105936661362648</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.004927042871713638</v>
+        <v>0.02357893064618111</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.001163900946266949</v>
+        <v>0.03630084544420242</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.001731080352328718</v>
+        <v>0.01225440204143524</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.00363001343794167</v>
+        <v>0.186582013964653</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.005636900197714567</v>
+        <v>0.1285841315984726</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.002089178655296564</v>
+        <v>0.06696166098117828</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.001147840637713671</v>
+        <v>0.03320393711328506</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.001903679920360446</v>
+        <v>0.02270646020770073</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.00167581404093653</v>
+        <v>0.04686909541487694</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.002191494684666395</v>
+        <v>0.06324481964111328</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.001435995334759355</v>
+        <v>0.03390850499272346</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.004119975492358208</v>
+        <v>0.02319303527474403</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.005235173739492893</v>
+        <v>0.2281766980886459</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.001929203048348427</v>
+        <v>0.03525438532233238</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.0005478879902511835</v>
+        <v>0.02414577081799507</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.002550800563767552</v>
+        <v>0.02617188356816769</v>
       </c>
       <c r="FC3" t="n">
-        <v>6.269593723118305e-05</v>
+        <v>0.0111882109194994</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.0008878591470420361</v>
+        <v>0.07858432829380035</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.001554691698402166</v>
+        <v>0.03799222037196159</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.0009776630904525518</v>
+        <v>0.02351614832878113</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.003975932952016592</v>
+        <v>0.01569171436131001</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.001297603594139218</v>
+        <v>0.02743617817759514</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.0005298760370351374</v>
+        <v>0.08185573667287827</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.003710288554430008</v>
+        <v>0.08068058639764786</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.003248327877372503</v>
+        <v>0.09133830666542053</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.003776312572881579</v>
+        <v>0.03898730501532555</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.002963046543300152</v>
+        <v>0.08364098519086838</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.004057319834828377</v>
+        <v>0.0544421449303627</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.001573622808791697</v>
+        <v>0.02110466919839382</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.003122939262539148</v>
+        <v>0.06866534054279327</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.00624079629778862</v>
+        <v>0.2011135369539261</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.004844977054744959</v>
+        <v>0.1161793693900108</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.005109240300953388</v>
+        <v>0.05393354967236519</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.00100527610629797</v>
+        <v>0.06905032694339752</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.001255885465070605</v>
+        <v>0.05022833868861198</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.003132652258500457</v>
+        <v>0.0437638908624649</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.002668440341949463</v>
+        <v>0.2444706857204437</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.000701919780112803</v>
+        <v>0.003263190388679504</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.005007688887417316</v>
+        <v>0.1513832360506058</v>
       </c>
       <c r="FZ3" t="n">
-        <v>2.90113384835422e-05</v>
+        <v>0.02175978571176529</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.002569529693573713</v>
+        <v>0.003448285162448883</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.001202878309413791</v>
+        <v>0.05747028812766075</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.002321989275515079</v>
+        <v>0.2668677568435669</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.000585959292948246</v>
+        <v>0.1271781623363495</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.001335699926130474</v>
+        <v>0.2231973558664322</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.003007906954735518</v>
+        <v>0.1033066511154175</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.002158935414627194</v>
+        <v>0.01454924233257771</v>
       </c>
     </row>
     <row r="4">
@@ -2711,5123 +2711,5123 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.01563739590346813</v>
+        <v>8.706687367521226e-05</v>
       </c>
       <c r="B5" t="n">
-        <v>0.006806974299252033</v>
+        <v>0.00301927444525063</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0001505709660705179</v>
+        <v>0.0002099820121657103</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006143273320049047</v>
+        <v>0.001249439781531692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.002883806591853499</v>
+        <v>1.772912219166756e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0009736228385008872</v>
+        <v>5.676033833879046e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.003840877674520016</v>
+        <v>0.0004008414398413152</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001010365231195465</v>
+        <v>0.001121189794503152</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0004398622550070286</v>
+        <v>0.0001237065152963623</v>
       </c>
       <c r="J5" t="n">
-        <v>0.01336287893354893</v>
+        <v>8.025672286748886e-07</v>
       </c>
       <c r="K5" t="n">
-        <v>0.002274063182994723</v>
+        <v>0.002658883575350046</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001378115965053439</v>
+        <v>0.000117341274744831</v>
       </c>
       <c r="M5" t="n">
-        <v>0.005523347295820713</v>
+        <v>0.001645230338908732</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005490921903401613</v>
+        <v>0.0004555725608952343</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001512261922471225</v>
+        <v>0.0006383443251252174</v>
       </c>
       <c r="P5" t="n">
-        <v>0.003879972267895937</v>
+        <v>0.0002529897610656917</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.00126255105715245</v>
+        <v>0.0004422509227879345</v>
       </c>
       <c r="R5" t="n">
-        <v>0.001754943281412125</v>
+        <v>0.0001966504351003096</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002035991987213492</v>
+        <v>0.0001381563197355717</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0005368260899558663</v>
+        <v>0.0007326180348172784</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0003445126058068126</v>
+        <v>0.0002237341104773805</v>
       </c>
       <c r="V5" t="n">
-        <v>0.0003439032007008791</v>
+        <v>0.0001672255166340619</v>
       </c>
       <c r="W5" t="n">
-        <v>0.002034740289673209</v>
+        <v>0.0008211043896153569</v>
       </c>
       <c r="X5" t="n">
-        <v>0.0005479658721014857</v>
+        <v>0.0004539426299743354</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.001622888492420316</v>
+        <v>0.0001743646862450987</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.001591964857652783</v>
+        <v>0.0001476339239161462</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.0001481148938182741</v>
+        <v>0.0001582795666763559</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.001886419137008488</v>
+        <v>1.174348290078342e-05</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.0008497278322465718</v>
+        <v>0.000899846781976521</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.001289584208279848</v>
+        <v>0.0002188359794672579</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.001184899359941483</v>
+        <v>0.0002171360538341105</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.000505178002640605</v>
+        <v>0.0002187395730288699</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.001271846471354365</v>
+        <v>0.0001623493590159342</v>
       </c>
       <c r="AH5" t="n">
-        <v>2.344389213249087e-05</v>
+        <v>0.0006953779375180602</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.003406950738281012</v>
+        <v>0.0003049967053811997</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.001241235644556582</v>
+        <v>0.0001158785016741604</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.00238730339333415</v>
+        <v>0.0001693929953034967</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.0001408221869496629</v>
+        <v>0.0001678338448982686</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.0005221323808655143</v>
+        <v>1.019474257191177e-05</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.0008422055398114026</v>
+        <v>0.0005094971274957061</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.001420660060830414</v>
+        <v>0.0004391305847093463</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.001412216341122985</v>
+        <v>0.0001475885510444641</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.0001967225107364357</v>
+        <v>0.0003446565533522516</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.003045427845790982</v>
+        <v>0.0002299441257491708</v>
       </c>
       <c r="AS5" t="n">
-        <v>5.560698627959937e-05</v>
+        <v>5.030204192735255e-05</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.007927083410322666</v>
+        <v>0.0001369229430565611</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.002162300515919924</v>
+        <v>0.001917376415804029</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.0004617331724148244</v>
+        <v>0.0006195041351020336</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.0004981989040970802</v>
+        <v>0.0003158085455652326</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.0007231096969917417</v>
+        <v>0.0012212167493999</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.002764375880360603</v>
+        <v>0.0003582584904506803</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.001723409397527575</v>
+        <v>0.0002826061099767685</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.00192389520816505</v>
+        <v>0.000916133401915431</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.0005369044956751168</v>
+        <v>0.000145546582643874</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.004740844946354628</v>
+        <v>0.0006859867135062814</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.001998695312067866</v>
+        <v>0.0003930122475139797</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.0006101992912590504</v>
+        <v>0.000661688856780529</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.001550041721202433</v>
+        <v>5.234047421254218e-06</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.0005433250917121768</v>
+        <v>0.0007490813150070608</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.001208193833008409</v>
+        <v>0.0001162170228781179</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.003100558184087276</v>
+        <v>0.0002021403633989394</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.004268847405910492</v>
+        <v>0.0002273080172017217</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.0004976000054739416</v>
+        <v>0.0001587088336236775</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.001865934464149177</v>
+        <v>0.0004789028316736221</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.00133761006873101</v>
+        <v>0.0002104432205669582</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.0004187994927633554</v>
+        <v>0.0001503513485658914</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.002340275561437011</v>
+        <v>0.0008721929043531418</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.001267532119527459</v>
+        <v>0.001011211075820029</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.0003726835129782557</v>
+        <v>0.000494548468850553</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.0006384038715623319</v>
+        <v>0.0002792757877614349</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.0004258242261130363</v>
+        <v>6.168887193780392e-05</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0008660596795380116</v>
+        <v>0.0007190096657723188</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.006180482916533947</v>
+        <v>2.774290624074638e-05</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.0002507882309146225</v>
+        <v>0.001087044249288738</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.0009398330003023148</v>
+        <v>0.0001577701477799565</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.001826019026339054</v>
+        <v>0.0001546146813780069</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.0002846456482075155</v>
+        <v>0.0007028183317743242</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.001105752307921648</v>
+        <v>0.0001493566669523716</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.0001645580632612109</v>
+        <v>0.000306129310047254</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.0005592386587522924</v>
+        <v>0.0002326805988559499</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.0001713394885882735</v>
+        <v>0.0001159347521024756</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.003290602704510093</v>
+        <v>7.906660175649449e-05</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.001063243835233152</v>
+        <v>0.0006542634801007807</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.0001865257072495297</v>
+        <v>8.214152330765501e-06</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.001918672467581928</v>
+        <v>1.324007462244481e-05</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0004108466091565788</v>
+        <v>6.469881918746978e-05</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.0005402051610872149</v>
+        <v>6.00492894591298e-05</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0004487623227760196</v>
+        <v>0.0001293038803851232</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.0001337651629000902</v>
+        <v>4.909978088107891e-05</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0002381514641456306</v>
+        <v>7.316227129194885e-05</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.002479763003066182</v>
+        <v>0.0007106829434633255</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.001698076142929494</v>
+        <v>0.0004166384169366211</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0005196178099140525</v>
+        <v>9.363787830807269e-05</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.0001903592637972906</v>
+        <v>0.00115254835691303</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.005092861596494913</v>
+        <v>0.0008719873148947954</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.001617845264263451</v>
+        <v>0.001061496557667851</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.001514932955615222</v>
+        <v>0.00028749875491485</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.003432396799325943</v>
+        <v>0.0005321434000506997</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.0009239243809133768</v>
+        <v>0.0001943256938830018</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.002961531514301896</v>
+        <v>0.0001071423321263865</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.0009696101187728345</v>
+        <v>0.0005674536805599928</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.0003322047414258122</v>
+        <v>0.0001668680924922228</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0009614442242309451</v>
+        <v>0.0001967638818314299</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0002466458827257156</v>
+        <v>0.0001580189127707854</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.0008836371707729995</v>
+        <v>2.815599691530224e-05</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.00052679143846035</v>
+        <v>0.0001521031517768279</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.0001147592265624553</v>
+        <v>7.324963371502236e-05</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.0001595807989360765</v>
+        <v>6.61355588817969e-05</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0002934354706667364</v>
+        <v>0.0003032284439541399</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.003262308891862631</v>
+        <v>0.0006006977637298405</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.0005158438580110669</v>
+        <v>0.0001436808088328689</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.00333198718726635</v>
+        <v>0.0003622088115662336</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.001246149186044931</v>
+        <v>0.0009102382464334369</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.0003918190486729145</v>
+        <v>0.0001541778619866818</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.000194361389731057</v>
+        <v>0.0001868671388365328</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.0005353735177777708</v>
+        <v>0.0001326769561273977</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.0004221507697366178</v>
+        <v>0.0001188603055197746</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.00132780137937516</v>
+        <v>0.0002096493117278442</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.001962327165529132</v>
+        <v>0.0003757273661904037</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.0002559770364314318</v>
+        <v>0.0002485853619873524</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.0006062579341232777</v>
+        <v>0.0006855422980152071</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0004675724194385111</v>
+        <v>0.0005198348662815988</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.000254295882768929</v>
+        <v>0.000126073049614206</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.0001891001593321562</v>
+        <v>0.0001942039525602013</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.001070797792635858</v>
+        <v>0.0001153352350229397</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.000421512930188328</v>
+        <v>0.0005613936227746308</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.0008912156336009502</v>
+        <v>2.661212056409568e-05</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.0007388449739664793</v>
+        <v>0.0002601345186121762</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.00115722487680614</v>
+        <v>0.0002488727914169431</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.001617927919141948</v>
+        <v>0.0002133293310180306</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.001059777452610433</v>
+        <v>1.845648512244225e-06</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.0003085149510297924</v>
+        <v>0.0001292741508223116</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.000109416403574869</v>
+        <v>0.0001594794739503413</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.002889392897486687</v>
+        <v>0.0005070181214250624</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.001101438771001995</v>
+        <v>0.0001507672277512029</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.003867495339363813</v>
+        <v>0.000126733270008117</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.001616589725017548</v>
+        <v>0.0003492774849291891</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.000381247722543776</v>
+        <v>0.0002170399093301967</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.001773661584593356</v>
+        <v>4.248414188623428e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0001962493406608701</v>
+        <v>0.0006888650823384523</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.001062366995029151</v>
+        <v>5.827882341691293e-05</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.0007975285407155752</v>
+        <v>0.0001616989902686328</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.0006709263543598354</v>
+        <v>0.0001416397280991077</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.0008007348515093327</v>
+        <v>7.083600212354213e-05</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.0003640434588305652</v>
+        <v>8.933748176787049e-05</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.0007405219366773963</v>
+        <v>0.0005964258452877402</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.001032447325997055</v>
+        <v>0.0002553644881118089</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.0003921185852959752</v>
+        <v>0.0007557932985946536</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.002582170767709613</v>
+        <v>0.0002917294041253626</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.0001973513572011143</v>
+        <v>0.000194850261323154</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.0008583213784731925</v>
+        <v>0.0001442558568669483</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.001008708379231393</v>
+        <v>0.0004103020473849028</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.0002801756490953267</v>
+        <v>0.0001578950032126158</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.003295494941994548</v>
+        <v>9.131665137829259e-06</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.0001574498310219496</v>
+        <v>0.0006368097383528948</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.0003014714748132974</v>
+        <v>3.999064574600197e-05</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.001095735235139728</v>
+        <v>4.80505550513044e-05</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.0004387889639474452</v>
+        <v>9.054614929482341e-05</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.0003940361784771085</v>
+        <v>2.616855999804102e-05</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.0004060832434333861</v>
+        <v>0.0001112509416998364</v>
       </c>
       <c r="FE5" t="n">
-        <v>1.462160071241669e-06</v>
+        <v>5.690547186532058e-05</v>
       </c>
       <c r="FF5" t="n">
-        <v>6.890507938805968e-05</v>
+        <v>0.000133852765429765</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.001511332113295794</v>
+        <v>9.55099385464564e-05</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.001953175291419029</v>
+        <v>0.0001084342802641913</v>
       </c>
       <c r="FI5" t="n">
-        <v>9.342416888102889e-05</v>
+        <v>0.0005805406835861504</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.000774943851865828</v>
+        <v>0.0002357877674512565</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.000885210232809186</v>
+        <v>0.0002802334784064442</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.0006713303737342358</v>
+        <v>0.0002440566750010476</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.0008457188960164785</v>
+        <v>0.0001454620505683124</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.0004346038622315973</v>
+        <v>5.680692993337288e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>2.737957402132452e-05</v>
+        <v>0.0003156644816044718</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.001202480867505074</v>
+        <v>0.0002335105382371694</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.001978680258616805</v>
+        <v>0.0001533122849650681</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.001607076381333172</v>
+        <v>0.0004323612956795841</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.005962774157524109</v>
+        <v>7.709278725087643e-05</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.0006985089275985956</v>
+        <v>0.0001443930668756366</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.0003819757548626512</v>
+        <v>0.0001196069206343964</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.001382207847200334</v>
+        <v>0.0005680879112333059</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.0005178787396289408</v>
+        <v>0.0003842441365122795</v>
       </c>
       <c r="FX5" t="n">
-        <v>1.166594756796258e-05</v>
+        <v>0.0001799307210603729</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.0006723795086145401</v>
+        <v>0.0003791265480685979</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.001359168440103531</v>
+        <v>0.0001349178492091596</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.00188723485916853</v>
+        <v>0.000144232326420024</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.002768468111753464</v>
+        <v>0.0002289889962412417</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.001364962547086179</v>
+        <v>6.018086787662469e-05</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.0005502719432115555</v>
+        <v>0.0005643132608383894</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.0005784938111901283</v>
+        <v>0.0008362866356037557</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.0003527930239215493</v>
+        <v>6.615524762310088e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.0007513506570830941</v>
+        <v>0.0002604167093522847</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.04609477892518044</v>
+        <v>0.101574182510376</v>
       </c>
       <c r="B6" t="n">
-        <v>0.04706140980124474</v>
+        <v>0.2861509025096893</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01553841307759285</v>
+        <v>0.00777813233435154</v>
       </c>
       <c r="D6" t="n">
-        <v>0.05247420817613602</v>
+        <v>0.04312169551849365</v>
       </c>
       <c r="E6" t="n">
-        <v>0.01095996797084808</v>
+        <v>0.04616162925958633</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002005939371883869</v>
+        <v>0.01792985014617443</v>
       </c>
       <c r="G6" t="n">
-        <v>0.007681179791688919</v>
+        <v>0.05105390027165413</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0002472593332640827</v>
+        <v>0.03753090649843216</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01216488983482122</v>
+        <v>0.01273811049759388</v>
       </c>
       <c r="J6" t="n">
-        <v>0.04456812515854836</v>
+        <v>0.09339240938425064</v>
       </c>
       <c r="K6" t="n">
-        <v>0.01733549311757088</v>
+        <v>0.240458220243454</v>
       </c>
       <c r="L6" t="n">
-        <v>0.04225798696279526</v>
+        <v>0.01718949899077415</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04668612033128738</v>
+        <v>0.1057008802890778</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01042966078966856</v>
+        <v>0.08266192674636841</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02490477450191975</v>
+        <v>0.03767954558134079</v>
       </c>
       <c r="P6" t="n">
-        <v>0.02638853341341019</v>
+        <v>0.05574293062090874</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01243165042251348</v>
+        <v>0.05583303794264793</v>
       </c>
       <c r="R6" t="n">
-        <v>0.006480526644736528</v>
+        <v>0.0109510151669383</v>
       </c>
       <c r="S6" t="n">
-        <v>0.0005866521969437599</v>
+        <v>0.00872361846268177</v>
       </c>
       <c r="T6" t="n">
-        <v>0.005185310263186693</v>
+        <v>0.07814550399780273</v>
       </c>
       <c r="U6" t="n">
-        <v>0.006623269990086555</v>
+        <v>0.00945141538977623</v>
       </c>
       <c r="V6" t="n">
-        <v>0.01624579355120659</v>
+        <v>0.01951509527862072</v>
       </c>
       <c r="W6" t="n">
-        <v>0.004189902916550636</v>
+        <v>0.043027114123106</v>
       </c>
       <c r="X6" t="n">
-        <v>0.004284649156033993</v>
+        <v>0.04202414304018021</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.006392870098352432</v>
+        <v>0.02663620188832283</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.001406535157002509</v>
+        <v>0.0112055940553546</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.009464762173593044</v>
+        <v>0.007489084731787443</v>
       </c>
       <c r="AB6" t="n">
-        <v>0.009209946729242802</v>
+        <v>0.071088045835495</v>
       </c>
       <c r="AC6" t="n">
-        <v>0.001271212939172983</v>
+        <v>0.106446661055088</v>
       </c>
       <c r="AD6" t="n">
-        <v>0.02009795047342777</v>
+        <v>0.02590586617588997</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.008738892152905464</v>
+        <v>0.03149837628006935</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.02568059228360653</v>
+        <v>0.005534244701266289</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.005324401892721653</v>
+        <v>0.003629574552178383</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.01170704327523708</v>
+        <v>0.06857868283987045</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.001249401131644845</v>
+        <v>8.562579751014709e-06</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0.006234601140022278</v>
+        <v>0.01591534726321697</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.01922031119465828</v>
+        <v>0.003820633050054312</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.000936412310693413</v>
+        <v>0.05545841157436371</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.006083057727664709</v>
+        <v>0.009094040840864182</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.01294489949941635</v>
+        <v>0.02961364947259426</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.006191608496010303</v>
+        <v>0.006465631071478128</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.01152230426669121</v>
+        <v>0.03481484204530716</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.003205874236300588</v>
+        <v>0.01933549903333187</v>
       </c>
       <c r="AR6" t="n">
-        <v>0.01238110475242138</v>
+        <v>0.004640771076083183</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.001247843494638801</v>
+        <v>0.02830061502754688</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.02364754118025303</v>
+        <v>0.001194097800180316</v>
       </c>
       <c r="AU6" t="n">
-        <v>0.01481174025684595</v>
+        <v>0.1597684174776077</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.01279348973184824</v>
+        <v>0.03485792875289917</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.02561969682574272</v>
+        <v>0.00452219694852829</v>
       </c>
       <c r="AX6" t="n">
-        <v>0.006227550562471151</v>
+        <v>0.03554753214120865</v>
       </c>
       <c r="AY6" t="n">
-        <v>0.02636386081576347</v>
+        <v>0.02816266193985939</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.01957007497549057</v>
+        <v>0.03225649893283844</v>
       </c>
       <c r="BA6" t="n">
-        <v>0.008062124252319336</v>
+        <v>0.006102883256971836</v>
       </c>
       <c r="BB6" t="n">
-        <v>0.00938791036605835</v>
+        <v>0.02223794162273407</v>
       </c>
       <c r="BC6" t="n">
-        <v>0.0174702350050211</v>
+        <v>0.005986536853015423</v>
       </c>
       <c r="BD6" t="n">
-        <v>0.009121395647525787</v>
+        <v>0.029914490878582</v>
       </c>
       <c r="BE6" t="n">
-        <v>0.01653831452131271</v>
+        <v>0.0353788286447525</v>
       </c>
       <c r="BF6" t="n">
-        <v>0.008218751288950443</v>
+        <v>0.01429241523146629</v>
       </c>
       <c r="BG6" t="n">
-        <v>0.009756749495863914</v>
+        <v>0.09646011888980865</v>
       </c>
       <c r="BH6" t="n">
-        <v>0.002240704838186502</v>
+        <v>0.00603719474747777</v>
       </c>
       <c r="BI6" t="n">
-        <v>0.01960664428770542</v>
+        <v>0.05968529358506203</v>
       </c>
       <c r="BJ6" t="n">
-        <v>0.03262858092784882</v>
+        <v>0.03578478470444679</v>
       </c>
       <c r="BK6" t="n">
-        <v>0.007382974028587341</v>
+        <v>0.003597326809540391</v>
       </c>
       <c r="BL6" t="n">
-        <v>0.01281686127185822</v>
+        <v>0.01790656894445419</v>
       </c>
       <c r="BM6" t="n">
-        <v>0.006232521031051874</v>
+        <v>0.03781400993466377</v>
       </c>
       <c r="BN6" t="n">
-        <v>0.001841758494265378</v>
+        <v>0.002004789188504219</v>
       </c>
       <c r="BO6" t="n">
-        <v>0.004449819214642048</v>
+        <v>0.006945857778191566</v>
       </c>
       <c r="BP6" t="n">
-        <v>0.003712975420057774</v>
+        <v>0.01719358749687672</v>
       </c>
       <c r="BQ6" t="n">
-        <v>0.004372955765575171</v>
+        <v>0.05147143080830574</v>
       </c>
       <c r="BR6" t="n">
-        <v>0.007614385336637497</v>
+        <v>0.003054418601095676</v>
       </c>
       <c r="BS6" t="n">
-        <v>0.02196414768695831</v>
+        <v>0.03355268016457558</v>
       </c>
       <c r="BT6" t="n">
-        <v>9.816303645493463e-05</v>
+        <v>0.03692629560828209</v>
       </c>
       <c r="BU6" t="n">
-        <v>0.02676494233310223</v>
+        <v>0.003626166842877865</v>
       </c>
       <c r="BV6" t="n">
-        <v>0.000632596667855978</v>
+        <v>0.1238798201084137</v>
       </c>
       <c r="BW6" t="n">
-        <v>0.01166505087167025</v>
+        <v>0.039585180580616</v>
       </c>
       <c r="BX6" t="n">
-        <v>0.02085947804152966</v>
+        <v>0.001336428336799145</v>
       </c>
       <c r="BY6" t="n">
-        <v>0.002679444150999188</v>
+        <v>0.01525431033223867</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.007509702350944281</v>
+        <v>0.007430417463183403</v>
       </c>
       <c r="CA6" t="n">
-        <v>0.003644011681899428</v>
+        <v>0.009244266897439957</v>
       </c>
       <c r="CB6" t="n">
-        <v>0.00452398369088769</v>
+        <v>0.02915899641811848</v>
       </c>
       <c r="CC6" t="n">
-        <v>0.01359413843601942</v>
+        <v>0.005790927447378635</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.008392223156988621</v>
+        <v>0.01255467720329762</v>
       </c>
       <c r="CE6" t="n">
-        <v>0.01130091398954391</v>
+        <v>0.05808752402663231</v>
       </c>
       <c r="CF6" t="n">
-        <v>0.0001070015132427216</v>
+        <v>0.002578279934823513</v>
       </c>
       <c r="CG6" t="n">
-        <v>0.007096969988197088</v>
+        <v>0.001890035346150398</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.002803827170282602</v>
+        <v>0.00559705588966608</v>
       </c>
       <c r="CI6" t="n">
-        <v>0.001997788436710835</v>
+        <v>0.001826291438192129</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.00361480307765305</v>
+        <v>0.01028216630220413</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.005359607748687267</v>
+        <v>0.002119134645909071</v>
       </c>
       <c r="CL6" t="n">
-        <v>0.004408269189298153</v>
+        <v>0.008423908613622189</v>
       </c>
       <c r="CM6" t="n">
-        <v>0.01294998079538345</v>
+        <v>0.0727471262216568</v>
       </c>
       <c r="CN6" t="n">
-        <v>0.0001721852459013462</v>
+        <v>0.02595868334174156</v>
       </c>
       <c r="CO6" t="n">
-        <v>0.00247951690107584</v>
+        <v>0.0147191034629941</v>
       </c>
       <c r="CP6" t="n">
-        <v>0.0006591564160771668</v>
+        <v>0.0408378541469574</v>
       </c>
       <c r="CQ6" t="n">
-        <v>0.0256644282490015</v>
+        <v>0.03771568462252617</v>
       </c>
       <c r="CR6" t="n">
-        <v>0.02600323781371117</v>
+        <v>0.001656918786466122</v>
       </c>
       <c r="CS6" t="n">
-        <v>0.01313197333365679</v>
+        <v>0.01251903362572193</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.01690480671823025</v>
+        <v>0.0004291808581911027</v>
       </c>
       <c r="CU6" t="n">
-        <v>0.006259641610085964</v>
+        <v>0.05006537958979607</v>
       </c>
       <c r="CV6" t="n">
-        <v>0.007025095168501139</v>
+        <v>0.005998957902193069</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.01543162204325199</v>
+        <v>0.06260567158460617</v>
       </c>
       <c r="CX6" t="n">
-        <v>0.002682681195437908</v>
+        <v>0.007298570591956377</v>
       </c>
       <c r="CY6" t="n">
-        <v>0.007127503864467144</v>
+        <v>0.007292041555047035</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.008564752526581287</v>
+        <v>0.01601875945925713</v>
       </c>
       <c r="DA6" t="n">
-        <v>0.003225687891244888</v>
+        <v>0.007064454257488251</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.0002617314457893372</v>
+        <v>0.0113697461783886</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.006990754511207342</v>
+        <v>0.008215215057134628</v>
       </c>
       <c r="DD6" t="n">
-        <v>0.006617101840674877</v>
+        <v>0.009836576879024506</v>
       </c>
       <c r="DE6" t="n">
-        <v>0.005686467047780752</v>
+        <v>0.01308341696858406</v>
       </c>
       <c r="DF6" t="n">
-        <v>0.04723753035068512</v>
+        <v>0.02712382376194</v>
       </c>
       <c r="DG6" t="n">
-        <v>0.01898384094238281</v>
+        <v>0.02563155069947243</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.01562030799686909</v>
+        <v>0.05974559485912323</v>
       </c>
       <c r="DI6" t="n">
-        <v>0.01096563693135977</v>
+        <v>0.002493759617209435</v>
       </c>
       <c r="DJ6" t="n">
-        <v>0.004666996654123068</v>
+        <v>0.01865092664957047</v>
       </c>
       <c r="DK6" t="n">
-        <v>0.0146772600710392</v>
+        <v>0.009663945063948631</v>
       </c>
       <c r="DL6" t="n">
-        <v>0.006426105741411448</v>
+        <v>0.04518567770719528</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.009780265390872955</v>
+        <v>0.05298301577568054</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.009094943292438984</v>
+        <v>0.008303243666887283</v>
       </c>
       <c r="DO6" t="n">
-        <v>0.02099666185677052</v>
+        <v>0.02304958738386631</v>
       </c>
       <c r="DP6" t="n">
-        <v>0.005087717436254025</v>
+        <v>0.01142842322587967</v>
       </c>
       <c r="DQ6" t="n">
-        <v>0.008358106017112732</v>
+        <v>0.0274161733686924</v>
       </c>
       <c r="DR6" t="n">
-        <v>0.01567639596760273</v>
+        <v>0.00335036963224411</v>
       </c>
       <c r="DS6" t="n">
-        <v>0.008301478810608387</v>
+        <v>0.02756529673933983</v>
       </c>
       <c r="DT6" t="n">
-        <v>0.005148127675056458</v>
+        <v>0.007949581369757652</v>
       </c>
       <c r="DU6" t="n">
-        <v>0.009127922356128693</v>
+        <v>0.01089590694755316</v>
       </c>
       <c r="DV6" t="n">
-        <v>0.001657017623074353</v>
+        <v>0.002445879392325878</v>
       </c>
       <c r="DW6" t="n">
-        <v>0.004604202695190907</v>
+        <v>0.006530762184411287</v>
       </c>
       <c r="DX6" t="n">
-        <v>9.44139901548624e-05</v>
+        <v>0.03531477227807045</v>
       </c>
       <c r="DY6" t="n">
-        <v>0.01163549814373255</v>
+        <v>0.009623910300433636</v>
       </c>
       <c r="DZ6" t="n">
-        <v>0.01078236196190119</v>
+        <v>0.005300336517393589</v>
       </c>
       <c r="EA6" t="n">
-        <v>0.01622754894196987</v>
+        <v>0.006363303400576115</v>
       </c>
       <c r="EB6" t="n">
-        <v>0.01535058300942183</v>
+        <v>0.03587381541728973</v>
       </c>
       <c r="EC6" t="n">
-        <v>0.01378474105149508</v>
+        <v>0.002918766112998128</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.01620388403534889</v>
+        <v>0.05062676966190338</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.01681605912744999</v>
+        <v>0.01357827801257372</v>
       </c>
       <c r="EF6" t="n">
-        <v>0.02670718170702457</v>
+        <v>0.02694535627961159</v>
       </c>
       <c r="EG6" t="n">
-        <v>0.009212817996740341</v>
+        <v>0.03871325775980949</v>
       </c>
       <c r="EH6" t="n">
-        <v>0.002190625760704279</v>
+        <v>0.004964366089552641</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.01083524338901043</v>
+        <v>0.05186925828456879</v>
       </c>
       <c r="EJ6" t="n">
-        <v>0.006748910993337631</v>
+        <v>0.005317686591297388</v>
       </c>
       <c r="EK6" t="n">
-        <v>0.005517886020243168</v>
+        <v>0.01227124407887459</v>
       </c>
       <c r="EL6" t="n">
-        <v>0.004199656657874584</v>
+        <v>0.01842348277568817</v>
       </c>
       <c r="EM6" t="n">
-        <v>0.005711349193006754</v>
+        <v>0.001790047157555819</v>
       </c>
       <c r="EN6" t="n">
-        <v>0.002713873749598861</v>
+        <v>0.01139479130506516</v>
       </c>
       <c r="EO6" t="n">
-        <v>0.000421484000980854</v>
+        <v>0.02958108857274055</v>
       </c>
       <c r="EP6" t="n">
-        <v>0.001514532137662172</v>
+        <v>0.04800835251808167</v>
       </c>
       <c r="EQ6" t="n">
-        <v>0.02161519229412079</v>
+        <v>0.02709519676864147</v>
       </c>
       <c r="ER6" t="n">
-        <v>0.005146801006048918</v>
+        <v>0.00688711553812027</v>
       </c>
       <c r="ES6" t="n">
-        <v>0.00254542101174593</v>
+        <v>0.004219589289277792</v>
       </c>
       <c r="ET6" t="n">
-        <v>0.002058033831417561</v>
+        <v>0.03139884024858475</v>
       </c>
       <c r="EU6" t="n">
-        <v>0.004644905682653189</v>
+        <v>0.003362397197633982</v>
       </c>
       <c r="EV6" t="n">
-        <v>0.002538573695346713</v>
+        <v>0.03108076378703117</v>
       </c>
       <c r="EW6" t="n">
-        <v>0.002721420023590326</v>
+        <v>0.02232186123728752</v>
       </c>
       <c r="EX6" t="n">
-        <v>0.01166004966944456</v>
+        <v>0.002049270551651716</v>
       </c>
       <c r="EY6" t="n">
-        <v>0.01339172758162022</v>
+        <v>0.06296012550592422</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.006124424748122692</v>
+        <v>0.0005291440174914896</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.007111849263310432</v>
+        <v>0.0009128330275416374</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.004535550251603127</v>
+        <v>0.02434143051505089</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.0009819897823035717</v>
+        <v>0.008921114727854729</v>
       </c>
       <c r="FD6" t="n">
-        <v>0.002796567277982831</v>
+        <v>0.001621412113308907</v>
       </c>
       <c r="FE6" t="n">
-        <v>0.008746570907533169</v>
+        <v>0.007277967873960733</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.0009000136633403599</v>
+        <v>0.002358658239245415</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.009728997014462948</v>
+        <v>0.003260440193116665</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.002303374465554953</v>
+        <v>0.01926480233669281</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.006032614037394524</v>
+        <v>0.0271168015897274</v>
       </c>
       <c r="FJ6" t="n">
-        <v>0.008344973437488079</v>
+        <v>0.04644247516989708</v>
       </c>
       <c r="FK6" t="n">
-        <v>0.006445999257266521</v>
+        <v>0.04257667064666748</v>
       </c>
       <c r="FL6" t="n">
-        <v>0.01724598743021488</v>
+        <v>0.006180450785905123</v>
       </c>
       <c r="FM6" t="n">
-        <v>0.009759271517395973</v>
+        <v>0.01417742483317852</v>
       </c>
       <c r="FN6" t="n">
-        <v>0.001347322599031031</v>
+        <v>0.01121593173593283</v>
       </c>
       <c r="FO6" t="n">
-        <v>0.006743624340742826</v>
+        <v>0.001511686481535435</v>
       </c>
       <c r="FP6" t="n">
-        <v>0.02201352640986443</v>
+        <v>0.05248468369245529</v>
       </c>
       <c r="FQ6" t="n">
-        <v>0.01663440093398094</v>
+        <v>0.07586324214935303</v>
       </c>
       <c r="FR6" t="n">
-        <v>0.0199405737221241</v>
+        <v>0.02116323821246624</v>
       </c>
       <c r="FS6" t="n">
-        <v>0.009959696792066097</v>
+        <v>0.001683479174971581</v>
       </c>
       <c r="FT6" t="n">
-        <v>0.01700454391539097</v>
+        <v>0.01427676901221275</v>
       </c>
       <c r="FU6" t="n">
-        <v>0.008095239289104939</v>
+        <v>0.01150594931095839</v>
       </c>
       <c r="FV6" t="n">
-        <v>0.002138452138751745</v>
+        <v>0.05314198136329651</v>
       </c>
       <c r="FW6" t="n">
-        <v>0.02889018505811691</v>
+        <v>0.03256762772798538</v>
       </c>
       <c r="FX6" t="n">
-        <v>0.01716994866728783</v>
+        <v>0.01680975407361984</v>
       </c>
       <c r="FY6" t="n">
-        <v>0.01495612598955631</v>
+        <v>0.05919885635375977</v>
       </c>
       <c r="FZ6" t="n">
-        <v>0.01113137789070606</v>
+        <v>0.005764446221292019</v>
       </c>
       <c r="GA6" t="n">
-        <v>0.00571694690734148</v>
+        <v>0.004746520891785622</v>
       </c>
       <c r="GB6" t="n">
-        <v>0.0008807231206446886</v>
+        <v>0.007577131502330303</v>
       </c>
       <c r="GC6" t="n">
-        <v>0.0006016310071572661</v>
+        <v>0.09172587096691132</v>
       </c>
       <c r="GD6" t="n">
-        <v>0.0149466460570693</v>
+        <v>0.03507358208298683</v>
       </c>
       <c r="GE6" t="n">
-        <v>0.003166280686855316</v>
+        <v>0.08247103542089462</v>
       </c>
       <c r="GF6" t="n">
-        <v>0.007730251178145409</v>
+        <v>0.02808470278978348</v>
       </c>
       <c r="GG6" t="n">
-        <v>0.01204429846256971</v>
+        <v>0.003651824314147234</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.03756523504853249</v>
+        <v>0.007323970552533865</v>
       </c>
       <c r="B7" t="n">
-        <v>0.009147538803517818</v>
+        <v>0.1230373084545135</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001206412212923169</v>
+        <v>0.01062943693250418</v>
       </c>
       <c r="D7" t="n">
-        <v>0.01246278267353773</v>
+        <v>0.08417198061943054</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01313481479883194</v>
+        <v>0.0397595651447773</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000225486233830452</v>
+        <v>0.018618393689394</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01512695662677288</v>
+        <v>0.003742316737771034</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001289264066144824</v>
+        <v>0.008184627629816532</v>
       </c>
       <c r="I7" t="n">
-        <v>0.00142957060597837</v>
+        <v>0.002614096272736788</v>
       </c>
       <c r="J7" t="n">
-        <v>0.03560932725667953</v>
+        <v>0.006533656734973192</v>
       </c>
       <c r="K7" t="n">
-        <v>0.002690406050533056</v>
+        <v>0.09943896532058716</v>
       </c>
       <c r="L7" t="n">
-        <v>0.007421225309371948</v>
+        <v>0.001972294878214598</v>
       </c>
       <c r="M7" t="n">
-        <v>0.006529863923788071</v>
+        <v>0.08241860568523407</v>
       </c>
       <c r="N7" t="n">
-        <v>0.02030673623085022</v>
+        <v>0.04758394137024879</v>
       </c>
       <c r="O7" t="n">
-        <v>0.008045998401939869</v>
+        <v>0.01600724086165428</v>
       </c>
       <c r="P7" t="n">
-        <v>0.02194063179194927</v>
+        <v>0.006765889935195446</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.001296142931096256</v>
+        <v>0.01745089888572693</v>
       </c>
       <c r="R7" t="n">
-        <v>0.004741108044981956</v>
+        <v>0.01341800764203072</v>
       </c>
       <c r="S7" t="n">
-        <v>0.001429982483386993</v>
+        <v>0.002815149258822203</v>
       </c>
       <c r="T7" t="n">
-        <v>5.476805381476879e-05</v>
+        <v>0.02578658610582352</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0006607490940950811</v>
+        <v>0.01188424788415432</v>
       </c>
       <c r="V7" t="n">
-        <v>0.003237765282392502</v>
+        <v>0.007351367268711329</v>
       </c>
       <c r="W7" t="n">
-        <v>0.0005791070288978517</v>
+        <v>0.01563210412859917</v>
       </c>
       <c r="X7" t="n">
-        <v>0.00105100532528013</v>
+        <v>0.0216679684817791</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.004350670147687197</v>
+        <v>0.01385937351733446</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.001300820847973228</v>
+        <v>0.004631749354302883</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.001293931622058153</v>
+        <v>0.009396336041390896</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.003724586917087436</v>
+        <v>0.01160579547286034</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.0008832508465275168</v>
+        <v>0.01532755605876446</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.003187865717336535</v>
+        <v>0.002339910482987761</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.001666437950916588</v>
+        <v>0.002447590697556734</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.001414678059518337</v>
+        <v>0.008875366300344467</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.0005261511541903019</v>
+        <v>0.004033303819596767</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.002890820149332285</v>
+        <v>0.003915444016456604</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.003045280231162906</v>
+        <v>0.002658416982740164</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.001482785795815289</v>
+        <v>0.005573518574237823</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.006862464360892773</v>
+        <v>0.01016436796635389</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.001050838502123952</v>
+        <v>0.01348121650516987</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.002052546013146639</v>
+        <v>0.002734004752710462</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.002149019856005907</v>
+        <v>0.007599542383104563</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.002944597974419594</v>
+        <v>0.002927059074863791</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.00128434703219682</v>
+        <v>0.01089212577790022</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.000579647661652416</v>
+        <v>0.007851914502680302</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.003268448635935783</v>
+        <v>0.01427785307168961</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.173667078546714e-05</v>
+        <v>0.009122813120484352</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.01913128979504108</v>
+        <v>0.01081284414976835</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.0005820547812618315</v>
+        <v>0.090210922062397</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.005436306819319725</v>
+        <v>0.008034907281398773</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.003907532431185246</v>
+        <v>0.02527479268610477</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.0003704954870045185</v>
+        <v>0.00129346561152488</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.006550705060362816</v>
+        <v>0.002197400201112032</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0008542529540136456</v>
+        <v>0.00540120480582118</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.005675484426319599</v>
+        <v>0.01501147449016571</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.003951725549995899</v>
+        <v>0.008834574371576309</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.01183484122157097</v>
+        <v>0.009793778881430626</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.0003935357381124049</v>
+        <v>0.01138508506119251</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.002398686250671744</v>
+        <v>0.02275805175304413</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.002822429407387972</v>
+        <v>0.01456582732498646</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.01169372722506523</v>
+        <v>0.03683058544993401</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.005708619952201843</v>
+        <v>0.004364242777228355</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.006732758600264788</v>
+        <v>0.02325324155390263</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.01349026616662741</v>
+        <v>0.02377570420503616</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.002034218283370137</v>
+        <v>0.007351052481681108</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.00714084692299366</v>
+        <v>0.02669362165033817</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.002775505417957902</v>
+        <v>0.0004260012065060437</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.002667804714292288</v>
+        <v>0.002674797782674432</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.001117533072829247</v>
+        <v>0.003739714156836271</v>
       </c>
       <c r="BP7" t="n">
-        <v>0.003843473503366113</v>
+        <v>0.004892659373581409</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.0006554930005222559</v>
+        <v>0.00749110896140337</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.0005682851187884808</v>
+        <v>2.556946128606796e-05</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.0005761593347415328</v>
+        <v>0.003369607497006655</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.0002205423079431057</v>
+        <v>0.008363114669919014</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.01445172540843487</v>
+        <v>0.008615745231509209</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.004739517811685801</v>
+        <v>0.05087438225746155</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.002607799135148525</v>
+        <v>0.007723744492977858</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.00607213145121932</v>
+        <v>0.007409235462546349</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.001927396631799638</v>
+        <v>0.006632164120674133</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.00151268788613379</v>
+        <v>0.006779537536203861</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.004260632675141096</v>
+        <v>0.0007860658224672079</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.003299919189885259</v>
+        <v>0.004016224760562181</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.0008538218680769205</v>
+        <v>0.007715796120464802</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.007604134269058704</v>
+        <v>0.001401909627020359</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.003238273784518242</v>
+        <v>0.01885522529482841</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.0003786787856370211</v>
+        <v>0.004045740235596895</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.001811876427382231</v>
+        <v>0.01365259289741516</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.002415622351691127</v>
+        <v>0.002622315194457769</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0007882750360295177</v>
+        <v>0.001854787580668926</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.002142152516171336</v>
+        <v>0.004166629165410995</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.001569431857205927</v>
+        <v>0.0001175494398921728</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.0008585011237300932</v>
+        <v>0.003675164887681603</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.004692612681537867</v>
+        <v>0.02041272632777691</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.007340874522924423</v>
+        <v>0.006123355124145746</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.001321005867794156</v>
+        <v>0.002015384146943688</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.004303505644202232</v>
+        <v>0.02354446612298489</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.001953004626557231</v>
+        <v>0.02597791142761707</v>
       </c>
       <c r="CR7" t="n">
-        <v>0.001202547922730446</v>
+        <v>0.02634956128895283</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.005296730902045965</v>
+        <v>0.007462409324944019</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.00633913092315197</v>
+        <v>0.02791601605713367</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.0003374911611899734</v>
+        <v>0.003521081525832415</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.006990256253629923</v>
+        <v>0.0004538390785455704</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.002541391411796212</v>
+        <v>0.02042356878519058</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.0005748767871409655</v>
+        <v>0.006613502278923988</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0007715678657405078</v>
+        <v>0.01861724629998207</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.000476907764095813</v>
+        <v>0.002446854021400213</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.001415205420926213</v>
+        <v>0.005644726566970348</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.002203585812821984</v>
+        <v>0.004721352364867926</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0001231885398738086</v>
+        <v>0.0008759326301515102</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.0009111884282901883</v>
+        <v>0.0007258056430146098</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.001341550494544208</v>
+        <v>0.002414104295894504</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.01195615436881781</v>
+        <v>0.02265916205942631</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.00127550377510488</v>
+        <v>0.01056359987705946</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.004396172240376472</v>
+        <v>0.02179607748985291</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.007688420824706554</v>
+        <v>0.03007182106375694</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.002910816576331854</v>
+        <v>0.002758627291768789</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.0006550019606947899</v>
+        <v>0.000325747299939394</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.001300261705182493</v>
+        <v>0.00675140880048275</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.002528336364775896</v>
+        <v>0.009384775534272194</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.001410034135915339</v>
+        <v>0.002477800706401467</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.003140589222311974</v>
+        <v>0.01533113140612841</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.0007962464005686343</v>
+        <v>0.0113766435533762</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.0007444536313414574</v>
+        <v>0.001312506617978215</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.00310625578276813</v>
+        <v>0.01370842009782791</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.0003454753896221519</v>
+        <v>0.0008843936957418919</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.002062666229903698</v>
+        <v>0.001316860667429864</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.0006118108867667615</v>
+        <v>0.0008894475176930428</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.001586246304214001</v>
+        <v>0.005514946300536394</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.001776805147528648</v>
+        <v>0.007105171214789152</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.001149507006630301</v>
+        <v>0.003857778618112206</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.005732914432883263</v>
+        <v>0.01871313899755478</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.001082249917089939</v>
+        <v>0.008444300852715969</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0003006755432579666</v>
+        <v>0.0108821764588356</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0008010044111870229</v>
+        <v>0.00912904366850853</v>
       </c>
       <c r="EC7" t="n">
-        <v>0.003513745032250881</v>
+        <v>0.007030786015093327</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.003179133404046297</v>
+        <v>0.005794440861791372</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0006867749616503716</v>
+        <v>0.00164194474928081</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.01149438135325909</v>
+        <v>0.002503537107259035</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.00361658725887537</v>
+        <v>0.01845244877040386</v>
       </c>
       <c r="EH7" t="n">
-        <v>9.653344750404358e-05</v>
+        <v>0.00211468618363142</v>
       </c>
       <c r="EI7" t="n">
-        <v>0.004002599511295557</v>
+        <v>0.01432785950601101</v>
       </c>
       <c r="EJ7" t="n">
-        <v>7.780175656080246e-05</v>
+        <v>0.02593562379479408</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.001507572713308036</v>
+        <v>0.0002562390873208642</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.0002635364944580942</v>
+        <v>0.006813428830355406</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.003035788191482425</v>
+        <v>0.001014614477753639</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.002995901741087437</v>
+        <v>0.003753830678761005</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0003397502296138555</v>
+        <v>0.001684568705968559</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.0003456204722169787</v>
+        <v>0.010080860927701</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.0037732208147645</v>
+        <v>0.01515545044094324</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.002980765420943499</v>
+        <v>0.01941647939383984</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.002726694103330374</v>
+        <v>0.02029433660209179</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.003381517017260194</v>
+        <v>0.01759510487318039</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.002994816051796079</v>
+        <v>0.008882801979780197</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.0006694976473227143</v>
+        <v>0.001935104955919087</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.002346249064430594</v>
+        <v>0.002310182666406035</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.008145793341100216</v>
+        <v>0.002173455664888024</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.001812446163967252</v>
+        <v>0.02128825150430202</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.0008181800367310643</v>
+        <v>0.003615269903093576</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.0009855810785666108</v>
+        <v>0.01646502688527107</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.001757429214194417</v>
+        <v>0.003379503265023232</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.000969086482655257</v>
+        <v>0.005070854444056749</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.001436537131667137</v>
+        <v>0.00696913106366992</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.001755022793076932</v>
+        <v>0.001132537377998233</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.0001672292564762756</v>
+        <v>0.003346953075379133</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.005500719882547855</v>
+        <v>0.004034816287457943</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.001065948512405157</v>
+        <v>0.006349759176373482</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.001435547368600965</v>
+        <v>0.004267073236405849</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.002358191180974245</v>
+        <v>0.001187484594993293</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.0005253453273326159</v>
+        <v>0.0005125908646732569</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.005718339700251818</v>
+        <v>0.006452021189033985</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.001158950384706259</v>
+        <v>0.008128251880407333</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.001537408563308418</v>
+        <v>0.005148555152118206</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.001114966464228928</v>
+        <v>0.009216699749231339</v>
       </c>
       <c r="FP7" t="n">
-        <v>0.000880455132573843</v>
+        <v>0.00142525602132082</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.004052923526614904</v>
+        <v>0.004335277713835239</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.004839188419282436</v>
+        <v>0.002725188154727221</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.008887389674782753</v>
+        <v>0.01187607925385237</v>
       </c>
       <c r="FT7" t="n">
-        <v>9.313574992120266e-05</v>
+        <v>0.0185178816318512</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.002470968756824732</v>
+        <v>0.000311987241730094</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.00101856526453048</v>
+        <v>0.009579116478562355</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.005362999625504017</v>
+        <v>0.004622163251042366</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0002246660296805203</v>
+        <v>0.008055771701037884</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0055772690102458</v>
+        <v>0.0133537407964468</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.001927545759826899</v>
+        <v>0.005112184677273035</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.0009792388882488012</v>
+        <v>0.006193093024194241</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.007737768813967705</v>
+        <v>0.005944674834609032</v>
       </c>
       <c r="GC7" t="n">
-        <v>0.004749119281768799</v>
+        <v>0.01252804044634104</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.0007080736104398966</v>
+        <v>0.008236964233219624</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.0005176282720640302</v>
+        <v>0.02808329276740551</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.0002750830026343465</v>
+        <v>0.009560244157910347</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.0006461389129981399</v>
+        <v>0.005417875945568085</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.04157344251871109</v>
+        <v>0.003512197639793158</v>
       </c>
       <c r="B8" t="n">
-        <v>0.006708279717713594</v>
+        <v>0.04965308681130409</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05746489763259888</v>
+        <v>0.004162178840488195</v>
       </c>
       <c r="D8" t="n">
-        <v>0.01463039591908455</v>
+        <v>0.0232908483594656</v>
       </c>
       <c r="E8" t="n">
-        <v>0.03145205974578857</v>
+        <v>0.004132565576583147</v>
       </c>
       <c r="F8" t="n">
-        <v>0.004599320702254772</v>
+        <v>0.02951814606785774</v>
       </c>
       <c r="G8" t="n">
-        <v>0.002857369370758533</v>
+        <v>0.001139232655987144</v>
       </c>
       <c r="H8" t="n">
-        <v>0.01535485032945871</v>
+        <v>0.01600266993045807</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01137522421777248</v>
+        <v>0.002874935511499643</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04339766129851341</v>
+        <v>0.009729352779686451</v>
       </c>
       <c r="K8" t="n">
-        <v>0.008354987017810345</v>
+        <v>0.03939186781644821</v>
       </c>
       <c r="L8" t="n">
-        <v>0.06033970415592194</v>
+        <v>0.002190262079238892</v>
       </c>
       <c r="M8" t="n">
-        <v>0.005484345369040966</v>
+        <v>0.02203446626663208</v>
       </c>
       <c r="N8" t="n">
-        <v>0.00617794506251812</v>
+        <v>0.003398691304028034</v>
       </c>
       <c r="O8" t="n">
-        <v>0.0005607071798294783</v>
+        <v>0.03240690752863884</v>
       </c>
       <c r="P8" t="n">
-        <v>0.002933708252385259</v>
+        <v>0.002604924840852618</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01813734136521816</v>
+        <v>0.001460517756640911</v>
       </c>
       <c r="R8" t="n">
-        <v>0.01386628206819296</v>
+        <v>0.003196564735844731</v>
       </c>
       <c r="S8" t="n">
-        <v>0.004477118607610464</v>
+        <v>0.003234401112422347</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0169243048876524</v>
+        <v>0.006976380944252014</v>
       </c>
       <c r="U8" t="n">
-        <v>0.003241307102143764</v>
+        <v>0.003037272952497005</v>
       </c>
       <c r="V8" t="n">
-        <v>0.002854022197425365</v>
+        <v>0.000505543895997107</v>
       </c>
       <c r="W8" t="n">
-        <v>0.008204895071685314</v>
+        <v>0.002404768718406558</v>
       </c>
       <c r="X8" t="n">
-        <v>0.001861458062194288</v>
+        <v>0.001718649407848716</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.0002073626965284348</v>
+        <v>0.005300344433635473</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.01184940990060568</v>
+        <v>0.004331956617534161</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.0002222696202807128</v>
+        <v>0.002508145291358232</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.0004916614852845669</v>
+        <v>0.003176970407366753</v>
       </c>
       <c r="AC8" t="n">
-        <v>0.004446309991180897</v>
+        <v>0.007089105900377035</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.01280911732465029</v>
+        <v>0.0004186122096143663</v>
       </c>
       <c r="AE8" t="n">
-        <v>0.003907076548784971</v>
+        <v>0.0002867941511794925</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.01049796771258116</v>
+        <v>0.002836438361555338</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.005260233767330647</v>
+        <v>0.005405839998275042</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.0005695864092558622</v>
+        <v>0.002237661043182015</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.01764887943863869</v>
+        <v>0.001827336382120848</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0.01205623894929886</v>
+        <v>0.002197699155658484</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.01214277651160955</v>
+        <v>0.003432400058954954</v>
       </c>
       <c r="AL8" t="n">
-        <v>0.01268282439559698</v>
+        <v>0.007786390837281942</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.006700985133647919</v>
+        <v>0.0005065618315711617</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.009851248934864998</v>
+        <v>0.002982999663800001</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.002632520161569118</v>
+        <v>0.006023097317665815</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.00264732213690877</v>
+        <v>0.00720652611926198</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.0007763964822515845</v>
+        <v>0.002800175920128822</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.006171976216137409</v>
+        <v>0.003280185163021088</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.001165111199952662</v>
+        <v>0.006027922034263611</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.02167346887290478</v>
+        <v>0.002353018149733543</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.01391910389065742</v>
+        <v>0.03060699254274368</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.02967001870274544</v>
+        <v>0.0005419355584308505</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.008837638422846794</v>
+        <v>0.0007303999736905098</v>
       </c>
       <c r="AX8" t="n">
-        <v>0.003938888665288687</v>
+        <v>0.001920145936310291</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.01411586347967386</v>
+        <v>0.0224493183195591</v>
       </c>
       <c r="AZ8" t="n">
-        <v>0.007964449934661388</v>
+        <v>0.006302836816757917</v>
       </c>
       <c r="BA8" t="n">
-        <v>0.01155631989240646</v>
+        <v>0.008844070136547089</v>
       </c>
       <c r="BB8" t="n">
-        <v>0.002303844317793846</v>
+        <v>0.008187205530703068</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.005794662982225418</v>
+        <v>0.0006415368989109993</v>
       </c>
       <c r="BD8" t="n">
-        <v>0.0001968287979252636</v>
+        <v>0.01022294629365206</v>
       </c>
       <c r="BE8" t="n">
-        <v>0.02046945132315159</v>
+        <v>0.01228417921811342</v>
       </c>
       <c r="BF8" t="n">
-        <v>0.0001708277268335223</v>
+        <v>0.005574371665716171</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.015358648262918</v>
+        <v>0.01141472160816193</v>
       </c>
       <c r="BH8" t="n">
-        <v>0.005827971734106541</v>
+        <v>0.008256289176642895</v>
       </c>
       <c r="BI8" t="n">
-        <v>0.008437706157565117</v>
+        <v>0.003513009054586291</v>
       </c>
       <c r="BJ8" t="n">
-        <v>0.007362185977399349</v>
+        <v>0.009926952421665192</v>
       </c>
       <c r="BK8" t="n">
-        <v>0.003890051040798426</v>
+        <v>0.004346093628555536</v>
       </c>
       <c r="BL8" t="n">
-        <v>0.005724296439439058</v>
+        <v>0.0007204801077023149</v>
       </c>
       <c r="BM8" t="n">
-        <v>0.001671087811701</v>
+        <v>0.002514813095331192</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.01425322145223618</v>
+        <v>0.005432019010186195</v>
       </c>
       <c r="BO8" t="n">
-        <v>0.00065935670863837</v>
+        <v>0.005000507924705744</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.01444054488092661</v>
+        <v>0.0002017939696088433</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.00351506401784718</v>
+        <v>0.001343496842309833</v>
       </c>
       <c r="BR8" t="n">
-        <v>0.001682342262938619</v>
+        <v>0.00377226946875453</v>
       </c>
       <c r="BS8" t="n">
-        <v>0.01198510639369488</v>
+        <v>0.002729086671024561</v>
       </c>
       <c r="BT8" t="n">
-        <v>0.0004657765675801784</v>
+        <v>0.0001411887351423502</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.0189362894743681</v>
+        <v>0.002319547813385725</v>
       </c>
       <c r="BV8" t="n">
-        <v>0.003100025467574596</v>
+        <v>0.01573745161294937</v>
       </c>
       <c r="BW8" t="n">
-        <v>0.0127123286947608</v>
+        <v>0.006359185092151165</v>
       </c>
       <c r="BX8" t="n">
-        <v>0.00963955745100975</v>
+        <v>0.0001967842690646648</v>
       </c>
       <c r="BY8" t="n">
-        <v>0.008145668543875217</v>
+        <v>0.00358250318095088</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.008277262561023235</v>
+        <v>0.01062723156064749</v>
       </c>
       <c r="CA8" t="n">
-        <v>0.003106133081018925</v>
+        <v>0.001854392467066646</v>
       </c>
       <c r="CB8" t="n">
-        <v>0.002509929239749908</v>
+        <v>0.005227946676313877</v>
       </c>
       <c r="CC8" t="n">
-        <v>0.002653147792443633</v>
+        <v>0.005399383138865232</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.008659577928483486</v>
+        <v>0.0007050513522699475</v>
       </c>
       <c r="CE8" t="n">
-        <v>0.008115792647004128</v>
+        <v>0.008622483350336552</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.01018298603594303</v>
+        <v>0.005067063961178064</v>
       </c>
       <c r="CG8" t="n">
-        <v>0.002743531716987491</v>
+        <v>0.003927614074200392</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.004194785840809345</v>
+        <v>0.002754593268036842</v>
       </c>
       <c r="CI8" t="n">
-        <v>0.002839433494955301</v>
+        <v>0.003830899950116873</v>
       </c>
       <c r="CJ8" t="n">
-        <v>3.849505446851254e-05</v>
+        <v>0.003446733113378286</v>
       </c>
       <c r="CK8" t="n">
-        <v>0.004901532549411058</v>
+        <v>0.002453085733577609</v>
       </c>
       <c r="CL8" t="n">
-        <v>0.000868150731548667</v>
+        <v>0.002535204868763685</v>
       </c>
       <c r="CM8" t="n">
-        <v>0.003917205613106489</v>
+        <v>0.006633197423070669</v>
       </c>
       <c r="CN8" t="n">
-        <v>0.01339227147400379</v>
+        <v>0.001094743027351797</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.00359886372461915</v>
+        <v>0.001073629362508655</v>
       </c>
       <c r="CP8" t="n">
-        <v>0.0007025047671049833</v>
+        <v>0.01305686496198177</v>
       </c>
       <c r="CQ8" t="n">
-        <v>0.008718067780137062</v>
+        <v>0.002243979601189494</v>
       </c>
       <c r="CR8" t="n">
-        <v>0.001377138891257346</v>
+        <v>0.0009041158482432365</v>
       </c>
       <c r="CS8" t="n">
-        <v>0.002119367476552725</v>
+        <v>0.00716444430872798</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.001309017185121775</v>
+        <v>0.008488862775266171</v>
       </c>
       <c r="CU8" t="n">
-        <v>0.007667991332709789</v>
+        <v>0.0008753354195505381</v>
       </c>
       <c r="CV8" t="n">
-        <v>0.007460238877683878</v>
+        <v>0.0001351304235868156</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.007155322935432196</v>
+        <v>0.007696337066590786</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.01139885280281305</v>
+        <v>0.005265028215944767</v>
       </c>
       <c r="CY8" t="n">
-        <v>0.001385889714583755</v>
+        <v>0.006221562623977661</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.009383036755025387</v>
+        <v>0.002845772542059422</v>
       </c>
       <c r="DA8" t="n">
-        <v>0.002252818318083882</v>
+        <v>0.00418802397325635</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.0004039673367515206</v>
+        <v>0.002628704067319632</v>
       </c>
       <c r="DC8" t="n">
-        <v>0.003992172889411449</v>
+        <v>0.004559400025755167</v>
       </c>
       <c r="DD8" t="n">
-        <v>0.001744055538438261</v>
+        <v>0.002206894569098949</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.003185809822753072</v>
+        <v>0.004529483150690794</v>
       </c>
       <c r="DF8" t="n">
-        <v>0.02325399592518806</v>
+        <v>0.002735029207542539</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.003753459546715021</v>
+        <v>0.001295929425396025</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.002136960392817855</v>
+        <v>0.009552821516990662</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0007280192221514881</v>
+        <v>0.0002755540190264583</v>
       </c>
       <c r="DJ8" t="n">
-        <v>0.001660860958509147</v>
+        <v>0.005729075521230698</v>
       </c>
       <c r="DK8" t="n">
-        <v>0.006501402705907822</v>
+        <v>0.005343955475836992</v>
       </c>
       <c r="DL8" t="n">
-        <v>0.007560201454907656</v>
+        <v>0.01272944733500481</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.00418992480263114</v>
+        <v>0.005694078747183084</v>
       </c>
       <c r="DN8" t="n">
-        <v>0.003229893743991852</v>
+        <v>0.002130706328898668</v>
       </c>
       <c r="DO8" t="n">
-        <v>0.01165098790079355</v>
+        <v>0.00152019108645618</v>
       </c>
       <c r="DP8" t="n">
-        <v>0.001472959644161165</v>
+        <v>0.004514421802014112</v>
       </c>
       <c r="DQ8" t="n">
-        <v>0.001206983462907374</v>
+        <v>0.00377805158495903</v>
       </c>
       <c r="DR8" t="n">
-        <v>0.007179111242294312</v>
+        <v>0.0009155198931694031</v>
       </c>
       <c r="DS8" t="n">
-        <v>0.00869845412671566</v>
+        <v>0.0008422661339864135</v>
       </c>
       <c r="DT8" t="n">
-        <v>0.002463769866153598</v>
+        <v>0.00272598466835916</v>
       </c>
       <c r="DU8" t="n">
-        <v>0.002829458797350526</v>
+        <v>0.00137384282425046</v>
       </c>
       <c r="DV8" t="n">
-        <v>0.006776888389140368</v>
+        <v>0.003964743111282587</v>
       </c>
       <c r="DW8" t="n">
-        <v>0.0003867384511977434</v>
+        <v>0.001576518174260855</v>
       </c>
       <c r="DX8" t="n">
-        <v>0.0008887832518666983</v>
+        <v>0.003333268454298377</v>
       </c>
       <c r="DY8" t="n">
-        <v>0.006145591847598553</v>
+        <v>0.005734026897698641</v>
       </c>
       <c r="DZ8" t="n">
-        <v>0.003122769761830568</v>
+        <v>0.005274595692753792</v>
       </c>
       <c r="EA8" t="n">
-        <v>0.004318317864090204</v>
+        <v>0.001053423620760441</v>
       </c>
       <c r="EB8" t="n">
-        <v>0.008341344073414803</v>
+        <v>0.000365370768122375</v>
       </c>
       <c r="EC8" t="n">
-        <v>0.00302909454330802</v>
+        <v>0.001452256110496819</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.00534609192982316</v>
+        <v>0.0001253667287528515</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.0004616953956428915</v>
+        <v>0.003134205937385559</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.0129945008084178</v>
+        <v>0.002097653457894921</v>
       </c>
       <c r="EG8" t="n">
-        <v>0.005132046062499285</v>
+        <v>0.006800755392760038</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.009734764695167542</v>
+        <v>0.002749884501099586</v>
       </c>
       <c r="EI8" t="n">
-        <v>0.002189516788348556</v>
+        <v>0.002000232227146626</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.003702275920659304</v>
+        <v>0.0002821161178871989</v>
       </c>
       <c r="EK8" t="n">
-        <v>0.01160502433776855</v>
+        <v>0.0004865840310230851</v>
       </c>
       <c r="EL8" t="n">
-        <v>0.001722913119010627</v>
+        <v>0.006086350418627262</v>
       </c>
       <c r="EM8" t="n">
-        <v>0.008791867643594742</v>
+        <v>0.001663652947172523</v>
       </c>
       <c r="EN8" t="n">
-        <v>0.005200321320444345</v>
+        <v>0.0003131671110168099</v>
       </c>
       <c r="EO8" t="n">
-        <v>0.001555780414491892</v>
+        <v>0.0001668009208515286</v>
       </c>
       <c r="EP8" t="n">
-        <v>0.009130220860242844</v>
+        <v>0.003161245957016945</v>
       </c>
       <c r="EQ8" t="n">
-        <v>0.006540707312524319</v>
+        <v>0.006606607232242823</v>
       </c>
       <c r="ER8" t="n">
-        <v>0.003235346637666225</v>
+        <v>0.003894904162734747</v>
       </c>
       <c r="ES8" t="n">
-        <v>0.009824375621974468</v>
+        <v>0.002789948601275682</v>
       </c>
       <c r="ET8" t="n">
-        <v>0.009771457873284817</v>
+        <v>0.004368346184492111</v>
       </c>
       <c r="EU8" t="n">
-        <v>0.005065490026026964</v>
+        <v>0.005210600793361664</v>
       </c>
       <c r="EV8" t="n">
-        <v>7.780577288940549e-05</v>
+        <v>0.008872157894074917</v>
       </c>
       <c r="EW8" t="n">
-        <v>0.007269552908837795</v>
+        <v>0.002159454161301255</v>
       </c>
       <c r="EX8" t="n">
-        <v>0.009246721863746643</v>
+        <v>0.000367277127224952</v>
       </c>
       <c r="EY8" t="n">
-        <v>0.006065936759114265</v>
+        <v>0.007099197246134281</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01164109166711569</v>
+        <v>0.003744320478290319</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.002111660083755851</v>
+        <v>0.003337871981784701</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.005070680286735296</v>
+        <v>0.002980305813252926</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.0005044605932198465</v>
+        <v>0.003496774006634951</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.0001910778228193521</v>
+        <v>0.004569444339722395</v>
       </c>
       <c r="FE8" t="n">
-        <v>0.005518085788935423</v>
+        <v>0.00304682832211256</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.002326640533283353</v>
+        <v>0.003890070132911205</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.00843993853777647</v>
+        <v>2.05611577257514e-05</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.00338192586787045</v>
+        <v>0.003087940625846386</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.005441655404865742</v>
+        <v>0.005596472881734371</v>
       </c>
       <c r="FJ8" t="n">
-        <v>0.01828923635184765</v>
+        <v>0.01099685300141573</v>
       </c>
       <c r="FK8" t="n">
-        <v>0.008536509238183498</v>
+        <v>0.002634731354191899</v>
       </c>
       <c r="FL8" t="n">
-        <v>0.005121810827404261</v>
+        <v>0.005655082874000072</v>
       </c>
       <c r="FM8" t="n">
-        <v>0.00224425527267158</v>
+        <v>0.0008391074370592833</v>
       </c>
       <c r="FN8" t="n">
-        <v>0.005152422469109297</v>
+        <v>1.223653089255095e-05</v>
       </c>
       <c r="FO8" t="n">
-        <v>0.005732602439820766</v>
+        <v>0.005003792233765125</v>
       </c>
       <c r="FP8" t="n">
-        <v>0.005766343325376511</v>
+        <v>0.004044340923428535</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0.02607233822345734</v>
+        <v>0.01320018619298935</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.006411724258214235</v>
+        <v>0.002650436712428927</v>
       </c>
       <c r="FS8" t="n">
-        <v>0.01347618829458952</v>
+        <v>0.003712617792189121</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.006367170251905918</v>
+        <v>0.001266781939193606</v>
       </c>
       <c r="FU8" t="n">
-        <v>0.006960015743970871</v>
+        <v>0.008347026072442532</v>
       </c>
       <c r="FV8" t="n">
-        <v>0.00324651412665844</v>
+        <v>0.005647813901305199</v>
       </c>
       <c r="FW8" t="n">
-        <v>0.005699082277715206</v>
+        <v>0.005807060748338699</v>
       </c>
       <c r="FX8" t="n">
-        <v>0.004925010725855827</v>
+        <v>0.001722847693599761</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.003927881829440594</v>
+        <v>0.007972326129674911</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0.004479097202420235</v>
+        <v>0.002103631617501378</v>
       </c>
       <c r="GA8" t="n">
-        <v>0.001332771498709917</v>
+        <v>0.001851240289397538</v>
       </c>
       <c r="GB8" t="n">
-        <v>0.0007226055022329092</v>
+        <v>0.000585062662139535</v>
       </c>
       <c r="GC8" t="n">
-        <v>0.01003385707736015</v>
+        <v>0.004869410302489996</v>
       </c>
       <c r="GD8" t="n">
-        <v>0.01334020961076021</v>
+        <v>0.007147409953176975</v>
       </c>
       <c r="GE8" t="n">
-        <v>0.005850555840879679</v>
+        <v>0.01750560477375984</v>
       </c>
       <c r="GF8" t="n">
-        <v>0.004941994324326515</v>
+        <v>0.002069782000035048</v>
       </c>
       <c r="GG8" t="n">
-        <v>0.001539548742584884</v>
+        <v>0.00235792575404048</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.000229448196478188</v>
+        <v>3.031930464203469e-05</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0001133269397541881</v>
+        <v>0.002162385964766145</v>
       </c>
       <c r="C9" t="n">
-        <v>1.026086465572007e-05</v>
+        <v>0.0003028797509614378</v>
       </c>
       <c r="D9" t="n">
-        <v>9.580884943716228e-05</v>
+        <v>0.001377225504256785</v>
       </c>
       <c r="E9" t="n">
-        <v>2.714751826715656e-05</v>
+        <v>0.0005087286699563265</v>
       </c>
       <c r="F9" t="n">
-        <v>5.153815436642617e-07</v>
+        <v>4.94987798447255e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0001484142558183521</v>
+        <v>0.000233968865359202</v>
       </c>
       <c r="H9" t="n">
-        <v>6.621182546950877e-05</v>
+        <v>0.0002865191781893373</v>
       </c>
       <c r="I9" t="n">
-        <v>1.149833497038344e-05</v>
+        <v>0.0001104589973692782</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002326103422092274</v>
+        <v>0.0001668596814852208</v>
       </c>
       <c r="K9" t="n">
-        <v>5.110289203003049e-05</v>
+        <v>0.001740228733979166</v>
       </c>
       <c r="L9" t="n">
-        <v>7.204357098089531e-05</v>
+        <v>8.67776179802604e-05</v>
       </c>
       <c r="M9" t="n">
-        <v>1.112161226046737e-05</v>
+        <v>0.001333825523033738</v>
       </c>
       <c r="N9" t="n">
-        <v>6.119004683569074e-05</v>
+        <v>0.0006604306399822235</v>
       </c>
       <c r="O9" t="n">
-        <v>4.410454494063742e-05</v>
+        <v>0.0002002090332098305</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0001767452049534768</v>
+        <v>0.0001403972710249946</v>
       </c>
       <c r="Q9" t="n">
-        <v>4.597408769768663e-05</v>
+        <v>0.0001957908243639395</v>
       </c>
       <c r="R9" t="n">
-        <v>1.698983396636322e-05</v>
+        <v>5.555322059080936e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>2.862996916519478e-05</v>
+        <v>5.926769154029898e-05</v>
       </c>
       <c r="T9" t="n">
-        <v>9.496470738667995e-06</v>
+        <v>0.000401182594941929</v>
       </c>
       <c r="U9" t="n">
-        <v>1.437968421669211e-05</v>
+        <v>1.577601506141946e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>7.880408702476416e-06</v>
+        <v>6.422619480872527e-05</v>
       </c>
       <c r="W9" t="n">
-        <v>3.394092345843092e-05</v>
+        <v>0.0002304534282302484</v>
       </c>
       <c r="X9" t="n">
-        <v>1.510123729531188e-05</v>
+        <v>0.0001977950596483424</v>
       </c>
       <c r="Y9" t="n">
-        <v>4.20039395976346e-05</v>
+        <v>0.0002394798066234216</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.530799247324467e-05</v>
+        <v>3.434938844293356e-05</v>
       </c>
       <c r="AA9" t="n">
-        <v>2.533722636144375e-07</v>
+        <v>0.0001238020340679213</v>
       </c>
       <c r="AB9" t="n">
-        <v>1.844463258748874e-05</v>
+        <v>0.0003290779422968626</v>
       </c>
       <c r="AC9" t="n">
-        <v>8.378113307117019e-06</v>
+        <v>0.0004154573834966868</v>
       </c>
       <c r="AD9" t="n">
-        <v>1.729871473798994e-05</v>
+        <v>8.762982906773686e-05</v>
       </c>
       <c r="AE9" t="n">
-        <v>2.502075585653074e-05</v>
+        <v>7.16406138963066e-05</v>
       </c>
       <c r="AF9" t="n">
-        <v>6.050615411368199e-05</v>
+        <v>3.526302316458896e-05</v>
       </c>
       <c r="AG9" t="n">
-        <v>1.911856816150248e-05</v>
+        <v>0.0001204325817525387</v>
       </c>
       <c r="AH9" t="n">
-        <v>6.880964974698145e-06</v>
+        <v>0.00010393449338153</v>
       </c>
       <c r="AI9" t="n">
-        <v>1.215048541780561e-05</v>
+        <v>6.725216371705756e-05</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.613911808817647e-05</v>
+        <v>9.527519068797119e-06</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.701850487734191e-05</v>
+        <v>0.0001129015581682324</v>
       </c>
       <c r="AL9" t="n">
-        <v>9.31452632357832e-07</v>
+        <v>0.0002561474393587559</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.034871638694312e-05</v>
+        <v>1.916389373946004e-05</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.907385351136327e-05</v>
+        <v>3.924795964849181e-05</v>
       </c>
       <c r="AO9" t="n">
-        <v>1.059224814525805e-06</v>
+        <v>0.0001128016083384864</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.312867698288755e-05</v>
+        <v>0.0002037761296378449</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.281176759628579e-06</v>
+        <v>0.0001255855750059709</v>
       </c>
       <c r="AR9" t="n">
-        <v>7.37812160878093e-06</v>
+        <v>0.0002039549581240863</v>
       </c>
       <c r="AS9" t="n">
-        <v>6.521549948956817e-06</v>
+        <v>6.81114979670383e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>8.701102342456579e-05</v>
+        <v>0.0001823999627958983</v>
       </c>
       <c r="AU9" t="n">
-        <v>2.331837094970979e-05</v>
+        <v>0.001574264839291573</v>
       </c>
       <c r="AV9" t="n">
-        <v>2.704895450733602e-05</v>
+        <v>4.766154597746208e-05</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.923399294260889e-05</v>
+        <v>0.0003766166628338397</v>
       </c>
       <c r="AX9" t="n">
-        <v>3.291081520728767e-05</v>
+        <v>3.902659227605909e-05</v>
       </c>
       <c r="AY9" t="n">
-        <v>6.473639223258942e-05</v>
+        <v>0.0001552109024487436</v>
       </c>
       <c r="AZ9" t="n">
-        <v>5.053782388131367e-06</v>
+        <v>8.883430564310402e-05</v>
       </c>
       <c r="BA9" t="n">
-        <v>2.867757939384319e-05</v>
+        <v>8.07600881671533e-05</v>
       </c>
       <c r="BB9" t="n">
-        <v>2.170672451029532e-05</v>
+        <v>2.54354345088359e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>7.174229540396482e-05</v>
+        <v>0.0001456690515624359</v>
       </c>
       <c r="BD9" t="n">
-        <v>6.700076482957229e-06</v>
+        <v>0.0003903830656781793</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.274684927921044e-05</v>
+        <v>0.0003805839514825493</v>
       </c>
       <c r="BF9" t="n">
-        <v>3.390700294403359e-05</v>
+        <v>0.0002526273019611835</v>
       </c>
       <c r="BG9" t="n">
-        <v>8.686437649885193e-05</v>
+        <v>0.0006408639601431787</v>
       </c>
       <c r="BH9" t="n">
-        <v>3.401172580197453e-05</v>
+        <v>1.642053393879905e-05</v>
       </c>
       <c r="BI9" t="n">
-        <v>9.076420974452049e-05</v>
+        <v>0.0002975481329485774</v>
       </c>
       <c r="BJ9" t="n">
-        <v>9.418842091690749e-05</v>
+        <v>0.0001940592919709161</v>
       </c>
       <c r="BK9" t="n">
-        <v>7.186584298324306e-06</v>
+        <v>4.920540595776401e-05</v>
       </c>
       <c r="BL9" t="n">
-        <v>4.975452611688524e-05</v>
+        <v>0.0003370370541233569</v>
       </c>
       <c r="BM9" t="n">
-        <v>8.102323590719607e-06</v>
+        <v>0.0002701394259929657</v>
       </c>
       <c r="BN9" t="n">
-        <v>1.636635533941444e-05</v>
+        <v>0.0001956179039552808</v>
       </c>
       <c r="BO9" t="n">
-        <v>8.967221219791099e-06</v>
+        <v>3.990187178715132e-05</v>
       </c>
       <c r="BP9" t="n">
-        <v>8.41679320728872e-06</v>
+        <v>0.0002570226206444204</v>
       </c>
       <c r="BQ9" t="n">
-        <v>1.432639055565232e-05</v>
+        <v>0.0001727686903905123</v>
       </c>
       <c r="BR9" t="n">
-        <v>7.947042831801809e-06</v>
+        <v>1.112441896111704e-05</v>
       </c>
       <c r="BS9" t="n">
-        <v>2.465489160385914e-06</v>
+        <v>6.0779377236031e-05</v>
       </c>
       <c r="BT9" t="n">
-        <v>9.308527296525426e-06</v>
+        <v>0.0001162454718723893</v>
       </c>
       <c r="BU9" t="n">
-        <v>8.246855577453971e-05</v>
+        <v>0.0001035733730532229</v>
       </c>
       <c r="BV9" t="n">
-        <v>2.021533509832807e-05</v>
+        <v>0.0007929964922368526</v>
       </c>
       <c r="BW9" t="n">
-        <v>1.177675767394248e-05</v>
+        <v>0.0003593620203901082</v>
       </c>
       <c r="BX9" t="n">
-        <v>0.0001197466408484615</v>
+        <v>0.0001427660754416138</v>
       </c>
       <c r="BY9" t="n">
-        <v>1.157195947598666e-05</v>
+        <v>0.0002087409666273743</v>
       </c>
       <c r="BZ9" t="n">
-        <v>7.929942512419075e-06</v>
+        <v>0.0001103158574551344</v>
       </c>
       <c r="CA9" t="n">
-        <v>2.170280276914127e-05</v>
+        <v>0.0001037959227687679</v>
       </c>
       <c r="CB9" t="n">
-        <v>2.000199310714379e-05</v>
+        <v>5.671615872415714e-05</v>
       </c>
       <c r="CC9" t="n">
-        <v>1.426629478373798e-05</v>
+        <v>6.140420737210661e-05</v>
       </c>
       <c r="CD9" t="n">
-        <v>3.750389441847801e-05</v>
+        <v>2.28438111662399e-05</v>
       </c>
       <c r="CE9" t="n">
-        <v>4.047604306833819e-05</v>
+        <v>0.0003806773747783154</v>
       </c>
       <c r="CF9" t="n">
-        <v>4.278449523553718e-07</v>
+        <v>9.106069046538323e-05</v>
       </c>
       <c r="CG9" t="n">
-        <v>5.728415999328718e-06</v>
+        <v>0.0001270853390451521</v>
       </c>
       <c r="CH9" t="n">
-        <v>8.252068255387712e-06</v>
+        <v>9.798636165214702e-05</v>
       </c>
       <c r="CI9" t="n">
-        <v>5.083218638901599e-06</v>
+        <v>2.219326597696636e-05</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1.73908792930888e-05</v>
+        <v>7.466358511010185e-05</v>
       </c>
       <c r="CK9" t="n">
-        <v>1.897472259315691e-07</v>
+        <v>2.4101300368784e-05</v>
       </c>
       <c r="CL9" t="n">
-        <v>8.359887033293489e-06</v>
+        <v>3.866045881295577e-05</v>
       </c>
       <c r="CM9" t="n">
-        <v>1.270198481506668e-05</v>
+        <v>0.0005100908456370234</v>
       </c>
       <c r="CN9" t="n">
-        <v>2.711771048780065e-05</v>
+        <v>0.0003336657537147403</v>
       </c>
       <c r="CO9" t="n">
-        <v>5.299343229125952e-06</v>
+        <v>1.972131576621905e-05</v>
       </c>
       <c r="CP9" t="n">
-        <v>1.569991945871152e-05</v>
+        <v>0.0004825488722417504</v>
       </c>
       <c r="CQ9" t="n">
-        <v>5.580208835453959e-06</v>
+        <v>0.0004234371590428054</v>
       </c>
       <c r="CR9" t="n">
-        <v>1.645198426558636e-05</v>
+        <v>0.0003351770283188671</v>
       </c>
       <c r="CS9" t="n">
-        <v>1.877384420367889e-05</v>
+        <v>0.0002063315187115222</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.808039633033331e-05</v>
+        <v>0.0005033588968217373</v>
       </c>
       <c r="CU9" t="n">
-        <v>6.377740646712482e-07</v>
+        <v>5.353215965442359e-05</v>
       </c>
       <c r="CV9" t="n">
-        <v>3.335157089168206e-05</v>
+        <v>2.655000207596458e-05</v>
       </c>
       <c r="CW9" t="n">
-        <v>3.856112016364932e-05</v>
+        <v>0.0003374374937266111</v>
       </c>
       <c r="CX9" t="n">
-        <v>5.573539965553209e-06</v>
+        <v>0.0001378128072246909</v>
       </c>
       <c r="CY9" t="n">
-        <v>2.897194917750312e-06</v>
+        <v>0.0002151064982172102</v>
       </c>
       <c r="CZ9" t="n">
-        <v>4.385967713460559e-06</v>
+        <v>0.0001127371288021095</v>
       </c>
       <c r="DA9" t="n">
-        <v>8.617053026682697e-06</v>
+        <v>3.564425787772052e-05</v>
       </c>
       <c r="DB9" t="n">
-        <v>2.689473149075639e-05</v>
+        <v>5.382363087846898e-05</v>
       </c>
       <c r="DC9" t="n">
-        <v>4.562089543469483e-06</v>
+        <v>3.157735773129389e-05</v>
       </c>
       <c r="DD9" t="n">
-        <v>7.39982624509139e-06</v>
+        <v>4.187599188298918e-06</v>
       </c>
       <c r="DE9" t="n">
-        <v>1.183994754683226e-05</v>
+        <v>0.0001215209777001292</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0001027810212690383</v>
+        <v>0.0002728051040321589</v>
       </c>
       <c r="DG9" t="n">
-        <v>4.016155435238034e-05</v>
+        <v>0.0001631862105568871</v>
       </c>
       <c r="DH9" t="n">
-        <v>3.144380389130674e-05</v>
+        <v>0.0005344727542251348</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.0001074728279490955</v>
+        <v>0.0001134058475145139</v>
       </c>
       <c r="DJ9" t="n">
-        <v>3.131516132270917e-05</v>
+        <v>5.849653098266572e-05</v>
       </c>
       <c r="DK9" t="n">
-        <v>6.081776518840343e-06</v>
+        <v>0.0002008561423281208</v>
       </c>
       <c r="DL9" t="n">
-        <v>4.275155151844956e-05</v>
+        <v>8.191350207198411e-05</v>
       </c>
       <c r="DM9" t="n">
-        <v>2.234923158539459e-06</v>
+        <v>0.0001885909005068243</v>
       </c>
       <c r="DN9" t="n">
-        <v>2.432943256280851e-05</v>
+        <v>8.119010453810915e-05</v>
       </c>
       <c r="DO9" t="n">
-        <v>3.852765803458169e-05</v>
+        <v>0.0001959604996955022</v>
       </c>
       <c r="DP9" t="n">
-        <v>1.779092235665303e-05</v>
+        <v>5.915107612963766e-05</v>
       </c>
       <c r="DQ9" t="n">
-        <v>1.17145400508889e-05</v>
+        <v>0.0001601869444129989</v>
       </c>
       <c r="DR9" t="n">
-        <v>2.150014734070282e-05</v>
+        <v>0.0002706059603951871</v>
       </c>
       <c r="DS9" t="n">
-        <v>1.217138742504176e-05</v>
+        <v>6.900829612277448e-05</v>
       </c>
       <c r="DT9" t="n">
-        <v>1.961790076165926e-05</v>
+        <v>6.929966912139207e-05</v>
       </c>
       <c r="DU9" t="n">
-        <v>6.399116500688251e-06</v>
+        <v>5.750738637289032e-05</v>
       </c>
       <c r="DV9" t="n">
-        <v>4.434823040355695e-06</v>
+        <v>4.763456672662869e-06</v>
       </c>
       <c r="DW9" t="n">
-        <v>2.738930197665468e-05</v>
+        <v>1.081712071027141e-05</v>
       </c>
       <c r="DX9" t="n">
-        <v>2.598108039819635e-05</v>
+        <v>0.0001523045793874189</v>
       </c>
       <c r="DY9" t="n">
-        <v>3.278287840657867e-05</v>
+        <v>0.0001365732314297929</v>
       </c>
       <c r="DZ9" t="n">
-        <v>6.102008228481282e-06</v>
+        <v>1.080520087270997e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>3.938666850444861e-05</v>
+        <v>0.0003503223997540772</v>
       </c>
       <c r="EB9" t="n">
-        <v>1.605827856110409e-05</v>
+        <v>0.0001279775897273794</v>
       </c>
       <c r="EC9" t="n">
-        <v>3.373300933162682e-05</v>
+        <v>5.57734165340662e-05</v>
       </c>
       <c r="ED9" t="n">
-        <v>1.037746915244497e-05</v>
+        <v>3.537025622790679e-05</v>
       </c>
       <c r="EE9" t="n">
-        <v>4.779668870469322e-06</v>
+        <v>9.781360859051347e-07</v>
       </c>
       <c r="EF9" t="n">
-        <v>7.571304740849882e-05</v>
+        <v>4.722765879705548e-06</v>
       </c>
       <c r="EG9" t="n">
-        <v>2.801818300213199e-05</v>
+        <v>0.0003097568114753813</v>
       </c>
       <c r="EH9" t="n">
-        <v>2.285532900714315e-07</v>
+        <v>6.96190181770362e-05</v>
       </c>
       <c r="EI9" t="n">
-        <v>2.557001607783604e-05</v>
+        <v>0.0002836289640981704</v>
       </c>
       <c r="EJ9" t="n">
-        <v>3.904286131728441e-06</v>
+        <v>0.000192995517863892</v>
       </c>
       <c r="EK9" t="n">
-        <v>1.367336153634824e-05</v>
+        <v>1.011966560326982e-05</v>
       </c>
       <c r="EL9" t="n">
-        <v>2.686989773792448e-06</v>
+        <v>0.0001094469116651453</v>
       </c>
       <c r="EM9" t="n">
-        <v>3.177693315592478e-06</v>
+        <v>3.186847607139498e-05</v>
       </c>
       <c r="EN9" t="n">
-        <v>1.241773588844808e-05</v>
+        <v>2.086668246192858e-05</v>
       </c>
       <c r="EO9" t="n">
-        <v>1.000136762741022e-06</v>
+        <v>0.0001095698098652065</v>
       </c>
       <c r="EP9" t="n">
-        <v>7.250036287587136e-05</v>
+        <v>0.0002914402284659445</v>
       </c>
       <c r="EQ9" t="n">
-        <v>8.289267498184927e-06</v>
+        <v>0.0002728443942032754</v>
       </c>
       <c r="ER9" t="n">
-        <v>1.473619886382949e-05</v>
+        <v>0.0002167810889659449</v>
       </c>
       <c r="ES9" t="n">
-        <v>1.546874045743607e-05</v>
+        <v>0.000154373628902249</v>
       </c>
       <c r="ET9" t="n">
-        <v>5.778206741524627e-06</v>
+        <v>1.061833427229431e-05</v>
       </c>
       <c r="EU9" t="n">
-        <v>9.010949725052342e-06</v>
+        <v>0.000146948077599518</v>
       </c>
       <c r="EV9" t="n">
-        <v>2.404718725301791e-05</v>
+        <v>0.0001060341310221702</v>
       </c>
       <c r="EW9" t="n">
-        <v>1.1441319657024e-05</v>
+        <v>2.384248182352167e-05</v>
       </c>
       <c r="EX9" t="n">
-        <v>3.583086072467268e-05</v>
+        <v>5.094152948004194e-05</v>
       </c>
       <c r="EY9" t="n">
-        <v>2.860163840523455e-05</v>
+        <v>0.0003701082605402917</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.27161511045415e-05</v>
+        <v>8.096054079942405e-05</v>
       </c>
       <c r="FA9" t="n">
-        <v>7.176007329690037e-06</v>
+        <v>0.0001696401595836505</v>
       </c>
       <c r="FB9" t="n">
-        <v>2.840118213498499e-06</v>
+        <v>8.182282908819616e-05</v>
       </c>
       <c r="FC9" t="n">
-        <v>5.158743078936823e-06</v>
+        <v>7.752590317977592e-05</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.469880498916609e-05</v>
+        <v>8.569662168156356e-05</v>
       </c>
       <c r="FE9" t="n">
-        <v>9.24088635656517e-06</v>
+        <v>3.693765756906942e-05</v>
       </c>
       <c r="FF9" t="n">
-        <v>2.303963356098393e-06</v>
+        <v>4.223584619467147e-05</v>
       </c>
       <c r="FG9" t="n">
-        <v>3.593334258766845e-05</v>
+        <v>6.737804505974054e-05</v>
       </c>
       <c r="FH9" t="n">
-        <v>2.174484689021483e-05</v>
+        <v>6.449638021877035e-05</v>
       </c>
       <c r="FI9" t="n">
-        <v>1.822024933062494e-05</v>
+        <v>0.0001231427304446697</v>
       </c>
       <c r="FJ9" t="n">
-        <v>4.383490477266605e-07</v>
+        <v>0.0001899281778605655</v>
       </c>
       <c r="FK9" t="n">
-        <v>5.729903023166116e-06</v>
+        <v>0.0002080197009490803</v>
       </c>
       <c r="FL9" t="n">
-        <v>1.704649912426248e-05</v>
+        <v>0.0002229698002338409</v>
       </c>
       <c r="FM9" t="n">
-        <v>4.190553590888157e-05</v>
+        <v>6.099063830333762e-05</v>
       </c>
       <c r="FN9" t="n">
-        <v>2.383241007919423e-05</v>
+        <v>6.121023034211248e-06</v>
       </c>
       <c r="FO9" t="n">
-        <v>2.572027369751595e-06</v>
+        <v>0.0001344389893347397</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.318827889917884e-05</v>
+        <v>0.0001581732067279518</v>
       </c>
       <c r="FQ9" t="n">
-        <v>4.244603405823e-05</v>
+        <v>9.571531700203195e-05</v>
       </c>
       <c r="FR9" t="n">
-        <v>3.851910150842741e-05</v>
+        <v>0.0001629602920729667</v>
       </c>
       <c r="FS9" t="n">
-        <v>3.210750583093613e-05</v>
+        <v>1.91412509593647e-05</v>
       </c>
       <c r="FT9" t="n">
-        <v>4.455949965631589e-05</v>
+        <v>4.490357241593301e-05</v>
       </c>
       <c r="FU9" t="n">
-        <v>1.119971966545563e-05</v>
+        <v>3.313143315608613e-05</v>
       </c>
       <c r="FV9" t="n">
-        <v>2.571068762335926e-05</v>
+        <v>9.340090036857873e-05</v>
       </c>
       <c r="FW9" t="n">
-        <v>3.005582948389929e-05</v>
+        <v>2.526598109398037e-06</v>
       </c>
       <c r="FX9" t="n">
-        <v>6.918054168636445e-06</v>
+        <v>0.0001424658257747069</v>
       </c>
       <c r="FY9" t="n">
-        <v>6.024770846124738e-05</v>
+        <v>0.0003174418234266341</v>
       </c>
       <c r="FZ9" t="n">
-        <v>1.014702502288856e-05</v>
+        <v>8.979453559732065e-05</v>
       </c>
       <c r="GA9" t="n">
-        <v>2.326031790289562e-05</v>
+        <v>3.375867527211085e-05</v>
       </c>
       <c r="GB9" t="n">
-        <v>4.621473999577574e-05</v>
+        <v>2.003009285544977e-05</v>
       </c>
       <c r="GC9" t="n">
-        <v>3.127897434751503e-05</v>
+        <v>6.85951454215683e-05</v>
       </c>
       <c r="GD9" t="n">
-        <v>8.944351066020317e-06</v>
+        <v>0.0001259811979252845</v>
       </c>
       <c r="GE9" t="n">
-        <v>3.064007159991888e-06</v>
+        <v>0.0003437410341575742</v>
       </c>
       <c r="GF9" t="n">
-        <v>9.241787665814627e-06</v>
+        <v>7.896800525486469e-05</v>
       </c>
       <c r="GG9" t="n">
-        <v>2.085980850097258e-05</v>
+        <v>3.530871617840603e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2.806531256283051e-06</v>
+        <v>0.008499178104102612</v>
       </c>
       <c r="B10" t="n">
-        <v>1.49308862091857e-05</v>
+        <v>0.00970682967454195</v>
       </c>
       <c r="C10" t="n">
-        <v>6.2003064158489e-06</v>
+        <v>0.01356310769915581</v>
       </c>
       <c r="D10" t="n">
-        <v>2.538806484153611e-06</v>
+        <v>0.001163738546893001</v>
       </c>
       <c r="E10" t="n">
-        <v>8.244933269452304e-06</v>
+        <v>0.006787130143493414</v>
       </c>
       <c r="F10" t="n">
-        <v>9.482765221946465e-07</v>
+        <v>0.00661865621805191</v>
       </c>
       <c r="G10" t="n">
-        <v>4.636046924133552e-08</v>
+        <v>0.003393606515601277</v>
       </c>
       <c r="H10" t="n">
-        <v>5.098954147797485e-07</v>
+        <v>0.001055062981322408</v>
       </c>
       <c r="I10" t="n">
-        <v>5.876039494978613e-07</v>
+        <v>0.001349973026663065</v>
       </c>
       <c r="J10" t="n">
-        <v>2.17988258555124e-07</v>
+        <v>0.003365600947290659</v>
       </c>
       <c r="K10" t="n">
-        <v>1.123408856074093e-05</v>
+        <v>0.004121009260416031</v>
       </c>
       <c r="L10" t="n">
-        <v>2.671754600669374e-06</v>
+        <v>0.009573264047503471</v>
       </c>
       <c r="M10" t="n">
-        <v>2.479679778844002e-06</v>
+        <v>0.00763384997844696</v>
       </c>
       <c r="N10" t="n">
-        <v>8.305883056891616e-06</v>
+        <v>0.01075427792966366</v>
       </c>
       <c r="O10" t="n">
-        <v>6.315879090834642e-07</v>
+        <v>0.002164536854252219</v>
       </c>
       <c r="P10" t="n">
-        <v>1.581223159519141e-06</v>
+        <v>0.0002983426675200462</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.848812528100098e-06</v>
+        <v>0.001637077075429261</v>
       </c>
       <c r="R10" t="n">
-        <v>9.8377529411664e-07</v>
+        <v>0.005735991522669792</v>
       </c>
       <c r="S10" t="n">
-        <v>5.609308004750346e-07</v>
+        <v>0.003542885184288025</v>
       </c>
       <c r="T10" t="n">
-        <v>3.334860139148077e-06</v>
+        <v>0.005772395059466362</v>
       </c>
       <c r="U10" t="n">
-        <v>2.358695383009035e-06</v>
+        <v>0.007232104428112507</v>
       </c>
       <c r="V10" t="n">
-        <v>1.485145503465901e-06</v>
+        <v>0.002401644829660654</v>
       </c>
       <c r="W10" t="n">
-        <v>1.802111682991381e-06</v>
+        <v>0.001424751128070056</v>
       </c>
       <c r="X10" t="n">
-        <v>1.808519982660073e-07</v>
+        <v>0.0006688187713734806</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.319098880183446e-07</v>
+        <v>0.0001960722438525409</v>
       </c>
       <c r="Z10" t="n">
-        <v>5.78362801206822e-07</v>
+        <v>0.0006691477028653026</v>
       </c>
       <c r="AA10" t="n">
-        <v>4.115809133509174e-07</v>
+        <v>0.0003031452943105251</v>
       </c>
       <c r="AB10" t="n">
-        <v>1.138025140789978e-06</v>
+        <v>0.0002933915238827467</v>
       </c>
       <c r="AC10" t="n">
-        <v>3.097064563917229e-06</v>
+        <v>0.002229778794571757</v>
       </c>
       <c r="AD10" t="n">
-        <v>8.130771220749011e-07</v>
+        <v>0.002807889599353075</v>
       </c>
       <c r="AE10" t="n">
-        <v>9.185658313981548e-07</v>
+        <v>0.002085701795294881</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.072623146887054e-06</v>
+        <v>0.001413042424246669</v>
       </c>
       <c r="AG10" t="n">
-        <v>3.273299284956011e-07</v>
+        <v>0.003510283771902323</v>
       </c>
       <c r="AH10" t="n">
-        <v>4.199934551252227e-07</v>
+        <v>0.001177860191091895</v>
       </c>
       <c r="AI10" t="n">
-        <v>7.497703791159438e-07</v>
+        <v>0.001841070014052093</v>
       </c>
       <c r="AJ10" t="n">
-        <v>7.762665177324379e-08</v>
+        <v>0.001185748027637601</v>
       </c>
       <c r="AK10" t="n">
-        <v>8.480934639010229e-07</v>
+        <v>0.001373986713588238</v>
       </c>
       <c r="AL10" t="n">
-        <v>5.276330739434343e-06</v>
+        <v>0.007238511927425861</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.444141275896982e-06</v>
+        <v>0.001027089543640614</v>
       </c>
       <c r="AN10" t="n">
-        <v>1.240415485881385e-07</v>
+        <v>0.001894080894999206</v>
       </c>
       <c r="AO10" t="n">
-        <v>1.400324208589154e-06</v>
+        <v>0.004183701705187559</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.243371571035823e-06</v>
+        <v>0.004941381048411131</v>
       </c>
       <c r="AQ10" t="n">
-        <v>7.580287046948797e-07</v>
+        <v>0.001846927450969815</v>
       </c>
       <c r="AR10" t="n">
-        <v>1.058762563843629e-06</v>
+        <v>0.0006209275452420115</v>
       </c>
       <c r="AS10" t="n">
-        <v>5.969743028799712e-07</v>
+        <v>0.001364790252409875</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.045167548203608e-06</v>
+        <v>0.007095967885106802</v>
       </c>
       <c r="AU10" t="n">
-        <v>7.498007107642479e-06</v>
+        <v>0.0002839281223714352</v>
       </c>
       <c r="AV10" t="n">
-        <v>1.359503471576318e-06</v>
+        <v>0.01119212806224823</v>
       </c>
       <c r="AW10" t="n">
-        <v>1.791836439224426e-07</v>
+        <v>0.001077619846910238</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.6498352073977e-06</v>
+        <v>0.007444462738931179</v>
       </c>
       <c r="AY10" t="n">
-        <v>5.399646738624142e-07</v>
+        <v>0.000500788853969425</v>
       </c>
       <c r="AZ10" t="n">
-        <v>2.029077677434543e-06</v>
+        <v>0.002965846797451377</v>
       </c>
       <c r="BA10" t="n">
-        <v>1.702407303127984e-06</v>
+        <v>0.0004716234398074448</v>
       </c>
       <c r="BB10" t="n">
-        <v>2.827106072800234e-06</v>
+        <v>0.006677248980849981</v>
       </c>
       <c r="BC10" t="n">
-        <v>1.520094201623579e-06</v>
+        <v>0.003032696899026632</v>
       </c>
       <c r="BD10" t="n">
-        <v>1.868952267614077e-06</v>
+        <v>0.0131157822906971</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.290706109102757e-06</v>
+        <v>0.00149117608089</v>
       </c>
       <c r="BF10" t="n">
-        <v>1.719022975521511e-06</v>
+        <v>0.005243589635938406</v>
       </c>
       <c r="BG10" t="n">
-        <v>3.048211283385172e-08</v>
+        <v>0.0057760258205235</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.169869503632071e-06</v>
+        <v>0.01383857149630785</v>
       </c>
       <c r="BI10" t="n">
-        <v>2.472968390065944e-06</v>
+        <v>0.002600011881440878</v>
       </c>
       <c r="BJ10" t="n">
-        <v>2.83389840660675e-06</v>
+        <v>0.007029459811747074</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.124197180819465e-06</v>
+        <v>0.00638252031058073</v>
       </c>
       <c r="BL10" t="n">
-        <v>8.392261747758312e-07</v>
+        <v>0.0002738849725574255</v>
       </c>
       <c r="BM10" t="n">
-        <v>2.865270687379962e-07</v>
+        <v>0.001889570616185665</v>
       </c>
       <c r="BN10" t="n">
-        <v>2.567368028394412e-06</v>
+        <v>0.006030024960637093</v>
       </c>
       <c r="BO10" t="n">
-        <v>8.103224331534875e-07</v>
+        <v>0.005799076519906521</v>
       </c>
       <c r="BP10" t="n">
-        <v>2.986835625051754e-06</v>
+        <v>0.0009437838452868164</v>
       </c>
       <c r="BQ10" t="n">
-        <v>4.177661594439996e-06</v>
+        <v>0.004584554117172956</v>
       </c>
       <c r="BR10" t="n">
-        <v>2.776650944724679e-06</v>
+        <v>0.002769266720861197</v>
       </c>
       <c r="BS10" t="n">
-        <v>4.014947876385122e-07</v>
+        <v>0.002703785663470626</v>
       </c>
       <c r="BT10" t="n">
-        <v>8.227245302805386e-07</v>
+        <v>0.002728620311245322</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.27372516089963e-06</v>
+        <v>0.002576492028310895</v>
       </c>
       <c r="BV10" t="n">
-        <v>4.215179615130182e-06</v>
+        <v>0.002607415663078427</v>
       </c>
       <c r="BW10" t="n">
-        <v>1.658036808294128e-06</v>
+        <v>0.004225813783705235</v>
       </c>
       <c r="BX10" t="n">
-        <v>6.055270773686061e-07</v>
+        <v>0.001069018850103021</v>
       </c>
       <c r="BY10" t="n">
-        <v>1.990336386370473e-06</v>
+        <v>0.005610744003206491</v>
       </c>
       <c r="BZ10" t="n">
-        <v>1.387153133691754e-06</v>
+        <v>0.003315248759463429</v>
       </c>
       <c r="CA10" t="n">
-        <v>2.635232249303954e-06</v>
+        <v>0.000395581650082022</v>
       </c>
       <c r="CB10" t="n">
-        <v>6.845988309578388e-07</v>
+        <v>0.003788281697779894</v>
       </c>
       <c r="CC10" t="n">
-        <v>2.24966996142939e-07</v>
+        <v>0.007312783040106297</v>
       </c>
       <c r="CD10" t="n">
-        <v>8.384874377043161e-07</v>
+        <v>0.0009783589048311114</v>
       </c>
       <c r="CE10" t="n">
-        <v>3.241057811464998e-06</v>
+        <v>0.0004877024912275374</v>
       </c>
       <c r="CF10" t="n">
-        <v>2.118528755090665e-06</v>
+        <v>0.002341635758057237</v>
       </c>
       <c r="CG10" t="n">
-        <v>9.629678743294789e-08</v>
+        <v>0.001818784396164119</v>
       </c>
       <c r="CH10" t="n">
-        <v>2.223761839559302e-06</v>
+        <v>0.0002795422915369272</v>
       </c>
       <c r="CI10" t="n">
-        <v>1.36112055315607e-06</v>
+        <v>0.0002474786888342351</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1.202813223244448e-06</v>
+        <v>0.00104774977080524</v>
       </c>
       <c r="CK10" t="n">
-        <v>3.006196322985488e-07</v>
+        <v>0.001606174162589014</v>
       </c>
       <c r="CL10" t="n">
-        <v>4.430807720723351e-08</v>
+        <v>0.001003040815703571</v>
       </c>
       <c r="CM10" t="n">
-        <v>2.652176362971659e-07</v>
+        <v>0.0004871033597737551</v>
       </c>
       <c r="CN10" t="n">
-        <v>1.58209888923011e-06</v>
+        <v>0.0001169894821941853</v>
       </c>
       <c r="CO10" t="n">
-        <v>5.897383061892469e-07</v>
+        <v>0.0001818223390728235</v>
       </c>
       <c r="CP10" t="n">
-        <v>8.161980531440349e-07</v>
+        <v>0.002279856009408832</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.904589908008347e-06</v>
+        <v>0.005401432048529387</v>
       </c>
       <c r="CR10" t="n">
-        <v>5.597754579866887e-07</v>
+        <v>0.001277240691706538</v>
       </c>
       <c r="CS10" t="n">
-        <v>2.025151388806989e-06</v>
+        <v>0.004027674905955791</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.802677957130072e-06</v>
+        <v>0.001735615776851773</v>
       </c>
       <c r="CU10" t="n">
-        <v>9.035010606339711e-08</v>
+        <v>0.002924345899373293</v>
       </c>
       <c r="CV10" t="n">
-        <v>4.791688752447953e-07</v>
+        <v>5.311614950187504e-05</v>
       </c>
       <c r="CW10" t="n">
-        <v>3.182802402079687e-06</v>
+        <v>0.001764532295055687</v>
       </c>
       <c r="CX10" t="n">
-        <v>2.402355676167645e-06</v>
+        <v>0.002247774507850409</v>
       </c>
       <c r="CY10" t="n">
-        <v>6.619522991968552e-07</v>
+        <v>0.001495834323577583</v>
       </c>
       <c r="CZ10" t="n">
-        <v>2.186631263612071e-06</v>
+        <v>2.823727845679969e-05</v>
       </c>
       <c r="DA10" t="n">
-        <v>6.63799085032224e-07</v>
+        <v>0.0003334430512040854</v>
       </c>
       <c r="DB10" t="n">
-        <v>1.108814103645273e-06</v>
+        <v>0.0007256342796608806</v>
       </c>
       <c r="DC10" t="n">
-        <v>4.280652774468763e-07</v>
+        <v>3.373619983904064e-05</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.661334891878141e-07</v>
+        <v>0.0009924424812197685</v>
       </c>
       <c r="DE10" t="n">
-        <v>3.803702384175267e-06</v>
+        <v>0.003099584486335516</v>
       </c>
       <c r="DF10" t="n">
-        <v>8.183745308087964e-07</v>
+        <v>0.000311938812956214</v>
       </c>
       <c r="DG10" t="n">
-        <v>3.291450411779806e-06</v>
+        <v>0.01462511159479618</v>
       </c>
       <c r="DH10" t="n">
-        <v>1.575781197971082e-06</v>
+        <v>0.007148363627493382</v>
       </c>
       <c r="DI10" t="n">
-        <v>3.872000434057554e-06</v>
+        <v>0.001865403377451003</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1.955705556611065e-06</v>
+        <v>0.0001406104565830901</v>
       </c>
       <c r="DK10" t="n">
-        <v>3.471125182841206e-07</v>
+        <v>0.001899868249893188</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.087580017156142e-07</v>
+        <v>0.00478613656014204</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.480811533838278e-06</v>
+        <v>0.004249499179422855</v>
       </c>
       <c r="DN10" t="n">
-        <v>7.857048700543601e-08</v>
+        <v>0.0008042750414460897</v>
       </c>
       <c r="DO10" t="n">
-        <v>8.464222105430963e-07</v>
+        <v>0.006675765849649906</v>
       </c>
       <c r="DP10" t="n">
-        <v>3.03582714877848e-06</v>
+        <v>0.0007870960398577154</v>
       </c>
       <c r="DQ10" t="n">
-        <v>6.121638307376998e-08</v>
+        <v>0.001432199031114578</v>
       </c>
       <c r="DR10" t="n">
-        <v>1.580797857059224e-06</v>
+        <v>0.002408191794529557</v>
       </c>
       <c r="DS10" t="n">
-        <v>3.714029617185588e-08</v>
+        <v>0.003592542605474591</v>
       </c>
       <c r="DT10" t="n">
-        <v>5.105406444272376e-07</v>
+        <v>0.001188019523397088</v>
       </c>
       <c r="DU10" t="n">
-        <v>1.895826244435739e-06</v>
+        <v>0.004610248375684023</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.380896833325096e-06</v>
+        <v>0.007035859860479832</v>
       </c>
       <c r="DW10" t="n">
-        <v>1.327998688793741e-06</v>
+        <v>0.000757196918129921</v>
       </c>
       <c r="DX10" t="n">
-        <v>1.232510271620413e-06</v>
+        <v>0.0004638272803276777</v>
       </c>
       <c r="DY10" t="n">
-        <v>1.701487235550303e-07</v>
+        <v>0.0009609186090528965</v>
       </c>
       <c r="DZ10" t="n">
-        <v>2.846574034265359e-07</v>
+        <v>0.0008142655715346336</v>
       </c>
       <c r="EA10" t="n">
-        <v>1.417190560459858e-06</v>
+        <v>0.004831778351217508</v>
       </c>
       <c r="EB10" t="n">
-        <v>9.740006134961732e-07</v>
+        <v>0.001777645200490952</v>
       </c>
       <c r="EC10" t="n">
-        <v>8.074260904322728e-07</v>
+        <v>0.0003966122167184949</v>
       </c>
       <c r="ED10" t="n">
-        <v>2.79976165984408e-06</v>
+        <v>0.004204933997243643</v>
       </c>
       <c r="EE10" t="n">
-        <v>8.756034617363184e-07</v>
+        <v>0.004081851337105036</v>
       </c>
       <c r="EF10" t="n">
-        <v>7.58893520469428e-07</v>
+        <v>0.0008235644781962037</v>
       </c>
       <c r="EG10" t="n">
-        <v>3.922888936358504e-06</v>
+        <v>0.008238751441240311</v>
       </c>
       <c r="EH10" t="n">
-        <v>2.698795924516162e-06</v>
+        <v>0.006528296042233706</v>
       </c>
       <c r="EI10" t="n">
-        <v>2.139928710676031e-06</v>
+        <v>0.0013767791679129</v>
       </c>
       <c r="EJ10" t="n">
-        <v>2.102920461766189e-06</v>
+        <v>0.002173091983422637</v>
       </c>
       <c r="EK10" t="n">
-        <v>1.753005790305906e-06</v>
+        <v>0.002374784322455525</v>
       </c>
       <c r="EL10" t="n">
-        <v>3.95254204477169e-07</v>
+        <v>0.001931108767166734</v>
       </c>
       <c r="EM10" t="n">
-        <v>7.893906968092779e-07</v>
+        <v>0.0003340702969580889</v>
       </c>
       <c r="EN10" t="n">
-        <v>1.863028842308267e-06</v>
+        <v>0.003608573926612735</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.339970935987367e-06</v>
+        <v>0.002331046853214502</v>
       </c>
       <c r="EP10" t="n">
-        <v>1.795793423298164e-06</v>
+        <v>0.003230514470487833</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1.590233722481571e-07</v>
+        <v>0.002028009155765176</v>
       </c>
       <c r="ER10" t="n">
-        <v>7.47932176636823e-07</v>
+        <v>0.00061193504370749</v>
       </c>
       <c r="ES10" t="n">
-        <v>2.18850146893601e-07</v>
+        <v>0.00732757430523634</v>
       </c>
       <c r="ET10" t="n">
-        <v>1.123766253385838e-07</v>
+        <v>0.001541981124319136</v>
       </c>
       <c r="EU10" t="n">
-        <v>9.802736258279765e-07</v>
+        <v>0.001263867132365704</v>
       </c>
       <c r="EV10" t="n">
-        <v>1.022491915136925e-06</v>
+        <v>0.002154776128008962</v>
       </c>
       <c r="EW10" t="n">
-        <v>5.403084060162655e-07</v>
+        <v>0.006860783789306879</v>
       </c>
       <c r="EX10" t="n">
-        <v>9.648957757235621e-07</v>
+        <v>0.0006181451608426869</v>
       </c>
       <c r="EY10" t="n">
-        <v>2.671238917173469e-06</v>
+        <v>0.0001465511159040034</v>
       </c>
       <c r="EZ10" t="n">
-        <v>2.156108621420572e-06</v>
+        <v>0.001961084082722664</v>
       </c>
       <c r="FA10" t="n">
-        <v>6.252913067328336e-07</v>
+        <v>0.001243345555849373</v>
       </c>
       <c r="FB10" t="n">
-        <v>2.20524725591531e-06</v>
+        <v>0.0008935814257711172</v>
       </c>
       <c r="FC10" t="n">
-        <v>7.646466428923304e-07</v>
+        <v>0.001818495104089379</v>
       </c>
       <c r="FD10" t="n">
-        <v>1.086762608792924e-06</v>
+        <v>0.0004384623316582292</v>
       </c>
       <c r="FE10" t="n">
-        <v>7.970312765337439e-08</v>
+        <v>0.001015926944091916</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.186853495482865e-07</v>
+        <v>0.0003326877776999027</v>
       </c>
       <c r="FG10" t="n">
-        <v>6.305033934950188e-07</v>
+        <v>0.002640750957652926</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.388264990964672e-06</v>
+        <v>0.004163678269833326</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.077833417184593e-06</v>
+        <v>0.0001167619193438441</v>
       </c>
       <c r="FJ10" t="n">
-        <v>3.520324014516518e-07</v>
+        <v>0.001390132820233703</v>
       </c>
       <c r="FK10" t="n">
-        <v>1.128703530639541e-07</v>
+        <v>0.00237064273096621</v>
       </c>
       <c r="FL10" t="n">
-        <v>9.962789704331954e-08</v>
+        <v>0.00259118783287704</v>
       </c>
       <c r="FM10" t="n">
-        <v>1.231825194736302e-06</v>
+        <v>0.0002293229481438175</v>
       </c>
       <c r="FN10" t="n">
-        <v>4.854394433095877e-07</v>
+        <v>0.004033438861370087</v>
       </c>
       <c r="FO10" t="n">
-        <v>2.800305765049416e-06</v>
+        <v>0.0009110851678997278</v>
       </c>
       <c r="FP10" t="n">
-        <v>7.596298701173509e-09</v>
+        <v>0.0074030552059412</v>
       </c>
       <c r="FQ10" t="n">
-        <v>3.853933776554186e-07</v>
+        <v>0.001858140807598829</v>
       </c>
       <c r="FR10" t="n">
-        <v>2.380675823587808e-06</v>
+        <v>0.003830063622444868</v>
       </c>
       <c r="FS10" t="n">
-        <v>4.514081410889048e-07</v>
+        <v>0.004748388193547726</v>
       </c>
       <c r="FT10" t="n">
-        <v>7.127801495698805e-07</v>
+        <v>0.005572934169322252</v>
       </c>
       <c r="FU10" t="n">
-        <v>3.604650828492595e-06</v>
+        <v>0.001298087881878018</v>
       </c>
       <c r="FV10" t="n">
-        <v>4.406172422477539e-07</v>
+        <v>0.00148433493450284</v>
       </c>
       <c r="FW10" t="n">
-        <v>1.315585507200012e-08</v>
+        <v>0.01048062741756439</v>
       </c>
       <c r="FX10" t="n">
-        <v>1.385847781421035e-06</v>
+        <v>0.0002640351885929704</v>
       </c>
       <c r="FY10" t="n">
-        <v>2.674253209988819e-06</v>
+        <v>0.001189204631373286</v>
       </c>
       <c r="FZ10" t="n">
-        <v>8.457965350316954e-08</v>
+        <v>0.004913266282528639</v>
       </c>
       <c r="GA10" t="n">
-        <v>2.617389782244572e-06</v>
+        <v>0.004080809652805328</v>
       </c>
       <c r="GB10" t="n">
-        <v>2.740428953984519e-06</v>
+        <v>0.002713024150580168</v>
       </c>
       <c r="GC10" t="n">
-        <v>2.177294163629995e-06</v>
+        <v>1.020074705593288e-05</v>
       </c>
       <c r="GD10" t="n">
-        <v>2.355875494686188e-06</v>
+        <v>0.001823735656216741</v>
       </c>
       <c r="GE10" t="n">
-        <v>1.531776320007339e-06</v>
+        <v>0.0007202335400506854</v>
       </c>
       <c r="GF10" t="n">
-        <v>2.160970211662061e-07</v>
+        <v>0.002886604284867644</v>
       </c>
       <c r="GG10" t="n">
-        <v>2.297463481681916e-07</v>
+        <v>0.001783833606168628</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01337538659572601</v>
+        <v>0.0002323990920558572</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08662502467632294</v>
+        <v>0.004967768676578999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01457487419247627</v>
+        <v>0.0003383657603990287</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0115208150818944</v>
+        <v>0.003032695036381483</v>
       </c>
       <c r="E11" t="n">
-        <v>0.02138369902968407</v>
+        <v>0.0007044734666123986</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04456458985805511</v>
+        <v>0.00517844595015049</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02078061178326607</v>
+        <v>0.0003203715896233916</v>
       </c>
       <c r="H11" t="n">
-        <v>0.007869169116020203</v>
+        <v>0.00204882025718689</v>
       </c>
       <c r="I11" t="n">
-        <v>0.00518705090507865</v>
+        <v>0.000427168735768646</v>
       </c>
       <c r="J11" t="n">
-        <v>0.003200641833245754</v>
+        <v>0.001055819680914283</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0836908221244812</v>
+        <v>0.004518892150372267</v>
       </c>
       <c r="L11" t="n">
-        <v>0.005371956154704094</v>
+        <v>5.413616599980742e-05</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005428236909210682</v>
+        <v>0.002441830700263381</v>
       </c>
       <c r="N11" t="n">
-        <v>0.009261751547455788</v>
+        <v>0.0003105501236859709</v>
       </c>
       <c r="O11" t="n">
-        <v>0.05224160104990005</v>
+        <v>0.005211790557950735</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01177974417805672</v>
+        <v>0.0002105833118548617</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.01274919044226408</v>
+        <v>0.0008983684238046408</v>
       </c>
       <c r="R11" t="n">
-        <v>0.01070921123027802</v>
+        <v>0.0002991127548739314</v>
       </c>
       <c r="S11" t="n">
-        <v>0.006463914643973112</v>
+        <v>0.0003126924275420606</v>
       </c>
       <c r="T11" t="n">
-        <v>0.0004207197343930602</v>
+        <v>0.0006461738958023489</v>
       </c>
       <c r="U11" t="n">
-        <v>0.002013040008023381</v>
+        <v>0.0001409190444974229</v>
       </c>
       <c r="V11" t="n">
-        <v>0.005493474658578634</v>
+        <v>0.000502231705468148</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01506108790636063</v>
+        <v>3.399018169147894e-05</v>
       </c>
       <c r="X11" t="n">
-        <v>0.009017953649163246</v>
+        <v>0.0001746930938679725</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.001522357808426023</v>
+        <v>0.0004847975505981594</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.01505005173385143</v>
+        <v>0.0003261833044234663</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.009461715817451477</v>
+        <v>0.0003096787258982658</v>
       </c>
       <c r="AB11" t="n">
-        <v>0.01356419175863266</v>
+        <v>0.0001532568712718785</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.01000337395817041</v>
+        <v>0.0006179550546221435</v>
       </c>
       <c r="AD11" t="n">
-        <v>0.0009091246174648404</v>
+        <v>0.0001042909716488793</v>
       </c>
       <c r="AE11" t="n">
-        <v>0.004420230630785227</v>
+        <v>0.000202367635210976</v>
       </c>
       <c r="AF11" t="n">
-        <v>0.002741603413596749</v>
+        <v>0.0002447977312840521</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.007451475597918034</v>
+        <v>0.0003383909934200346</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.007245383691042662</v>
+        <v>0.0003440260188654065</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.007641257718205452</v>
+        <v>0.0006969051901251078</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0.01661547087132931</v>
+        <v>6.440110882977024e-05</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.003215348115190864</v>
+        <v>0.0005027535371482372</v>
       </c>
       <c r="AL11" t="n">
-        <v>0.01280266046524048</v>
+        <v>0.0007087499252520502</v>
       </c>
       <c r="AM11" t="n">
-        <v>0.00126564025413245</v>
+        <v>7.649422332178801e-05</v>
       </c>
       <c r="AN11" t="n">
-        <v>0.01023922394961119</v>
+        <v>0.0003385501331649721</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.003616182832047343</v>
+        <v>0.00032455736072734</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.01067269127815962</v>
+        <v>0.0009111293475143611</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.005425774026662111</v>
+        <v>0.000372269656509161</v>
       </c>
       <c r="AR11" t="n">
-        <v>0.004415351431816816</v>
+        <v>0.0002863674890249968</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.004014966543763876</v>
+        <v>0.0006130882538855076</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.007811405695974827</v>
+        <v>0.0003663329989649355</v>
       </c>
       <c r="AU11" t="n">
-        <v>0.0404491201043129</v>
+        <v>0.003140775021165609</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.008173929527401924</v>
+        <v>0.0002355007163714617</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.01079749129712582</v>
+        <v>0.0003120368928648531</v>
       </c>
       <c r="AX11" t="n">
-        <v>0.01302703097462654</v>
+        <v>0.0003478275611996651</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.01992848142981529</v>
+        <v>0.002676234114915133</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.003992619924247265</v>
+        <v>0.0002010850002989173</v>
       </c>
       <c r="BA11" t="n">
-        <v>0.01207329519093037</v>
+        <v>0.001056123292073607</v>
       </c>
       <c r="BB11" t="n">
-        <v>0.003443528898060322</v>
+        <v>0.0004725367471110076</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.004777895286679268</v>
+        <v>0.0003747240989468992</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.0169980488717556</v>
+        <v>0.001205282984301448</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.001636262983083725</v>
+        <v>0.001578013063408434</v>
       </c>
       <c r="BF11" t="n">
-        <v>0.0119376415386796</v>
+        <v>0.001226131687872112</v>
       </c>
       <c r="BG11" t="n">
-        <v>0.003325613448396325</v>
+        <v>0.001518114935606718</v>
       </c>
       <c r="BH11" t="n">
-        <v>0.004301184788346291</v>
+        <v>0.001977124018594623</v>
       </c>
       <c r="BI11" t="n">
-        <v>0.01566148735582829</v>
+        <v>6.632779695792124e-05</v>
       </c>
       <c r="BJ11" t="n">
-        <v>0.005595415830612183</v>
+        <v>0.0007664917502552271</v>
       </c>
       <c r="BK11" t="n">
-        <v>0.01818309910595417</v>
+        <v>0.0001589936582604423</v>
       </c>
       <c r="BL11" t="n">
-        <v>0.002683942904695868</v>
+        <v>4.928155249217525e-05</v>
       </c>
       <c r="BM11" t="n">
-        <v>0.008815625682473183</v>
+        <v>0.001005623838864267</v>
       </c>
       <c r="BN11" t="n">
-        <v>0.00146142125595361</v>
+        <v>0.0005378421628847718</v>
       </c>
       <c r="BO11" t="n">
-        <v>0.004303640220314264</v>
+        <v>0.0006243209354579449</v>
       </c>
       <c r="BP11" t="n">
-        <v>0.008747559040784836</v>
+        <v>1.835173316067085e-05</v>
       </c>
       <c r="BQ11" t="n">
-        <v>0.01883436739444733</v>
+        <v>0.000243386923102662</v>
       </c>
       <c r="BR11" t="n">
-        <v>0.005041409283876419</v>
+        <v>0.0005348414415493608</v>
       </c>
       <c r="BS11" t="n">
-        <v>0.007458345033228397</v>
+        <v>0.0003017080598510802</v>
       </c>
       <c r="BT11" t="n">
-        <v>0.001582652796059847</v>
+        <v>0.0003074767591897398</v>
       </c>
       <c r="BU11" t="n">
-        <v>0.0077936677262187</v>
+        <v>0.0002051927003776655</v>
       </c>
       <c r="BV11" t="n">
-        <v>0.02426992356777191</v>
+        <v>0.001643458963371813</v>
       </c>
       <c r="BW11" t="n">
-        <v>0.001555660739541054</v>
+        <v>0.0005177113926038146</v>
       </c>
       <c r="BX11" t="n">
-        <v>0.003809257876127958</v>
+        <v>0.0002615969569887966</v>
       </c>
       <c r="BY11" t="n">
-        <v>0.008720379322767258</v>
+        <v>0.0001146180366049521</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.02445672079920769</v>
+        <v>0.001207212917506695</v>
       </c>
       <c r="CA11" t="n">
-        <v>0.001528966706246138</v>
+        <v>0.0003873597597703338</v>
       </c>
       <c r="CB11" t="n">
-        <v>0.0007910705171525478</v>
+        <v>0.0006550867110490799</v>
       </c>
       <c r="CC11" t="n">
-        <v>0.003255409188568592</v>
+        <v>0.0003881226584780961</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.003799753496423364</v>
+        <v>3.789267066167668e-05</v>
       </c>
       <c r="CE11" t="n">
-        <v>0.01931997388601303</v>
+        <v>0.0008731656707823277</v>
       </c>
       <c r="CF11" t="n">
-        <v>0.004024435766041279</v>
+        <v>0.0005330834537744522</v>
       </c>
       <c r="CG11" t="n">
-        <v>0.005023218225687742</v>
+        <v>0.000519380031619221</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.001441722735762596</v>
+        <v>0.0002115810493705794</v>
       </c>
       <c r="CI11" t="n">
-        <v>0.007696077693253756</v>
+        <v>0.0008019364322535694</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.00316100986674428</v>
+        <v>0.0002945793094113469</v>
       </c>
       <c r="CK11" t="n">
-        <v>0.000585941772442311</v>
+        <v>0.0002904115826822817</v>
       </c>
       <c r="CL11" t="n">
-        <v>0.0007913543959148228</v>
+        <v>0.0003156090388074517</v>
       </c>
       <c r="CM11" t="n">
-        <v>0.004062042571604252</v>
+        <v>0.0006038019782863557</v>
       </c>
       <c r="CN11" t="n">
-        <v>0.004256920423358679</v>
+        <v>0.0003968884702771902</v>
       </c>
       <c r="CO11" t="n">
-        <v>0.008612346835434437</v>
+        <v>0.0002132508088834584</v>
       </c>
       <c r="CP11" t="n">
-        <v>0.00558805838227272</v>
+        <v>0.0006874068640172482</v>
       </c>
       <c r="CQ11" t="n">
-        <v>0.009041560813784599</v>
+        <v>8.271871774923056e-05</v>
       </c>
       <c r="CR11" t="n">
-        <v>0.008313946425914764</v>
+        <v>8.347931725438684e-06</v>
       </c>
       <c r="CS11" t="n">
-        <v>0.007260200567543507</v>
+        <v>0.0008352546719834208</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0187112782150507</v>
+        <v>0.0008619660511612892</v>
       </c>
       <c r="CU11" t="n">
-        <v>0.0273162703961134</v>
+        <v>0.0001418891188222915</v>
       </c>
       <c r="CV11" t="n">
-        <v>0.00369410403072834</v>
+        <v>8.69761934154667e-05</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.01798806712031364</v>
+        <v>0.000695710361469537</v>
       </c>
       <c r="CX11" t="n">
-        <v>0.001474126009270549</v>
+        <v>0.0005104776355437934</v>
       </c>
       <c r="CY11" t="n">
-        <v>0.006452387198805809</v>
+        <v>0.0007389851380139589</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0001511303707957268</v>
+        <v>0.0002181579184252769</v>
       </c>
       <c r="DA11" t="n">
-        <v>0.006520068272948265</v>
+        <v>0.0008304390939883888</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.003634416032582521</v>
+        <v>0.0002602961321827024</v>
       </c>
       <c r="DC11" t="n">
-        <v>0.0006858148262836039</v>
+        <v>0.0005324828671291471</v>
       </c>
       <c r="DD11" t="n">
-        <v>0.002595335943624377</v>
+        <v>0.0001879077608464286</v>
       </c>
       <c r="DE11" t="n">
-        <v>0.01515117846429348</v>
+        <v>0.0005955984233878553</v>
       </c>
       <c r="DF11" t="n">
-        <v>0.005658334121108055</v>
+        <v>0.0007527697598561645</v>
       </c>
       <c r="DG11" t="n">
-        <v>0.02352432161569595</v>
+        <v>5.974710802547634e-05</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.008230458945035934</v>
+        <v>0.001467964728362858</v>
       </c>
       <c r="DI11" t="n">
-        <v>0.02005677670240402</v>
+        <v>5.465354479383677e-05</v>
       </c>
       <c r="DJ11" t="n">
-        <v>0.006414426025003195</v>
+        <v>0.0001641873823245987</v>
       </c>
       <c r="DK11" t="n">
-        <v>0.009415112435817719</v>
+        <v>0.0005762926884926856</v>
       </c>
       <c r="DL11" t="n">
-        <v>0.00495309429243207</v>
+        <v>0.001226416090503335</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.007411015219986439</v>
+        <v>0.0007429518736898899</v>
       </c>
       <c r="DN11" t="n">
-        <v>0.002598026767373085</v>
+        <v>0.0002560014836490154</v>
       </c>
       <c r="DO11" t="n">
-        <v>6.165169179439545e-05</v>
+        <v>8.62637534737587e-08</v>
       </c>
       <c r="DP11" t="n">
-        <v>0.003992338664829731</v>
+        <v>0.0004651244671549648</v>
       </c>
       <c r="DQ11" t="n">
-        <v>0.004031561315059662</v>
+        <v>0.0004688245244324207</v>
       </c>
       <c r="DR11" t="n">
-        <v>0.00155235268175602</v>
+        <v>0.0003687701828312129</v>
       </c>
       <c r="DS11" t="n">
-        <v>0.002649416215717793</v>
+        <v>0.0005000546807423234</v>
       </c>
       <c r="DT11" t="n">
-        <v>0.002740683034062386</v>
+        <v>0.0002517387038096786</v>
       </c>
       <c r="DU11" t="n">
-        <v>0.005671234801411629</v>
+        <v>3.188270784448832e-05</v>
       </c>
       <c r="DV11" t="n">
-        <v>0.0003114903811365366</v>
+        <v>0.0005561478319577873</v>
       </c>
       <c r="DW11" t="n">
-        <v>0.009290626272559166</v>
+        <v>0.000209439531317912</v>
       </c>
       <c r="DX11" t="n">
-        <v>0.009775789454579353</v>
+        <v>0.0005433417391031981</v>
       </c>
       <c r="DY11" t="n">
-        <v>0.0013240328989923</v>
+        <v>0.0005657065194100142</v>
       </c>
       <c r="DZ11" t="n">
-        <v>0.001612318679690361</v>
+        <v>0.0006102314218878746</v>
       </c>
       <c r="EA11" t="n">
-        <v>0.00836598314344883</v>
+        <v>5.414511542767286e-05</v>
       </c>
       <c r="EB11" t="n">
-        <v>0.006260900758206844</v>
+        <v>0.0001273385278182104</v>
       </c>
       <c r="EC11" t="n">
-        <v>0.008238451555371284</v>
+        <v>2.238495653728023e-05</v>
       </c>
       <c r="ED11" t="n">
-        <v>0.008411030285060406</v>
+        <v>8.819073991617188e-05</v>
       </c>
       <c r="EE11" t="n">
-        <v>0.01014237105846405</v>
+        <v>0.0003969650133512914</v>
       </c>
       <c r="EF11" t="n">
-        <v>0.003474061843007803</v>
+        <v>0.0003613898879848421</v>
       </c>
       <c r="EG11" t="n">
-        <v>0.02572445943951607</v>
+        <v>0.00072232645470649</v>
       </c>
       <c r="EH11" t="n">
-        <v>0.008396902121603489</v>
+        <v>0.000383815640816465</v>
       </c>
       <c r="EI11" t="n">
-        <v>0.00339789385907352</v>
+        <v>0.0001367327786283568</v>
       </c>
       <c r="EJ11" t="n">
-        <v>0.01030314713716507</v>
+        <v>0.0002071508060907945</v>
       </c>
       <c r="EK11" t="n">
-        <v>0.009785614907741547</v>
+        <v>0.0007251693168655038</v>
       </c>
       <c r="EL11" t="n">
-        <v>0.00593260396271944</v>
+        <v>0.0005209033843129873</v>
       </c>
       <c r="EM11" t="n">
-        <v>0.0007081326912157238</v>
+        <v>6.00659623160027e-05</v>
       </c>
       <c r="EN11" t="n">
-        <v>0.007311859168112278</v>
+        <v>2.906526788137853e-06</v>
       </c>
       <c r="EO11" t="n">
-        <v>0.0006220145151019096</v>
+        <v>7.477417238987982e-05</v>
       </c>
       <c r="EP11" t="n">
-        <v>0.009135841391980648</v>
+        <v>0.0004516678163781762</v>
       </c>
       <c r="EQ11" t="n">
-        <v>0.001093267695978284</v>
+        <v>0.0005952842766419053</v>
       </c>
       <c r="ER11" t="n">
-        <v>0.000645540130790323</v>
+        <v>0.0006503678159788251</v>
       </c>
       <c r="ES11" t="n">
-        <v>0.002059017540886998</v>
+        <v>1.026673999149352e-06</v>
       </c>
       <c r="ET11" t="n">
-        <v>0.005370096769183874</v>
+        <v>0.000187156445463188</v>
       </c>
       <c r="EU11" t="n">
-        <v>0.004021388944238424</v>
+        <v>0.0001530516310594976</v>
       </c>
       <c r="EV11" t="n">
-        <v>0.005164661444723606</v>
+        <v>0.0008817645139060915</v>
       </c>
       <c r="EW11" t="n">
-        <v>0.00509535800665617</v>
+        <v>6.419359124265611e-05</v>
       </c>
       <c r="EX11" t="n">
-        <v>0.004688083659857512</v>
+        <v>0.0001467500987928361</v>
       </c>
       <c r="EY11" t="n">
-        <v>0.01720435917377472</v>
+        <v>0.0007164460839703679</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.001676917774602771</v>
+        <v>0.0003635013126768172</v>
       </c>
       <c r="FA11" t="n">
-        <v>0.005832795519381762</v>
+        <v>0.0004876130842603743</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.001465066336095333</v>
+        <v>0.000201707414817065</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.00831359438598156</v>
+        <v>0.0007895848830230534</v>
       </c>
       <c r="FD11" t="n">
-        <v>0.003349410835653543</v>
+        <v>0.0004258113331161439</v>
       </c>
       <c r="FE11" t="n">
-        <v>0.003326056757941842</v>
+        <v>0.000285764952423051</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.0005591765511780977</v>
+        <v>0.0004300661967135966</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.00074849056545645</v>
+        <v>0.0001433791185263544</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.01151558011770248</v>
+        <v>4.357129364507273e-05</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.01011156477034092</v>
+        <v>0.0005327622056938708</v>
       </c>
       <c r="FJ11" t="n">
-        <v>0.0121122170239687</v>
+        <v>0.001154670026153326</v>
       </c>
       <c r="FK11" t="n">
-        <v>0.004821690730750561</v>
+        <v>4.861881461692974e-05</v>
       </c>
       <c r="FL11" t="n">
-        <v>0.001443645916879177</v>
+        <v>0.0007881324272602797</v>
       </c>
       <c r="FM11" t="n">
-        <v>0.0005421891110017896</v>
+        <v>2.900284016504884e-06</v>
       </c>
       <c r="FN11" t="n">
-        <v>0.008692193776369095</v>
+        <v>0.0001668839831836522</v>
       </c>
       <c r="FO11" t="n">
-        <v>0.004842989146709442</v>
+        <v>0.000137298135086894</v>
       </c>
       <c r="FP11" t="n">
-        <v>0.002526720054447651</v>
+        <v>0.0002203737676609308</v>
       </c>
       <c r="FQ11" t="n">
-        <v>0.01078730821609497</v>
+        <v>0.0007544406689703465</v>
       </c>
       <c r="FR11" t="n">
-        <v>0.006925771944224834</v>
+        <v>0.0002527547476347536</v>
       </c>
       <c r="FS11" t="n">
-        <v>0.01717931963503361</v>
+        <v>0.0005587585037574172</v>
       </c>
       <c r="FT11" t="n">
-        <v>0.0009990031830966473</v>
+        <v>0.0009966096840798855</v>
       </c>
       <c r="FU11" t="n">
-        <v>0.02150945737957954</v>
+        <v>0.0008552205981686711</v>
       </c>
       <c r="FV11" t="n">
-        <v>0.002675000112503767</v>
+        <v>0.0001066951517714188</v>
       </c>
       <c r="FW11" t="n">
-        <v>0.003316532587632537</v>
+        <v>5.770373536506668e-05</v>
       </c>
       <c r="FX11" t="n">
-        <v>0.01139111630618572</v>
+        <v>0.0003168726398143917</v>
       </c>
       <c r="FY11" t="n">
-        <v>0.007515402510762215</v>
+        <v>0.0009652373264543712</v>
       </c>
       <c r="FZ11" t="n">
-        <v>0.003371560014784336</v>
+        <v>0.0002652137191034853</v>
       </c>
       <c r="GA11" t="n">
-        <v>0.002213129540905356</v>
+        <v>0.0001784787164069712</v>
       </c>
       <c r="GB11" t="n">
-        <v>0.001304858131334186</v>
+        <v>4.879594780504704e-05</v>
       </c>
       <c r="GC11" t="n">
-        <v>0.001617055851966143</v>
+        <v>0.0003966608783230186</v>
       </c>
       <c r="GD11" t="n">
-        <v>0.00869198702275753</v>
+        <v>0.0008307653479278088</v>
       </c>
       <c r="GE11" t="n">
-        <v>0.004143622238188982</v>
+        <v>0.001853122026659548</v>
       </c>
       <c r="GF11" t="n">
-        <v>0.01183122396469116</v>
+        <v>0.000382137339329347</v>
       </c>
       <c r="GG11" t="n">
-        <v>0.001795872463844717</v>
+        <v>0.0006569940596818924</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.007906629703938961</v>
+        <v>0.005510426592081785</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02732170559465885</v>
+        <v>0.09329134225845337</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0007966502453200519</v>
+        <v>0.009947018697857857</v>
       </c>
       <c r="D12" t="n">
-        <v>0.01675019040703773</v>
+        <v>0.05042727291584015</v>
       </c>
       <c r="E12" t="n">
-        <v>0.002669284585863352</v>
+        <v>0.01108228415250778</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003284900449216366</v>
+        <v>0.004030821844935417</v>
       </c>
       <c r="G12" t="n">
-        <v>0.002298654988408089</v>
+        <v>0.00138486863579601</v>
       </c>
       <c r="H12" t="n">
-        <v>0.002692071022465825</v>
+        <v>0.006479438859969378</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001614507054910064</v>
+        <v>0.005041603930294514</v>
       </c>
       <c r="J12" t="n">
-        <v>0.003968295641243458</v>
+        <v>0.004976511932909489</v>
       </c>
       <c r="K12" t="n">
-        <v>0.02212195657193661</v>
+        <v>0.07748384773731232</v>
       </c>
       <c r="L12" t="n">
-        <v>6.963229679968208e-05</v>
+        <v>0.0005697903106920421</v>
       </c>
       <c r="M12" t="n">
-        <v>0.01648599468171597</v>
+        <v>0.04621487855911255</v>
       </c>
       <c r="N12" t="n">
-        <v>0.005774940829724073</v>
+        <v>0.02003030478954315</v>
       </c>
       <c r="O12" t="n">
-        <v>0.0002628664951771498</v>
+        <v>0.01055300980806351</v>
       </c>
       <c r="P12" t="n">
-        <v>0.003277720650658011</v>
+        <v>0.006472495384514332</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.004253971390426159</v>
+        <v>0.009021233767271042</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0005656641442328691</v>
+        <v>0.001315909554250538</v>
       </c>
       <c r="S12" t="n">
-        <v>0.006029390264302492</v>
+        <v>0.004385418258607388</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0005507791647687554</v>
+        <v>0.01182097382843494</v>
       </c>
       <c r="U12" t="n">
-        <v>0.002042379695922136</v>
+        <v>0.002544512739405036</v>
       </c>
       <c r="V12" t="n">
-        <v>0.004464786499738693</v>
+        <v>0.006165503524243832</v>
       </c>
       <c r="W12" t="n">
-        <v>0.01610232703387737</v>
+        <v>0.005287046078592539</v>
       </c>
       <c r="X12" t="n">
-        <v>0.0007149575394578278</v>
+        <v>0.007279869168996811</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.005644372198730707</v>
+        <v>0.009677874855697155</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.0001231089554494247</v>
+        <v>0.006829326041042805</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.00311865727417171</v>
+        <v>0.007494539022445679</v>
       </c>
       <c r="AB12" t="n">
-        <v>0.006993241608142853</v>
+        <v>0.01341233775019646</v>
       </c>
       <c r="AC12" t="n">
-        <v>0.007756647653877735</v>
+        <v>0.01808596029877663</v>
       </c>
       <c r="AD12" t="n">
-        <v>0.006965191103518009</v>
+        <v>0.001432230114005506</v>
       </c>
       <c r="AE12" t="n">
-        <v>0.005907905288040638</v>
+        <v>0.001674781087785959</v>
       </c>
       <c r="AF12" t="n">
-        <v>0.00163383106701076</v>
+        <v>0.004028851632028818</v>
       </c>
       <c r="AG12" t="n">
-        <v>0.001177007681690156</v>
+        <v>0.001570061431266367</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.003130308352410793</v>
+        <v>0.002716502174735069</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.0007190141477622092</v>
+        <v>0.003171564545482397</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0.002254977123811841</v>
+        <v>0.001606925390660763</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.006618768442422152</v>
+        <v>0.004018381237983704</v>
       </c>
       <c r="AL12" t="n">
-        <v>0.002973226364701986</v>
+        <v>0.009336559101939201</v>
       </c>
       <c r="AM12" t="n">
-        <v>0.00108585599809885</v>
+        <v>0.002751190215349197</v>
       </c>
       <c r="AN12" t="n">
-        <v>0.002824620809406042</v>
+        <v>0.001723401248455048</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.001236835611052811</v>
+        <v>0.01085888873785734</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.002722505712881684</v>
+        <v>0.008360942825675011</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.0006549426470883191</v>
+        <v>0.004526000004261732</v>
       </c>
       <c r="AR12" t="n">
-        <v>0.001877831993624568</v>
+        <v>0.00238511641509831</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.001572902197949588</v>
+        <v>0.001692310906946659</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.01361100468784571</v>
+        <v>0.01194494031369686</v>
       </c>
       <c r="AU12" t="n">
-        <v>0.02149137109518051</v>
+        <v>0.06366920471191406</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.001222949707880616</v>
+        <v>0.001106286188587546</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.001416672021150589</v>
+        <v>0.02119720540940762</v>
       </c>
       <c r="AX12" t="n">
-        <v>0.004211945459246635</v>
+        <v>0.008561752736568451</v>
       </c>
       <c r="AY12" t="n">
-        <v>0.001132788835093379</v>
+        <v>0.001578460680320859</v>
       </c>
       <c r="AZ12" t="n">
-        <v>0.002756197471171618</v>
+        <v>0.007606068160384893</v>
       </c>
       <c r="BA12" t="n">
-        <v>0.006376135163009167</v>
+        <v>0.001246029627509415</v>
       </c>
       <c r="BB12" t="n">
-        <v>0.0005048083839938045</v>
+        <v>0.0005316140595823526</v>
       </c>
       <c r="BC12" t="n">
-        <v>0.003005558392032981</v>
+        <v>0.006323751993477345</v>
       </c>
       <c r="BD12" t="n">
-        <v>0.002809909172356129</v>
+        <v>0.02106619812548161</v>
       </c>
       <c r="BE12" t="n">
-        <v>0.0001573383342474699</v>
+        <v>0.01823469623923302</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.00883951410651207</v>
+        <v>0.005276470445096493</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.003979005385190248</v>
+        <v>0.01410461775958538</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.002226259559392929</v>
+        <v>0.009308791719377041</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.002832102589309216</v>
+        <v>0.005025764927268028</v>
       </c>
       <c r="BJ12" t="n">
-        <v>0.0001122014655265957</v>
+        <v>0.009741204790771008</v>
       </c>
       <c r="BK12" t="n">
-        <v>0.004233889281749725</v>
+        <v>0.003786545712500811</v>
       </c>
       <c r="BL12" t="n">
-        <v>0.003050809260457754</v>
+        <v>0.008870159275829792</v>
       </c>
       <c r="BM12" t="n">
-        <v>0.002973214723169804</v>
+        <v>0.01688456907868385</v>
       </c>
       <c r="BN12" t="n">
-        <v>0.001028312486596406</v>
+        <v>0.01345579512417316</v>
       </c>
       <c r="BO12" t="n">
-        <v>0.005474823527038097</v>
+        <v>0.0002718750620260835</v>
       </c>
       <c r="BP12" t="n">
-        <v>0.001388695207424462</v>
+        <v>0.01360259857028723</v>
       </c>
       <c r="BQ12" t="n">
-        <v>0.003187086433172226</v>
+        <v>0.007101551629602909</v>
       </c>
       <c r="BR12" t="n">
-        <v>0.0004757596761919558</v>
+        <v>0.003480667714029551</v>
       </c>
       <c r="BS12" t="n">
-        <v>0.002488356316462159</v>
+        <v>0.003462575376033783</v>
       </c>
       <c r="BT12" t="n">
-        <v>0.0003889932704623789</v>
+        <v>0.004636130295693874</v>
       </c>
       <c r="BU12" t="n">
-        <v>0.008829792030155659</v>
+        <v>0.007551637012511492</v>
       </c>
       <c r="BV12" t="n">
-        <v>0.006205671932548285</v>
+        <v>0.0341658927500248</v>
       </c>
       <c r="BW12" t="n">
-        <v>0.0001820583129301667</v>
+        <v>0.01096842903643847</v>
       </c>
       <c r="BX12" t="n">
-        <v>0.00541352154687047</v>
+        <v>0.01442340202629566</v>
       </c>
       <c r="BY12" t="n">
-        <v>0.00884542427957058</v>
+        <v>0.005001981277018785</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.0002250010002171621</v>
+        <v>0.008469297550618649</v>
       </c>
       <c r="CA12" t="n">
-        <v>0.0001265712344320491</v>
+        <v>0.003752910764887929</v>
       </c>
       <c r="CB12" t="n">
-        <v>0.0008413047762587667</v>
+        <v>0.003258571494370699</v>
       </c>
       <c r="CC12" t="n">
-        <v>0.002328100614249706</v>
+        <v>0.006939182989299297</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.0001307252387050539</v>
+        <v>0.001366201904602349</v>
       </c>
       <c r="CE12" t="n">
-        <v>0.006318316329270601</v>
+        <v>0.01437871810048819</v>
       </c>
       <c r="CF12" t="n">
-        <v>0.0007382684852927923</v>
+        <v>0.005447277799248695</v>
       </c>
       <c r="CG12" t="n">
-        <v>0.003385362448170781</v>
+        <v>0.004781662952154875</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.002857141429558396</v>
+        <v>0.004711605142802</v>
       </c>
       <c r="CI12" t="n">
-        <v>0.0002055896620731801</v>
+        <v>0.0009527226211503148</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0004507458070293069</v>
+        <v>0.0027666836977005</v>
       </c>
       <c r="CK12" t="n">
-        <v>0.001631395542062819</v>
+        <v>0.0006274195038713515</v>
       </c>
       <c r="CL12" t="n">
-        <v>0.000212162165553309</v>
+        <v>0.002447302918881178</v>
       </c>
       <c r="CM12" t="n">
-        <v>0.0003168222028762102</v>
+        <v>0.02223973907530308</v>
       </c>
       <c r="CN12" t="n">
-        <v>0.005337528418749571</v>
+        <v>0.01299038343131542</v>
       </c>
       <c r="CO12" t="n">
-        <v>0.0002736554015427828</v>
+        <v>0.0001699734712019563</v>
       </c>
       <c r="CP12" t="n">
-        <v>0.003608108730986714</v>
+        <v>0.01339750178158283</v>
       </c>
       <c r="CQ12" t="n">
-        <v>0.01454591937363148</v>
+        <v>0.01563718728721142</v>
       </c>
       <c r="CR12" t="n">
-        <v>0.002712648594751954</v>
+        <v>0.006367440335452557</v>
       </c>
       <c r="CS12" t="n">
-        <v>0.002055248711258173</v>
+        <v>0.008797099813818932</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.00229207263328135</v>
+        <v>0.01704391837120056</v>
       </c>
       <c r="CU12" t="n">
-        <v>0.001931384555064142</v>
+        <v>1.992413308471441e-05</v>
       </c>
       <c r="CV12" t="n">
-        <v>4.144234117120504e-05</v>
+        <v>0.000130677450215444</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.006990205962210894</v>
+        <v>0.01333670504391193</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0004983750404790044</v>
+        <v>0.006618223153054714</v>
       </c>
       <c r="CY12" t="n">
-        <v>0.002731144893914461</v>
+        <v>0.008352503180503845</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.003018427174538374</v>
+        <v>0.005336293019354343</v>
       </c>
       <c r="DA12" t="n">
-        <v>0.0001673064398346469</v>
+        <v>0.001825136132538319</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.0006075925193727016</v>
+        <v>0.001690038247033954</v>
       </c>
       <c r="DC12" t="n">
-        <v>0.001494602998718619</v>
+        <v>0.00110452645458281</v>
       </c>
       <c r="DD12" t="n">
-        <v>0.0008510155603289604</v>
+        <v>0.0007873032009229064</v>
       </c>
       <c r="DE12" t="n">
-        <v>0.004826596938073635</v>
+        <v>0.01121767051517963</v>
       </c>
       <c r="DF12" t="n">
-        <v>0.014388807117939</v>
+        <v>0.01044500339776278</v>
       </c>
       <c r="DG12" t="n">
-        <v>0.0001793741248548031</v>
+        <v>0.003189325099810958</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.006640702951699495</v>
+        <v>0.03043602965772152</v>
       </c>
       <c r="DI12" t="n">
-        <v>0.001719253952614963</v>
+        <v>0.005430189892649651</v>
       </c>
       <c r="DJ12" t="n">
-        <v>0.004286299459636211</v>
+        <v>0.002094464609399438</v>
       </c>
       <c r="DK12" t="n">
-        <v>0.00368415005505085</v>
+        <v>0.004681095946580172</v>
       </c>
       <c r="DL12" t="n">
-        <v>0.006477877963334322</v>
+        <v>0.01087282132357359</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.003243042854592204</v>
+        <v>0.004160908982157707</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.0009840799029916525</v>
+        <v>0.005294010043144226</v>
       </c>
       <c r="DO12" t="n">
-        <v>0.001444379100576043</v>
+        <v>0.007048522587865591</v>
       </c>
       <c r="DP12" t="n">
-        <v>0.001962828449904919</v>
+        <v>0.00670186709612608</v>
       </c>
       <c r="DQ12" t="n">
-        <v>0.002140473341569304</v>
+        <v>0.006958747748285532</v>
       </c>
       <c r="DR12" t="n">
-        <v>0.008072082884609699</v>
+        <v>0.01185918506234884</v>
       </c>
       <c r="DS12" t="n">
-        <v>0.0004075884353369474</v>
+        <v>0.003915718756616116</v>
       </c>
       <c r="DT12" t="n">
-        <v>0.001915003638714552</v>
+        <v>0.004325337707996368</v>
       </c>
       <c r="DU12" t="n">
-        <v>0.003463735105469823</v>
+        <v>0.004044919274747372</v>
       </c>
       <c r="DV12" t="n">
-        <v>0.001575108035467565</v>
+        <v>0.0009409270714968443</v>
       </c>
       <c r="DW12" t="n">
-        <v>0.0009950143285095692</v>
+        <v>0.005952424835413694</v>
       </c>
       <c r="DX12" t="n">
-        <v>0.00397571874782443</v>
+        <v>0.01817683316767216</v>
       </c>
       <c r="DY12" t="n">
-        <v>0.001927552046254277</v>
+        <v>0.0003704591654241085</v>
       </c>
       <c r="DZ12" t="n">
-        <v>0.005104412790387869</v>
+        <v>0.005325073841959238</v>
       </c>
       <c r="EA12" t="n">
-        <v>0.004089235328137875</v>
+        <v>0.01354740746319294</v>
       </c>
       <c r="EB12" t="n">
-        <v>0.0007147810538299382</v>
+        <v>0.005233506672084332</v>
       </c>
       <c r="EC12" t="n">
-        <v>0.001720265834592283</v>
+        <v>0.002734176814556122</v>
       </c>
       <c r="ED12" t="n">
-        <v>0.0009411130449734628</v>
+        <v>0.0004377456207294017</v>
       </c>
       <c r="EE12" t="n">
-        <v>0.001245093066245317</v>
+        <v>0.00236194278113544</v>
       </c>
       <c r="EF12" t="n">
-        <v>0.004740376025438309</v>
+        <v>0.0003473362885415554</v>
       </c>
       <c r="EG12" t="n">
-        <v>0.004700878635048866</v>
+        <v>0.007652141619473696</v>
       </c>
       <c r="EH12" t="n">
-        <v>0.002539823763072491</v>
+        <v>0.004250180907547474</v>
       </c>
       <c r="EI12" t="n">
-        <v>0.004047888331115246</v>
+        <v>0.008549162186682224</v>
       </c>
       <c r="EJ12" t="n">
-        <v>0.003597572445869446</v>
+        <v>0.005740328691899776</v>
       </c>
       <c r="EK12" t="n">
-        <v>0.0008414573385380208</v>
+        <v>0.001358168898150325</v>
       </c>
       <c r="EL12" t="n">
-        <v>0.003231528215110302</v>
+        <v>0.001705510658212006</v>
       </c>
       <c r="EM12" t="n">
-        <v>0.0009696694323793054</v>
+        <v>0.002936766482889652</v>
       </c>
       <c r="EN12" t="n">
-        <v>0.002080447738990188</v>
+        <v>0.0006523196934722364</v>
       </c>
       <c r="EO12" t="n">
-        <v>0.001966137439012527</v>
+        <v>0.005699157249182463</v>
       </c>
       <c r="EP12" t="n">
-        <v>0.003495178883895278</v>
+        <v>0.009747969917953014</v>
       </c>
       <c r="EQ12" t="n">
-        <v>0.003163497662171721</v>
+        <v>0.009169307537376881</v>
       </c>
       <c r="ER12" t="n">
-        <v>0.003809950314462185</v>
+        <v>0.003807343076914549</v>
       </c>
       <c r="ES12" t="n">
-        <v>0.000713006651494652</v>
+        <v>0.006764834746718407</v>
       </c>
       <c r="ET12" t="n">
-        <v>7.045868551358581e-05</v>
+        <v>0.00582722807303071</v>
       </c>
       <c r="EU12" t="n">
-        <v>0.002073102165013552</v>
+        <v>0.004157469142228365</v>
       </c>
       <c r="EV12" t="n">
-        <v>0.001885392935946584</v>
+        <v>0.007377252448350191</v>
       </c>
       <c r="EW12" t="n">
-        <v>0.001496246317401528</v>
+        <v>0.00130371970590204</v>
       </c>
       <c r="EX12" t="n">
-        <v>0.0005003822152502835</v>
+        <v>0.003294242080301046</v>
       </c>
       <c r="EY12" t="n">
-        <v>0.005899443291127682</v>
+        <v>0.01343061495572329</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.0009527906659059227</v>
+        <v>0.004251564387232065</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.002276265295222402</v>
+        <v>0.005719059146940708</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.003247534856200218</v>
+        <v>0.002344839042052627</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.0002812987077049911</v>
+        <v>0.003480829298496246</v>
       </c>
       <c r="FD12" t="n">
-        <v>0.001355276093818247</v>
+        <v>0.002922152867540717</v>
       </c>
       <c r="FE12" t="n">
-        <v>0.002007693750783801</v>
+        <v>0.0007329400395974517</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.0004430622502695769</v>
+        <v>0.002624370157718658</v>
       </c>
       <c r="FG12" t="n">
-        <v>0.005869990214705467</v>
+        <v>0.001774474047124386</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.003388603217899799</v>
+        <v>0.008504859171807766</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.004374607466161251</v>
+        <v>0.00167634675744921</v>
       </c>
       <c r="FJ12" t="n">
-        <v>0.002771983621641994</v>
+        <v>0.00999092310667038</v>
       </c>
       <c r="FK12" t="n">
-        <v>0.00241131242364645</v>
+        <v>0.006788793485611677</v>
       </c>
       <c r="FL12" t="n">
-        <v>0.000108711450593546</v>
+        <v>0.008886865340173244</v>
       </c>
       <c r="FM12" t="n">
-        <v>0.003677075961604714</v>
+        <v>0.008244297467172146</v>
       </c>
       <c r="FN12" t="n">
-        <v>5.52208221051842e-05</v>
+        <v>0.0006642674561589956</v>
       </c>
       <c r="FO12" t="n">
-        <v>0.005565925035625696</v>
+        <v>0.004067531786859035</v>
       </c>
       <c r="FP12" t="n">
-        <v>0.0006362469866871834</v>
+        <v>0.004917293787002563</v>
       </c>
       <c r="FQ12" t="n">
-        <v>0.002009613439440727</v>
+        <v>0.008686980232596397</v>
       </c>
       <c r="FR12" t="n">
-        <v>8.829729631543159e-05</v>
+        <v>0.005340005736798048</v>
       </c>
       <c r="FS12" t="n">
-        <v>0.01468769740313292</v>
+        <v>0.006890604272484779</v>
       </c>
       <c r="FT12" t="n">
-        <v>0.004458453040570021</v>
+        <v>0.003124730195850134</v>
       </c>
       <c r="FU12" t="n">
-        <v>0.001787461806088686</v>
+        <v>0.002313935663551092</v>
       </c>
       <c r="FV12" t="n">
-        <v>0.0006737577496096492</v>
+        <v>0.003345965640619397</v>
       </c>
       <c r="FW12" t="n">
-        <v>0.001837094780057669</v>
+        <v>0.0007079248898662627</v>
       </c>
       <c r="FX12" t="n">
-        <v>0.0005684987409040332</v>
+        <v>0.004049004055559635</v>
       </c>
       <c r="FY12" t="n">
-        <v>0.00212183827534318</v>
+        <v>0.01102720480412245</v>
       </c>
       <c r="FZ12" t="n">
-        <v>0.005776017904281616</v>
+        <v>0.005179624073207378</v>
       </c>
       <c r="GA12" t="n">
-        <v>0.00614545401185751</v>
+        <v>0.00177528930362314</v>
       </c>
       <c r="GB12" t="n">
-        <v>0.002405742881819606</v>
+        <v>0.0005802009254693985</v>
       </c>
       <c r="GC12" t="n">
-        <v>0.004861034452915192</v>
+        <v>0.00167127326130867</v>
       </c>
       <c r="GD12" t="n">
-        <v>0.0005845420528203249</v>
+        <v>0.01191873382776976</v>
       </c>
       <c r="GE12" t="n">
-        <v>0.00378355709835887</v>
+        <v>0.0152111891657114</v>
       </c>
       <c r="GF12" t="n">
-        <v>0.004195925313979387</v>
+        <v>0.001198180485516787</v>
       </c>
       <c r="GG12" t="n">
-        <v>0.001124924048781395</v>
+        <v>0.0001345678465440869</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.7980043888092041</v>
+        <v>0.01050173491239548</v>
       </c>
       <c r="B13" t="n">
-        <v>0.00310688279569149</v>
+        <v>0.0007564560510218143</v>
       </c>
       <c r="C13" t="n">
-        <v>0.02006334066390991</v>
+        <v>0.002514334861189127</v>
       </c>
       <c r="D13" t="n">
-        <v>1.483054399490356</v>
+        <v>0.006291531026363373</v>
       </c>
       <c r="E13" t="n">
-        <v>0.07714734971523285</v>
+        <v>0.001747955684550107</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08627521991729736</v>
+        <v>0.002598877297714353</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5893001556396484</v>
+        <v>0.001549510518088937</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1827054023742676</v>
+        <v>0.001066891360096633</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2674883008003235</v>
+        <v>0.0003503976913634688</v>
       </c>
       <c r="J13" t="n">
-        <v>0.4966591894626617</v>
+        <v>0.009214379824697971</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2859188914299011</v>
+        <v>0.0008370316354557872</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2355461418628693</v>
+        <v>0.003069570288062096</v>
       </c>
       <c r="M13" t="n">
-        <v>1.350181341171265</v>
+        <v>0.002464102115482092</v>
       </c>
       <c r="N13" t="n">
-        <v>0.1877158880233765</v>
+        <v>0.0023857899941504</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5440265536308289</v>
+        <v>0.0004881910281255841</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4027425348758698</v>
+        <v>0.000277721497695893</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8035219311714172</v>
+        <v>0.0012892090016976</v>
       </c>
       <c r="R13" t="n">
-        <v>0.2605564594268799</v>
+        <v>0.0007166711729951203</v>
       </c>
       <c r="S13" t="n">
-        <v>0.04681740701198578</v>
+        <v>0.001464126631617546</v>
       </c>
       <c r="T13" t="n">
-        <v>0.002670310437679291</v>
+        <v>0.0022189577575773</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03360897302627563</v>
+        <v>0.001025112578645349</v>
       </c>
       <c r="V13" t="n">
-        <v>0.1017880216240883</v>
+        <v>0.0001962576352525502</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3077031075954437</v>
+        <v>0.0009395908564329147</v>
       </c>
       <c r="X13" t="n">
-        <v>0.08567497879266739</v>
+        <v>0.0003293401678092778</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2347611486911774</v>
+        <v>9.469993528909981e-05</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.1794457137584686</v>
+        <v>0.001664177631027997</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.05284930765628815</v>
+        <v>0.0003784531727433205</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.1206909567117691</v>
+        <v>0.001051105558872223</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.1123591661453247</v>
+        <v>0.002359914127737284</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.15684874355793</v>
+        <v>0.0006234904285520315</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.3261222243309021</v>
+        <v>0.0005378745263442397</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.003063958138227463</v>
+        <v>0.001049193437211215</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.3144531548023224</v>
+        <v>0.0007288622437044978</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.3754164576530457</v>
+        <v>0.0004736215341836214</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1991987526416779</v>
+        <v>0.0008894946076907218</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.1448434293270111</v>
+        <v>0.0006562877679243684</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.2768847942352295</v>
+        <v>0.001467940048314631</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.203010231256485</v>
+        <v>4.080065991729498e-05</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.03652426227927208</v>
+        <v>0.0004609531897585839</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.3046272993087769</v>
+        <v>0.001056008390150964</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.1461004614830017</v>
+        <v>0.001367094460874796</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.3586424291133881</v>
+        <v>0.0005880944081582129</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.04570029303431511</v>
+        <v>0.001289719948545098</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.4553323090076447</v>
+        <v>0.001265030237846076</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.009630344808101654</v>
+        <v>0.0005803233361802995</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.3348743319511414</v>
+        <v>0.006621968001127243</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.1127598807215691</v>
+        <v>0.002152825240045786</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.0523977130651474</v>
+        <v>0.002807668410241604</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.6781903505325317</v>
+        <v>0.003620513714849949</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.06298802047967911</v>
+        <v>0.002346037654206157</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.3243824243545532</v>
+        <v>0.0005687958328053355</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.3633486330509186</v>
+        <v>0.0005854620831087232</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.2781329751014709</v>
+        <v>0.002310347277671099</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.2700473964214325</v>
+        <v>0.0009105396457016468</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.3296568989753723</v>
+        <v>0.004249491728842258</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.05049462616443634</v>
+        <v>0.005419149063527584</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.08241535723209381</v>
+        <v>0.0004468848346732557</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.4884039163589478</v>
+        <v>0.0004702541045844555</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.1336879879236221</v>
+        <v>0.001683171256445348</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.2911699712276459</v>
+        <v>8.659108425490558e-05</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.5401582717895508</v>
+        <v>0.0005397822242230177</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.5785898566246033</v>
+        <v>0.002560549648478627</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.2127883732318878</v>
+        <v>0.001679806970059872</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.04836475104093552</v>
+        <v>0.0005769968265667558</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0452885814011097</v>
+        <v>0.002488788682967424</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.05655861645936966</v>
+        <v>0.0004808885860256851</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.1632773876190186</v>
+        <v>0.0005625608027912676</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.03311916068196297</v>
+        <v>0.0005804807879030704</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.1431063264608383</v>
+        <v>0.0009372135391458869</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.05622079968452454</v>
+        <v>0.001105583622120321</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.2174757570028305</v>
+        <v>0.0004598313244059682</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.0745670422911644</v>
+        <v>0.0008401621598750353</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.338683009147644</v>
+        <v>0.002869532443583012</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.0969032496213913</v>
+        <v>0.0001035601308103651</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.1728839874267578</v>
+        <v>0.001123433234170079</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.3069287538528442</v>
+        <v>0.001537587959319353</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.03509730100631714</v>
+        <v>0.0002346262917853892</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.02735940366983414</v>
+        <v>0.0003938801819458604</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.03018537908792496</v>
+        <v>0.0005229492671787739</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.07692517340183258</v>
+        <v>0.001637814682908356</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.4325339794158936</v>
+        <v>0.0004193983040750027</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.1476801037788391</v>
+        <v>0.002023672219365835</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.06347719579935074</v>
+        <v>0.001502062194049358</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.04148954525589943</v>
+        <v>5.420617526397109e-06</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.2577519714832306</v>
+        <v>0.0005768678965978324</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.01621504127979279</v>
+        <v>0.0001066087206709199</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.08016208559274673</v>
+        <v>0.001405467046424747</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.09461034089326859</v>
+        <v>2.576404949650168e-05</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.06137858331203461</v>
+        <v>0.001214729738421738</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.127806693315506</v>
+        <v>0.0002063660213025287</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.1595111489295959</v>
+        <v>0.002516514156013727</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.06342277675867081</v>
+        <v>0.000830874138046056</v>
       </c>
       <c r="CO13" t="n">
-        <v>0.0434861071407795</v>
+        <v>0.0001003705838229507</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.3142878413200378</v>
+        <v>0.002274278784170747</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.1584634631872177</v>
+        <v>0.003113775048404932</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.4066934883594513</v>
+        <v>0.0007869007531553507</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.3560896515846252</v>
+        <v>0.002240808680653572</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.3348560631275177</v>
+        <v>0.003861335106194019</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.3604306876659393</v>
+        <v>0.0009505163179710507</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.1407967060804367</v>
+        <v>0.001506694359704852</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.07863463461399078</v>
+        <v>0.00176537421066314</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.04827950894832611</v>
+        <v>0.0001734806864988059</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.1798141747713089</v>
+        <v>0.0007190221804194152</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.02563528716564178</v>
+        <v>0.0001112302634282969</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.1322479695081711</v>
+        <v>0.00106937694363296</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.08931514620780945</v>
+        <v>0.0001792673720046878</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.03532658517360687</v>
+        <v>0.0009158776374533772</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.081815205514431</v>
+        <v>0.000179326074430719</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.0546913780272007</v>
+        <v>0.001201523235067725</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.1813017427921295</v>
+        <v>0.002134585753083229</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.06638672947883606</v>
+        <v>0.002912910189479589</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.2511263787746429</v>
+        <v>0.00364292087033391</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.8291019201278687</v>
+        <v>0.0005140498396940529</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.06872132420539856</v>
+        <v>0.0006665245746262372</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.1686412841081619</v>
+        <v>0.001025411416776478</v>
       </c>
       <c r="DL13" t="n">
-        <v>0.3449321091175079</v>
+        <v>0.004379014018923044</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.2119806855916977</v>
+        <v>0.0008872740436345339</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.05410235747694969</v>
+        <v>0.0009116295841522515</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.1144059374928474</v>
+        <v>0.0002309531555511057</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.06525615602731705</v>
+        <v>0.0007855809526517987</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.03627528995275497</v>
+        <v>0.0009535087738186121</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.0710759237408638</v>
+        <v>0.00235738349147141</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.1213569939136505</v>
+        <v>0.0008419759687967598</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.163001760840416</v>
+        <v>0.0008136490359902382</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.1515829861164093</v>
+        <v>0.0003393536317162216</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.004605942405760288</v>
+        <v>0.001362241921015084</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.07788532227277756</v>
+        <v>0.00203878921456635</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.03431329131126404</v>
+        <v>0.001487813657149673</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.08899518102407455</v>
+        <v>0.000370398658560589</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.06269025802612305</v>
+        <v>0.0009201281936839223</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.2069532871246338</v>
+        <v>0.001044851611368358</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.2467709481716156</v>
+        <v>0.0006370110204443336</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.06425458192825317</v>
+        <v>0.0003040885785594583</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.1403027474880219</v>
+        <v>0.0001836243900470436</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.01066463068127632</v>
+        <v>0.0006637233309447765</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.2836650609970093</v>
+        <v>0.0019664925057441</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.03264228999614716</v>
+        <v>0.002301768166944385</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.05243732035160065</v>
+        <v>0.001227330649271607</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.2712391912937164</v>
+        <v>0.00244476180523634</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.009716331958770752</v>
+        <v>0.002473931992426515</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.1317211091518402</v>
+        <v>0.0005324967205524445</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.03948548063635826</v>
+        <v>0.0001218881370732561</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.1079525053501129</v>
+        <v>0.0002504348813090473</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.04953353106975555</v>
+        <v>0.0002731033600866795</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.1015509814023972</v>
+        <v>0.0001233993680216372</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.02887651324272156</v>
+        <v>0.003386748488992453</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.2005178332328796</v>
+        <v>0.0007054522284306586</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.06868128478527069</v>
+        <v>0.0001350081292912364</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.03742764890193939</v>
+        <v>9.860075078904629e-05</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.1520811468362808</v>
+        <v>0.001453239237889647</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.1266476809978485</v>
+        <v>0.0009384283912368119</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.02239631116390228</v>
+        <v>0.0004458822368178517</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.1004043146967888</v>
+        <v>0.00206280592828989</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.1435591578483582</v>
+        <v>0.001645014039240777</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.05124963447451591</v>
+        <v>0.001769150258041918</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.07183972001075745</v>
+        <v>0.0003448915667831898</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.1989971548318863</v>
+        <v>0.0006347264861688018</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.0416286513209343</v>
+        <v>0.0001528508437331766</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.00872361846268177</v>
+        <v>0.001107720891013741</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.08183664828538895</v>
+        <v>0.0002022648986894637</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.07748282700777054</v>
+        <v>0.001024747616611421</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.01103802025318146</v>
+        <v>0.0002846250717993826</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.1928252130746841</v>
+        <v>0.0002588019124232233</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.01272888481616974</v>
+        <v>0.002448909683153033</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.07180545479059219</v>
+        <v>0.002487952820956707</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.3437291979789734</v>
+        <v>0.0004698792472481728</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.1629293709993362</v>
+        <v>0.0009604080696590245</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.2649442553520203</v>
+        <v>0.00254782335832715</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.1174326688051224</v>
+        <v>0.001312646549195051</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.1598501056432724</v>
+        <v>0.0006549263489432633</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.05043899640440941</v>
+        <v>0.0008791880682110786</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.07117187231779099</v>
+        <v>0.001450680661946535</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.1305847316980362</v>
+        <v>0.001101318397559226</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.1051631644368172</v>
+        <v>0.001704101450741291</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.3427787721157074</v>
+        <v>0.001851035747677088</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.1996064037084579</v>
+        <v>0.002833271631971002</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.3693662881851196</v>
+        <v>0.002354091266170144</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.09129124879837036</v>
+        <v>0.001280519179999828</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.3204203844070435</v>
+        <v>0.0003927809884771705</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.1640918254852295</v>
+        <v>0.0005421803798526525</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.1356659531593323</v>
+        <v>0.00100234616547823</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.1770693808794022</v>
+        <v>1.22649798868224e-05</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.03911148011684418</v>
+        <v>5.170120857656002e-06</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.04420056194067001</v>
+        <v>0.0001564878039062023</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.2185574471950531</v>
+        <v>0.001227733679115772</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.1873518228530884</v>
+        <v>0.0002073278010357171</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.1345090866088867</v>
+        <v>0.0009955022251233459</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.0939335823059082</v>
+        <v>0.0004263925948180258</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.0004851929843425751</v>
+        <v>0.001087187556549907</v>
       </c>
     </row>
     <row r="14">
@@ -8970,571 +8970,571 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1.853085086622741e-05</v>
+        <v>2.934546827759732e-09</v>
       </c>
       <c r="B16" t="n">
-        <v>1.125268227042397e-05</v>
+        <v>2.484724603846189e-08</v>
       </c>
       <c r="C16" t="n">
-        <v>1.625176992092747e-06</v>
+        <v>3.654305080758036e-09</v>
       </c>
       <c r="D16" t="n">
-        <v>1.241398058482446e-05</v>
+        <v>4.965550459701262e-08</v>
       </c>
       <c r="E16" t="n">
-        <v>7.906964128778782e-06</v>
+        <v>9.318380733702725e-09</v>
       </c>
       <c r="F16" t="n">
-        <v>3.903426659235265e-06</v>
+        <v>3.053773411920702e-08</v>
       </c>
       <c r="G16" t="n">
-        <v>1.074228930519894e-05</v>
+        <v>1.115397640916171e-08</v>
       </c>
       <c r="H16" t="n">
-        <v>7.338624641306524e-08</v>
+        <v>2.112722441438564e-08</v>
       </c>
       <c r="I16" t="n">
-        <v>5.809020422020694e-06</v>
+        <v>1.477547506567589e-08</v>
       </c>
       <c r="J16" t="n">
-        <v>1.678398984950036e-05</v>
+        <v>2.179082470021854e-09</v>
       </c>
       <c r="K16" t="n">
-        <v>9.419149137102067e-06</v>
+        <v>2.177339375464271e-08</v>
       </c>
       <c r="L16" t="n">
-        <v>6.275128043853329e-07</v>
+        <v>3.351003474705294e-09</v>
       </c>
       <c r="M16" t="n">
-        <v>1.232133581652306e-05</v>
+        <v>2.855500369491892e-08</v>
       </c>
       <c r="N16" t="n">
-        <v>1.023489312501624e-05</v>
+        <v>1.745809186104452e-08</v>
       </c>
       <c r="O16" t="n">
-        <v>7.901164167378738e-07</v>
+        <v>1.144837202815552e-08</v>
       </c>
       <c r="P16" t="n">
-        <v>1.090041223505978e-05</v>
+        <v>3.871361453633426e-09</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.912551624627667e-06</v>
+        <v>1.294340634672153e-09</v>
       </c>
       <c r="R16" t="n">
-        <v>7.75657008489361e-06</v>
+        <v>3.312181640069412e-10</v>
       </c>
       <c r="S16" t="n">
-        <v>6.609243996535952e-07</v>
+        <v>5.793754920269123e-10</v>
       </c>
       <c r="T16" t="n">
-        <v>1.514660880275187e-06</v>
+        <v>1.122864823344116e-08</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91756225831341e-06</v>
+        <v>9.890246399635316e-10</v>
       </c>
       <c r="V16" t="n">
-        <v>1.497540438322176e-06</v>
+        <v>3.717997021368546e-09</v>
       </c>
       <c r="W16" t="n">
-        <v>1.098833877222205e-07</v>
+        <v>1.794469639548879e-08</v>
       </c>
       <c r="X16" t="n">
-        <v>5.298197152114881e-07</v>
+        <v>7.41405425941366e-09</v>
       </c>
       <c r="Y16" t="n">
-        <v>1.6480515796502e-06</v>
+        <v>1.15265121891639e-08</v>
       </c>
       <c r="Z16" t="n">
-        <v>4.846332558372524e-06</v>
+        <v>2.505144536257831e-09</v>
       </c>
       <c r="AA16" t="n">
-        <v>1.571132997923996e-06</v>
+        <v>1.326298981751961e-08</v>
       </c>
       <c r="AB16" t="n">
-        <v>6.945915629330557e-07</v>
+        <v>1.521651071811903e-08</v>
       </c>
       <c r="AC16" t="n">
-        <v>1.962749820449972e-06</v>
+        <v>2.07661603468523e-08</v>
       </c>
       <c r="AD16" t="n">
-        <v>4.878519348494592e-07</v>
+        <v>1.257094606188502e-08</v>
       </c>
       <c r="AE16" t="n">
-        <v>1.467125684939674e-06</v>
+        <v>9.948091239664336e-10</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.646655164222466e-06</v>
+        <v>1.720969922125448e-09</v>
       </c>
       <c r="AG16" t="n">
-        <v>4.273343620297965e-06</v>
+        <v>6.890274573123634e-09</v>
       </c>
       <c r="AH16" t="n">
-        <v>4.282321697246516e-08</v>
+        <v>1.310488872974247e-08</v>
       </c>
       <c r="AI16" t="n">
-        <v>5.657629117195029e-06</v>
+        <v>5.706243033642977e-09</v>
       </c>
       <c r="AJ16" t="n">
-        <v>1.063025592884514e-06</v>
+        <v>2.381240316040589e-09</v>
       </c>
       <c r="AK16" t="n">
-        <v>3.959728928748518e-06</v>
+        <v>7.378169630811726e-09</v>
       </c>
       <c r="AL16" t="n">
-        <v>2.585280753919506e-06</v>
+        <v>6.972078914202484e-09</v>
       </c>
       <c r="AM16" t="n">
-        <v>8.159212256941828e-07</v>
+        <v>3.796994718641145e-09</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.022128683165647e-06</v>
+        <v>3.172131668449651e-09</v>
       </c>
       <c r="AO16" t="n">
-        <v>1.879938963611494e-06</v>
+        <v>9.010433510425742e-10</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.256454311260313e-06</v>
+        <v>5.244665146619809e-09</v>
       </c>
       <c r="AQ16" t="n">
-        <v>5.956885615887586e-07</v>
+        <v>1.189673870527486e-08</v>
       </c>
       <c r="AR16" t="n">
-        <v>3.049620431738731e-07</v>
+        <v>7.784819899825379e-09</v>
       </c>
       <c r="AS16" t="n">
-        <v>8.063477139330644e-07</v>
+        <v>2.392722020516658e-09</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.017242630041437e-05</v>
+        <v>2.783443253662199e-09</v>
       </c>
       <c r="AU16" t="n">
-        <v>4.391169113659998e-06</v>
+        <v>1.887214828855122e-08</v>
       </c>
       <c r="AV16" t="n">
-        <v>6.041203732820577e-07</v>
+        <v>6.943337016451778e-09</v>
       </c>
       <c r="AW16" t="n">
-        <v>2.581080025265692e-07</v>
+        <v>6.194813551019251e-09</v>
       </c>
       <c r="AX16" t="n">
-        <v>1.945715666806791e-06</v>
+        <v>4.085078053606139e-09</v>
       </c>
       <c r="AY16" t="n">
-        <v>4.436194842583063e-07</v>
+        <v>1.124437876143247e-09</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9.622724519431358e-07</v>
+        <v>3.360300482313505e-09</v>
       </c>
       <c r="BA16" t="n">
-        <v>3.111606474703876e-06</v>
+        <v>6.751110781522129e-09</v>
       </c>
       <c r="BB16" t="n">
-        <v>1.484663130213448e-06</v>
+        <v>2.373732099769654e-09</v>
       </c>
       <c r="BC16" t="n">
-        <v>4.897198323305929e-06</v>
+        <v>1.325830911724779e-08</v>
       </c>
       <c r="BD16" t="n">
-        <v>2.396539855453739e-08</v>
+        <v>4.368589046066518e-09</v>
       </c>
       <c r="BE16" t="n">
-        <v>3.119587518085609e-06</v>
+        <v>7.334307383644045e-09</v>
       </c>
       <c r="BF16" t="n">
-        <v>1.266757294615672e-07</v>
+        <v>6.510501471268526e-09</v>
       </c>
       <c r="BG16" t="n">
-        <v>4.774588433065219e-06</v>
+        <v>1.818901829153674e-08</v>
       </c>
       <c r="BH16" t="n">
-        <v>4.015099079879292e-07</v>
+        <v>1.889418754785765e-08</v>
       </c>
       <c r="BI16" t="n">
-        <v>5.824477739224676e-06</v>
+        <v>6.769102611769995e-09</v>
       </c>
       <c r="BJ16" t="n">
-        <v>7.03938394508441e-06</v>
+        <v>1.463218168851199e-08</v>
       </c>
       <c r="BK16" t="n">
-        <v>1.434231080565951e-07</v>
+        <v>1.17794929366255e-09</v>
       </c>
       <c r="BL16" t="n">
-        <v>1.037953666127578e-06</v>
+        <v>7.117919587074084e-09</v>
       </c>
       <c r="BM16" t="n">
-        <v>3.177774942741962e-06</v>
+        <v>9.450815241507371e-09</v>
       </c>
       <c r="BN16" t="n">
-        <v>9.477547564529232e-07</v>
+        <v>3.462522935038237e-09</v>
       </c>
       <c r="BO16" t="n">
-        <v>2.569731577750645e-06</v>
+        <v>1.053561504704703e-08</v>
       </c>
       <c r="BP16" t="n">
-        <v>2.455267349432688e-06</v>
+        <v>1.06641779851202e-08</v>
       </c>
       <c r="BQ16" t="n">
-        <v>4.354910174697579e-07</v>
+        <v>1.709283381501336e-09</v>
       </c>
       <c r="BR16" t="n">
-        <v>2.086976110149408e-06</v>
+        <v>7.644210597845813e-09</v>
       </c>
       <c r="BS16" t="n">
-        <v>2.979645330469793e-07</v>
+        <v>1.367775936955695e-08</v>
       </c>
       <c r="BT16" t="n">
-        <v>4.52742852985466e-07</v>
+        <v>5.550177206714579e-09</v>
       </c>
       <c r="BU16" t="n">
-        <v>8.685125067131594e-06</v>
+        <v>6.810238595278406e-09</v>
       </c>
       <c r="BV16" t="n">
-        <v>1.213714426739898e-07</v>
+        <v>9.645906295929763e-09</v>
       </c>
       <c r="BW16" t="n">
-        <v>3.23098879562167e-06</v>
+        <v>1.548500216941306e-09</v>
       </c>
       <c r="BX16" t="n">
-        <v>7.075692337821238e-06</v>
+        <v>2.144331601172667e-09</v>
       </c>
       <c r="BY16" t="n">
-        <v>2.885397861973615e-06</v>
+        <v>1.90798310484297e-09</v>
       </c>
       <c r="BZ16" t="n">
-        <v>3.702907633851282e-07</v>
+        <v>8.336642487449808e-09</v>
       </c>
       <c r="CA16" t="n">
-        <v>1.463125840928114e-06</v>
+        <v>9.529723676848789e-09</v>
       </c>
       <c r="CB16" t="n">
-        <v>1.290725322178332e-06</v>
+        <v>3.002003978735956e-09</v>
       </c>
       <c r="CC16" t="n">
-        <v>9.827389249039697e-07</v>
+        <v>6.625521020708902e-09</v>
       </c>
       <c r="CD16" t="n">
-        <v>3.555665443855105e-06</v>
+        <v>7.709610727602012e-10</v>
       </c>
       <c r="CE16" t="n">
-        <v>5.273940587358084e-06</v>
+        <v>7.856387540527976e-09</v>
       </c>
       <c r="CF16" t="n">
-        <v>7.627491527273378e-07</v>
+        <v>2.681534549964226e-09</v>
       </c>
       <c r="CG16" t="n">
-        <v>4.106718733964954e-06</v>
+        <v>2.619042760443335e-09</v>
       </c>
       <c r="CH16" t="n">
-        <v>1.581091282787384e-06</v>
+        <v>2.273170984778972e-09</v>
       </c>
       <c r="CI16" t="n">
-        <v>5.927630013502494e-07</v>
+        <v>1.907675351020544e-09</v>
       </c>
       <c r="CJ16" t="n">
-        <v>2.63119318333338e-06</v>
+        <v>9.084407670556516e-10</v>
       </c>
       <c r="CK16" t="n">
-        <v>2.66345523414202e-07</v>
+        <v>2.558347755865498e-09</v>
       </c>
       <c r="CL16" t="n">
-        <v>1.954789752289798e-07</v>
+        <v>3.877305143618059e-09</v>
       </c>
       <c r="CM16" t="n">
-        <v>3.296239583505667e-06</v>
+        <v>1.095717916399508e-08</v>
       </c>
       <c r="CN16" t="n">
-        <v>1.803901682251308e-06</v>
+        <v>2.04612238263735e-09</v>
       </c>
       <c r="CO16" t="n">
-        <v>1.479370098422805e-06</v>
+        <v>3.187642816371294e-09</v>
       </c>
       <c r="CP16" t="n">
-        <v>1.355639597022673e-06</v>
+        <v>2.486161143622212e-08</v>
       </c>
       <c r="CQ16" t="n">
-        <v>3.9322490010818e-06</v>
+        <v>1.016779549445346e-08</v>
       </c>
       <c r="CR16" t="n">
-        <v>1.159176918008598e-06</v>
+        <v>7.259429501971226e-09</v>
       </c>
       <c r="CS16" t="n">
-        <v>6.070873723729164e-07</v>
+        <v>1.999710264044552e-08</v>
       </c>
       <c r="CT16" t="n">
-        <v>4.068789621669566e-06</v>
+        <v>1.527692461422703e-08</v>
       </c>
       <c r="CU16" t="n">
-        <v>2.629053142300108e-06</v>
+        <v>7.304757687620622e-09</v>
       </c>
       <c r="CV16" t="n">
-        <v>2.971311459987191e-06</v>
+        <v>1.58127799743113e-09</v>
       </c>
       <c r="CW16" t="n">
-        <v>5.280666300677694e-06</v>
+        <v>4.954615828722808e-09</v>
       </c>
       <c r="CX16" t="n">
-        <v>1.562871148053091e-06</v>
+        <v>3.868027675935082e-09</v>
       </c>
       <c r="CY16" t="n">
-        <v>3.051443172807922e-06</v>
+        <v>6.602198787675206e-09</v>
       </c>
       <c r="CZ16" t="n">
-        <v>3.740018428288749e-08</v>
+        <v>3.764034417486073e-09</v>
       </c>
       <c r="DA16" t="n">
-        <v>8.264664757007267e-07</v>
+        <v>2.532427600954179e-10</v>
       </c>
       <c r="DB16" t="n">
-        <v>2.739340288826497e-06</v>
+        <v>4.797413577506404e-09</v>
       </c>
       <c r="DC16" t="n">
-        <v>8.475691970488697e-08</v>
+        <v>2.767590823182786e-09</v>
       </c>
       <c r="DD16" t="n">
-        <v>1.173767643081192e-07</v>
+        <v>2.341330240795969e-09</v>
       </c>
       <c r="DE16" t="n">
-        <v>8.818660148790514e-07</v>
+        <v>9.660473310191264e-09</v>
       </c>
       <c r="DF16" t="n">
-        <v>3.342128366057295e-06</v>
+        <v>1.421801343326479e-08</v>
       </c>
       <c r="DG16" t="n">
-        <v>2.522236172808334e-06</v>
+        <v>2.250510178214427e-08</v>
       </c>
       <c r="DH16" t="n">
-        <v>1.788425493032264e-06</v>
+        <v>2.35117951774555e-08</v>
       </c>
       <c r="DI16" t="n">
-        <v>5.439028996079287e-07</v>
+        <v>3.100329948324543e-08</v>
       </c>
       <c r="DJ16" t="n">
-        <v>1.197407073050272e-06</v>
+        <v>4.148882126742137e-09</v>
       </c>
       <c r="DK16" t="n">
-        <v>1.195803406517371e-06</v>
+        <v>4.436666145579693e-09</v>
       </c>
       <c r="DL16" t="n">
-        <v>3.820769507001387e-06</v>
+        <v>2.633818318997783e-08</v>
       </c>
       <c r="DM16" t="n">
-        <v>5.695930667570792e-06</v>
+        <v>5.069050956763022e-09</v>
       </c>
       <c r="DN16" t="n">
-        <v>8.454335898022691e-07</v>
+        <v>1.006035255102233e-08</v>
       </c>
       <c r="DO16" t="n">
-        <v>3.84160875910311e-06</v>
+        <v>3.569915696388648e-09</v>
       </c>
       <c r="DP16" t="n">
-        <v>1.773453050191165e-06</v>
+        <v>9.359425234833907e-09</v>
       </c>
       <c r="DQ16" t="n">
-        <v>4.39846962763113e-06</v>
+        <v>2.692886136301809e-09</v>
       </c>
       <c r="DR16" t="n">
-        <v>5.257888460619142e-06</v>
+        <v>4.011688314875528e-09</v>
       </c>
       <c r="DS16" t="n">
-        <v>2.862007477233419e-06</v>
+        <v>4.471569781117068e-09</v>
       </c>
       <c r="DT16" t="n">
-        <v>4.278887786313135e-07</v>
+        <v>1.819466466379538e-09</v>
       </c>
       <c r="DU16" t="n">
-        <v>8.305036658384779e-08</v>
+        <v>8.657748296059253e-09</v>
       </c>
       <c r="DV16" t="n">
-        <v>4.745596982047573e-07</v>
+        <v>1.57430246616741e-08</v>
       </c>
       <c r="DW16" t="n">
-        <v>2.323467924725264e-06</v>
+        <v>2.410374566608198e-09</v>
       </c>
       <c r="DX16" t="n">
-        <v>7.568584692307923e-07</v>
+        <v>4.379568707690851e-09</v>
       </c>
       <c r="DY16" t="n">
-        <v>2.731026995661523e-07</v>
+        <v>1.950817640761215e-08</v>
       </c>
       <c r="DZ16" t="n">
-        <v>5.236264541963465e-07</v>
+        <v>5.940123948278142e-10</v>
       </c>
       <c r="EA16" t="n">
-        <v>2.417698851786554e-06</v>
+        <v>1.449900466354848e-08</v>
       </c>
       <c r="EB16" t="n">
-        <v>2.576923918695684e-07</v>
+        <v>1.493321022394412e-08</v>
       </c>
       <c r="EC16" t="n">
-        <v>2.185232460760744e-06</v>
+        <v>2.367195106600661e-09</v>
       </c>
       <c r="ED16" t="n">
-        <v>3.638477664935635e-06</v>
+        <v>2.425865508470793e-09</v>
       </c>
       <c r="EE16" t="n">
-        <v>2.717641564231599e-06</v>
+        <v>6.007525032991623e-10</v>
       </c>
       <c r="EF16" t="n">
-        <v>4.463622644834686e-06</v>
+        <v>4.181536894520832e-09</v>
       </c>
       <c r="EG16" t="n">
-        <v>5.873803274880629e-06</v>
+        <v>2.296398848855574e-09</v>
       </c>
       <c r="EH16" t="n">
-        <v>8.131709137160215e-07</v>
+        <v>3.107123447421145e-09</v>
       </c>
       <c r="EI16" t="n">
-        <v>5.683693416358437e-06</v>
+        <v>5.140713632556526e-09</v>
       </c>
       <c r="EJ16" t="n">
-        <v>1.88697777048219e-06</v>
+        <v>7.314541861092039e-09</v>
       </c>
       <c r="EK16" t="n">
-        <v>1.864299520093482e-06</v>
+        <v>2.008015975718536e-09</v>
       </c>
       <c r="EL16" t="n">
-        <v>1.088142653316027e-06</v>
+        <v>6.49997389245982e-09</v>
       </c>
       <c r="EM16" t="n">
-        <v>1.676649731052748e-06</v>
+        <v>1.829704832090329e-09</v>
       </c>
       <c r="EN16" t="n">
-        <v>2.753114642928267e-07</v>
+        <v>6.058097579142441e-09</v>
       </c>
       <c r="EO16" t="n">
-        <v>1.922348928928841e-07</v>
+        <v>3.484829091959796e-09</v>
       </c>
       <c r="EP16" t="n">
-        <v>5.647729722113581e-06</v>
+        <v>3.375894452872785e-09</v>
       </c>
       <c r="EQ16" t="n">
-        <v>2.264756204795049e-08</v>
+        <v>5.516198609001322e-09</v>
       </c>
       <c r="ER16" t="n">
-        <v>1.051326080414583e-06</v>
+        <v>1.319616971251492e-09</v>
       </c>
       <c r="ES16" t="n">
-        <v>5.446480372484075e-06</v>
+        <v>4.751003146452604e-09</v>
       </c>
       <c r="ET16" t="n">
-        <v>8.410009968429222e-07</v>
+        <v>3.954386595950155e-09</v>
       </c>
       <c r="EU16" t="n">
-        <v>6.137416903584381e-07</v>
+        <v>2.853834057958693e-09</v>
       </c>
       <c r="EV16" t="n">
-        <v>1.243490260094404e-06</v>
+        <v>2.231507245653575e-08</v>
       </c>
       <c r="EW16" t="n">
-        <v>1.676783540460747e-06</v>
+        <v>1.366946733583063e-08</v>
       </c>
       <c r="EX16" t="n">
-        <v>3.050327677556197e-06</v>
+        <v>4.164191214073298e-10</v>
       </c>
       <c r="EY16" t="n">
-        <v>4.372745934233535e-06</v>
+        <v>4.654975960249885e-09</v>
       </c>
       <c r="EZ16" t="n">
-        <v>1.644252392907219e-06</v>
+        <v>2.1761450419433e-09</v>
       </c>
       <c r="FA16" t="n">
-        <v>3.635130951806786e-06</v>
+        <v>5.076011611038211e-09</v>
       </c>
       <c r="FB16" t="n">
-        <v>3.499970944176312e-07</v>
+        <v>2.817929889431525e-09</v>
       </c>
       <c r="FC16" t="n">
-        <v>1.529738710814854e-06</v>
+        <v>4.398367225988409e-10</v>
       </c>
       <c r="FD16" t="n">
-        <v>2.156611571990652e-06</v>
+        <v>2.119876496564643e-09</v>
       </c>
       <c r="FE16" t="n">
-        <v>2.571208881363418e-07</v>
+        <v>2.642281282660974e-09</v>
       </c>
       <c r="FF16" t="n">
-        <v>4.247745835073147e-07</v>
+        <v>3.103341361665457e-09</v>
       </c>
       <c r="FG16" t="n">
-        <v>3.034998144357814e-06</v>
+        <v>5.874666975103082e-09</v>
       </c>
       <c r="FH16" t="n">
-        <v>3.726776185430936e-07</v>
+        <v>1.039988184459162e-08</v>
       </c>
       <c r="FI16" t="n">
-        <v>1.719367446639808e-06</v>
+        <v>2.701771251167884e-08</v>
       </c>
       <c r="FJ16" t="n">
-        <v>1.250408217856602e-06</v>
+        <v>1.018449058420856e-08</v>
       </c>
       <c r="FK16" t="n">
-        <v>2.662008682818851e-06</v>
+        <v>1.444605590705805e-08</v>
       </c>
       <c r="FL16" t="n">
-        <v>1.953292667167261e-06</v>
+        <v>8.086523450856475e-09</v>
       </c>
       <c r="FM16" t="n">
-        <v>3.364701569807949e-06</v>
+        <v>3.030462547570778e-10</v>
       </c>
       <c r="FN16" t="n">
-        <v>1.51607036968926e-06</v>
+        <v>7.058729600828428e-09</v>
       </c>
       <c r="FO16" t="n">
-        <v>1.854752440522134e-08</v>
+        <v>9.933658340344209e-10</v>
       </c>
       <c r="FP16" t="n">
-        <v>3.632799234765116e-06</v>
+        <v>2.187473757686575e-09</v>
       </c>
       <c r="FQ16" t="n">
-        <v>7.546872438979335e-06</v>
+        <v>1.364542479009856e-09</v>
       </c>
       <c r="FR16" t="n">
-        <v>3.182923364875023e-07</v>
+        <v>1.231353019548465e-09</v>
       </c>
       <c r="FS16" t="n">
-        <v>1.804262865334749e-06</v>
+        <v>2.986279667993585e-09</v>
       </c>
       <c r="FT16" t="n">
-        <v>3.540344096109038e-06</v>
+        <v>1.249522263435665e-08</v>
       </c>
       <c r="FU16" t="n">
-        <v>5.030588908994105e-06</v>
+        <v>4.856917090734214e-09</v>
       </c>
       <c r="FV16" t="n">
-        <v>3.086062179136206e-06</v>
+        <v>1.679213212923969e-08</v>
       </c>
       <c r="FW16" t="n">
-        <v>6.521781870105769e-07</v>
+        <v>2.567366319539133e-09</v>
       </c>
       <c r="FX16" t="n">
-        <v>2.627642743391334e-06</v>
+        <v>5.423366200574264e-10</v>
       </c>
       <c r="FY16" t="n">
-        <v>3.338065198477125e-06</v>
+        <v>7.948231406373907e-09</v>
       </c>
       <c r="FZ16" t="n">
-        <v>1.588088025528123e-06</v>
+        <v>1.285581507914912e-08</v>
       </c>
       <c r="GA16" t="n">
-        <v>2.660820200617309e-06</v>
+        <v>2.450952552024432e-09</v>
       </c>
       <c r="GB16" t="n">
-        <v>4.504218395595672e-06</v>
+        <v>2.087377382054001e-09</v>
       </c>
       <c r="GC16" t="n">
-        <v>1.767243929862161e-06</v>
+        <v>6.383314765656678e-09</v>
       </c>
       <c r="GD16" t="n">
-        <v>8.370701038984407e-07</v>
+        <v>1.463381771316108e-08</v>
       </c>
       <c r="GE16" t="n">
-        <v>2.92910431198834e-06</v>
+        <v>3.953358174157984e-08</v>
       </c>
       <c r="GF16" t="n">
-        <v>5.160804334991553e-07</v>
+        <v>4.330169556254759e-09</v>
       </c>
       <c r="GG16" t="n">
-        <v>2.382539605605416e-06</v>
+        <v>2.032256674056043e-08</v>
       </c>
     </row>
   </sheetData>
